--- a/JupyterNotebooks/AvgHW/CubeA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
+    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,22 +653,22 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.014410332856188</v>
+      </c>
+      <c r="D3">
+        <v>0.9932970025714924</v>
+      </c>
+      <c r="E3">
+        <v>0.9923836166484468</v>
+      </c>
+      <c r="F3">
+        <v>1.004279775623202</v>
+      </c>
+      <c r="G3">
         <v>0.9828372320041585</v>
       </c>
-      <c r="D3">
-        <v>1.022553430270047</v>
-      </c>
-      <c r="E3">
-        <v>0.996699015545607</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
         <v>0.9828372320041585</v>
-      </c>
-      <c r="G3">
-        <v>1.004279775623202</v>
-      </c>
-      <c r="H3">
-        <v>0.9923836166484468</v>
       </c>
       <c r="I3">
         <v>0.9828372320041585</v>
@@ -785,13 +677,13 @@
         <v>1.022553430270047</v>
       </c>
       <c r="K3">
+        <v>0.996699015545607</v>
+      </c>
+      <c r="L3">
         <v>1.005242464159165</v>
       </c>
-      <c r="L3">
-        <v>0.9932970025714924</v>
-      </c>
       <c r="M3">
-        <v>1.014410332856188</v>
+        <v>1.022553430270047</v>
       </c>
       <c r="N3">
         <v>0.9828372320041585</v>
@@ -824,7 +716,7 @@
         <v>1.001462858709788</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,22 +724,22 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.027823820292689</v>
+      </c>
+      <c r="D4">
+        <v>0.9871098175241074</v>
+      </c>
+      <c r="E4">
+        <v>0.9852564069214041</v>
+      </c>
+      <c r="F4">
+        <v>1.00832605813222</v>
+      </c>
+      <c r="G4">
         <v>0.9668497578865869</v>
       </c>
-      <c r="D4">
-        <v>1.043443851196584</v>
-      </c>
-      <c r="E4">
-        <v>0.9935509389635608</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.9668497578865869</v>
-      </c>
-      <c r="G4">
-        <v>1.00832605813222</v>
-      </c>
-      <c r="H4">
-        <v>0.9852564069214041</v>
       </c>
       <c r="I4">
         <v>0.9668497578865869</v>
@@ -856,13 +748,13 @@
         <v>1.043443851196584</v>
       </c>
       <c r="K4">
+        <v>0.9935509389635608</v>
+      </c>
+      <c r="L4">
         <v>1.010134756682225</v>
       </c>
-      <c r="L4">
-        <v>0.9871098175241076</v>
-      </c>
       <c r="M4">
-        <v>1.027823820292689</v>
+        <v>1.043443851196584</v>
       </c>
       <c r="N4">
         <v>0.9668497578865869</v>
@@ -895,7 +787,7 @@
         <v>1.002811925949922</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,22 +795,22 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.053400932576468</v>
+      </c>
+      <c r="D5">
+        <v>0.9753250360296623</v>
+      </c>
+      <c r="E5">
+        <v>0.9717048383352395</v>
+      </c>
+      <c r="F5">
+        <v>1.015876734019241</v>
+      </c>
+      <c r="G5">
         <v>0.9368783744191298</v>
       </c>
-      <c r="D5">
-        <v>1.083632727988497</v>
-      </c>
-      <c r="E5">
-        <v>0.987422927034737</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.9368783744191298</v>
-      </c>
-      <c r="G5">
-        <v>1.015876734019241</v>
-      </c>
-      <c r="H5">
-        <v>0.9717048383352395</v>
       </c>
       <c r="I5">
         <v>0.9368783744191298</v>
@@ -927,13 +819,13 @@
         <v>1.083632727988497</v>
       </c>
       <c r="K5">
+        <v>0.987422927034737</v>
+      </c>
+      <c r="L5">
         <v>1.019249856209765</v>
       </c>
-      <c r="L5">
-        <v>0.9753250360296623</v>
-      </c>
       <c r="M5">
-        <v>1.053400932576468</v>
+        <v>1.083632727988497</v>
       </c>
       <c r="N5">
         <v>0.9368783744191298</v>
@@ -966,7 +858,7 @@
         <v>1.005436428326592</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,22 +866,22 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.078365540607051</v>
+      </c>
+      <c r="D6">
+        <v>0.9638145407830812</v>
+      </c>
+      <c r="E6">
+        <v>0.9584564577105117</v>
+      </c>
+      <c r="F6">
+        <v>1.023247832937959</v>
+      </c>
+      <c r="G6">
         <v>0.9076719526450064</v>
       </c>
-      <c r="D6">
-        <v>1.122815999089135</v>
-      </c>
-      <c r="E6">
-        <v>0.9814221690043371</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
         <v>0.9076719526450064</v>
-      </c>
-      <c r="G6">
-        <v>1.023247832937959</v>
-      </c>
-      <c r="H6">
-        <v>0.9584564577105118</v>
       </c>
       <c r="I6">
         <v>0.9076719526450064</v>
@@ -998,13 +890,13 @@
         <v>1.122815999089135</v>
       </c>
       <c r="K6">
+        <v>0.9814221690043371</v>
+      </c>
+      <c r="L6">
         <v>1.028171131422603</v>
       </c>
-      <c r="L6">
-        <v>0.9638145407830812</v>
-      </c>
       <c r="M6">
-        <v>1.078365540607051</v>
+        <v>1.122815999089135</v>
       </c>
       <c r="N6">
         <v>0.9076719526450064</v>
@@ -1037,7 +929,7 @@
         <v>1.00799570302496</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,22 +937,22 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.001197025269757</v>
+      </c>
+      <c r="D7">
+        <v>0.999590847293276</v>
+      </c>
+      <c r="E7">
+        <v>0.999308781882925</v>
+      </c>
+      <c r="F7">
+        <v>1.00035414275744</v>
+      </c>
+      <c r="G7">
         <v>0.9990499284476313</v>
       </c>
-      <c r="D7">
-        <v>1.001959178117549</v>
-      </c>
-      <c r="E7">
-        <v>0.99940787152319</v>
-      </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.9990499284476313</v>
-      </c>
-      <c r="G7">
-        <v>1.00035414275744</v>
-      </c>
-      <c r="H7">
-        <v>0.999308781882925</v>
       </c>
       <c r="I7">
         <v>0.9990499284476313</v>
@@ -1069,25 +961,25 @@
         <v>1.001959178117549</v>
       </c>
       <c r="K7">
+        <v>0.9994078715231899</v>
+      </c>
+      <c r="L7">
         <v>1.000256127608003</v>
       </c>
-      <c r="L7">
-        <v>0.999590847293276</v>
-      </c>
       <c r="M7">
-        <v>1.001197025269757</v>
+        <v>1.001959178117549</v>
       </c>
       <c r="N7">
         <v>0.9990499284476313</v>
       </c>
       <c r="O7">
-        <v>0.99940787152319</v>
+        <v>0.9994078715231899</v>
       </c>
       <c r="P7">
         <v>1.00068352482037</v>
       </c>
       <c r="Q7">
-        <v>0.9998810071403149</v>
+        <v>0.9998810071403148</v>
       </c>
       <c r="R7">
         <v>1.000138992696123</v>
@@ -1108,7 +1000,7 @@
         <v>1.000140487862471</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,49 +1008,49 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9973752762794109</v>
+        <v>1.003270592497451</v>
       </c>
       <c r="D8">
-        <v>1.00533700919471</v>
+        <v>0.9988771455168874</v>
       </c>
       <c r="E8">
-        <v>0.9983946082924166</v>
+        <v>0.998110946104653</v>
       </c>
       <c r="F8">
-        <v>0.9973752762794109</v>
+        <v>1.000973218092549</v>
       </c>
       <c r="G8">
-        <v>1.000973218092549</v>
+        <v>0.9973752762794111</v>
       </c>
       <c r="H8">
-        <v>0.998110946104653</v>
+        <v>0.9973752762794111</v>
       </c>
       <c r="I8">
-        <v>0.9973752762794109</v>
+        <v>0.9973752762794111</v>
       </c>
       <c r="J8">
-        <v>1.00533700919471</v>
+        <v>1.005337009194711</v>
       </c>
       <c r="K8">
+        <v>0.9983946082924163</v>
+      </c>
+      <c r="L8">
         <v>1.000713004691798</v>
       </c>
-      <c r="L8">
-        <v>0.9988771455168876</v>
-      </c>
       <c r="M8">
-        <v>1.003270592497451</v>
+        <v>1.005337009194711</v>
       </c>
       <c r="N8">
-        <v>0.9973752762794109</v>
+        <v>0.9973752762794111</v>
       </c>
       <c r="O8">
-        <v>0.9983946082924166</v>
+        <v>0.9983946082924163</v>
       </c>
       <c r="P8">
-        <v>1.001865808743563</v>
+        <v>1.001865808743564</v>
       </c>
       <c r="Q8">
-        <v>0.9996839131924831</v>
+        <v>0.9996839131924828</v>
       </c>
       <c r="R8">
         <v>1.000368964588846</v>
@@ -1179,7 +1071,7 @@
         <v>1.000381475083735</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,22 +1079,22 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.004739628798453</v>
+      </c>
+      <c r="D9">
+        <v>0.9983775259927956</v>
+      </c>
+      <c r="E9">
+        <v>0.9972589088195949</v>
+      </c>
+      <c r="F9">
+        <v>1.001418748110269</v>
+      </c>
+      <c r="G9">
         <v>0.9961855654394141</v>
       </c>
-      <c r="D9">
-        <v>1.007720051159317</v>
-      </c>
-      <c r="E9">
-        <v>0.9976692124769259</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
         <v>0.9961855654394141</v>
-      </c>
-      <c r="G9">
-        <v>1.001418748110269</v>
-      </c>
-      <c r="H9">
-        <v>0.9972589088195949</v>
       </c>
       <c r="I9">
         <v>0.9961855654394141</v>
@@ -1211,13 +1103,13 @@
         <v>1.007720051159317</v>
       </c>
       <c r="K9">
+        <v>0.9976692124769259</v>
+      </c>
+      <c r="L9">
         <v>1.001037322851409</v>
       </c>
-      <c r="L9">
-        <v>0.9983775259927956</v>
-      </c>
       <c r="M9">
-        <v>1.004739628798453</v>
+        <v>1.007720051159317</v>
       </c>
       <c r="N9">
         <v>0.9961855654394141</v>
@@ -1250,7 +1142,7 @@
         <v>1.000550870456022</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,22 +1150,22 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.010055983001227</v>
+      </c>
+      <c r="D10">
+        <v>0.9965449673269277</v>
+      </c>
+      <c r="E10">
+        <v>0.9941922757486052</v>
+      </c>
+      <c r="F10">
+        <v>1.003004561330919</v>
+      </c>
+      <c r="G10">
         <v>0.9918778936046198</v>
       </c>
-      <c r="D10">
-        <v>1.016386297119781</v>
-      </c>
-      <c r="E10">
-        <v>0.9950809676763852</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
         <v>0.9918778936046198</v>
-      </c>
-      <c r="G10">
-        <v>1.003004561330919</v>
-      </c>
-      <c r="H10">
-        <v>0.9941922757486051</v>
       </c>
       <c r="I10">
         <v>0.9918778936046198</v>
@@ -1282,13 +1174,13 @@
         <v>1.016386297119781</v>
       </c>
       <c r="K10">
+        <v>0.9950809676763852</v>
+      </c>
+      <c r="L10">
         <v>1.002208610411132</v>
       </c>
-      <c r="L10">
-        <v>0.9965449673269277</v>
-      </c>
       <c r="M10">
-        <v>1.010055983001227</v>
+        <v>1.016386297119781</v>
       </c>
       <c r="N10">
         <v>0.9918778936046198</v>
@@ -1321,7 +1213,7 @@
         <v>1.00116894452745</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,22 +1221,22 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.01716358619425</v>
+      </c>
+      <c r="D11">
+        <v>0.9941266062243364</v>
+      </c>
+      <c r="E11">
+        <v>0.990077584610396</v>
+      </c>
+      <c r="F11">
+        <v>1.005120158065051</v>
+      </c>
+      <c r="G11">
         <v>0.9862435850233006</v>
       </c>
-      <c r="D11">
-        <v>1.0279947144159</v>
-      </c>
-      <c r="E11">
-        <v>0.9915447946271484</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
         <v>0.9862435850233006</v>
-      </c>
-      <c r="G11">
-        <v>1.005120158065051</v>
-      </c>
-      <c r="H11">
-        <v>0.990077584610396</v>
       </c>
       <c r="I11">
         <v>0.9862435850233006</v>
@@ -1353,13 +1245,13 @@
         <v>1.0279947144159</v>
       </c>
       <c r="K11">
+        <v>0.9915447946271484</v>
+      </c>
+      <c r="L11">
         <v>1.003732892402196</v>
       </c>
-      <c r="L11">
-        <v>0.9941266062243364</v>
-      </c>
       <c r="M11">
-        <v>1.01716358619425</v>
+        <v>1.0279947144159</v>
       </c>
       <c r="N11">
         <v>0.9862435850233006</v>
@@ -1392,7 +1284,7 @@
         <v>1.002000490195322</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,37 +1292,37 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.8426738606596357</v>
+      </c>
+      <c r="D12">
+        <v>1.082862769416514</v>
+      </c>
+      <c r="E12">
+        <v>1.079165807843437</v>
+      </c>
+      <c r="F12">
+        <v>0.9528495260875799</v>
+      </c>
+      <c r="G12">
         <v>1.220272599678329</v>
       </c>
-      <c r="D12">
-        <v>0.7597461781066924</v>
-      </c>
-      <c r="E12">
-        <v>1.014626936988383</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
         <v>1.220272599678329</v>
-      </c>
-      <c r="G12">
-        <v>0.9528495260875799</v>
-      </c>
-      <c r="H12">
-        <v>1.079165807843437</v>
       </c>
       <c r="I12">
         <v>1.220272599678329</v>
       </c>
       <c r="J12">
-        <v>0.7597461781066924</v>
+        <v>0.7597461781066923</v>
       </c>
       <c r="K12">
+        <v>1.014626936988383</v>
+      </c>
+      <c r="L12">
         <v>0.930732116365203</v>
       </c>
-      <c r="L12">
-        <v>1.082862769416514</v>
-      </c>
       <c r="M12">
-        <v>0.8426738606596358</v>
+        <v>0.7597461781066923</v>
       </c>
       <c r="N12">
         <v>1.220272599678329</v>
@@ -1445,7 +1337,7 @@
         <v>0.9837382315379812</v>
       </c>
       <c r="R12">
-        <v>0.9982152382578011</v>
+        <v>0.9982152382578012</v>
       </c>
       <c r="S12">
         <v>0.9090742137275516</v>
@@ -1460,10 +1352,10 @@
         <v>1.033553568107862</v>
       </c>
       <c r="W12">
-        <v>0.9853662243932216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
+        <v>0.9853662243932217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9514587731829951</v>
+      </c>
+      <c r="D13">
+        <v>1.00641866625033</v>
+      </c>
+      <c r="E13">
+        <v>1.034307751365484</v>
+      </c>
+      <c r="F13">
+        <v>0.9778158369090592</v>
+      </c>
+      <c r="G13">
         <v>1.028013016945666</v>
       </c>
-      <c r="D13">
-        <v>0.9315213570110724</v>
-      </c>
-      <c r="E13">
-        <v>1.04145784451504</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
         <v>1.028013016945666</v>
-      </c>
-      <c r="G13">
-        <v>0.9778158369090592</v>
-      </c>
-      <c r="H13">
-        <v>1.034307751365484</v>
       </c>
       <c r="I13">
         <v>1.028013016945666</v>
       </c>
       <c r="J13">
-        <v>0.9315213570110724</v>
+        <v>0.9315213570110723</v>
       </c>
       <c r="K13">
-        <v>0.9923932972234528</v>
+        <v>1.04145784451504</v>
       </c>
       <c r="L13">
-        <v>1.00641866625033</v>
+        <v>0.9923932972234527</v>
       </c>
       <c r="M13">
-        <v>0.9514587731829953</v>
+        <v>0.9315213570110723</v>
       </c>
       <c r="N13">
         <v>1.028013016945666</v>
@@ -1534,7 +1426,7 @@
         <v>0.9954233179253875</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,40 +1434,40 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9443252807997771</v>
+        <v>0.8980927650089238</v>
       </c>
       <c r="D14">
-        <v>0.820404800197305</v>
+        <v>0.9881717888424015</v>
       </c>
       <c r="E14">
+        <v>1.080046699087106</v>
+      </c>
+      <c r="F14">
+        <v>0.9642769759617721</v>
+      </c>
+      <c r="G14">
+        <v>0.9443252807997767</v>
+      </c>
+      <c r="H14">
+        <v>0.9443252807997767</v>
+      </c>
+      <c r="I14">
+        <v>0.9443252807997767</v>
+      </c>
+      <c r="J14">
+        <v>0.8204048001973049</v>
+      </c>
+      <c r="K14">
         <v>1.149037622560001</v>
       </c>
-      <c r="F14">
-        <v>0.9443252807997771</v>
-      </c>
-      <c r="G14">
-        <v>0.9642769759617721</v>
-      </c>
-      <c r="H14">
-        <v>1.080046699087106</v>
-      </c>
-      <c r="I14">
-        <v>0.9443252807997771</v>
-      </c>
-      <c r="J14">
-        <v>0.820404800197305</v>
-      </c>
-      <c r="K14">
+      <c r="L14">
         <v>1.02705651789595</v>
       </c>
-      <c r="L14">
-        <v>0.9881717888424015</v>
-      </c>
       <c r="M14">
-        <v>0.8980927650089238</v>
+        <v>0.8204048001973049</v>
       </c>
       <c r="N14">
-        <v>0.9443252807997771</v>
+        <v>0.9443252807997767</v>
       </c>
       <c r="O14">
         <v>1.149037622560001</v>
@@ -1587,25 +1479,25 @@
         <v>1.056657299260887</v>
       </c>
       <c r="R14">
-        <v>0.9712559011856946</v>
+        <v>0.9712559011856944</v>
       </c>
       <c r="S14">
         <v>0.9779064662396929</v>
       </c>
       <c r="T14">
-        <v>0.9712559011856946</v>
+        <v>0.9712559011856943</v>
       </c>
       <c r="U14">
-        <v>0.969511169879714</v>
+        <v>0.9695111698797138</v>
       </c>
       <c r="V14">
-        <v>0.9644739920637265</v>
+        <v>0.9644739920637264</v>
       </c>
       <c r="W14">
         <v>0.9839265562941546</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,22 +1505,22 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.994371919217742</v>
+      </c>
+      <c r="D15">
+        <v>1.025025072477704</v>
+      </c>
+      <c r="E15">
+        <v>0.9930521465437686</v>
+      </c>
+      <c r="F15">
+        <v>1.000864111465482</v>
+      </c>
+      <c r="G15">
         <v>1.071988105605746</v>
       </c>
-      <c r="D15">
-        <v>0.9979665529146311</v>
-      </c>
-      <c r="E15">
-        <v>0.9541843545190981</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
         <v>1.071988105605746</v>
-      </c>
-      <c r="G15">
-        <v>1.000864111465482</v>
-      </c>
-      <c r="H15">
-        <v>0.9930521465437686</v>
       </c>
       <c r="I15">
         <v>1.071988105605746</v>
@@ -1637,13 +1529,13 @@
         <v>0.9979665529146311</v>
       </c>
       <c r="K15">
+        <v>0.9541843545190981</v>
+      </c>
+      <c r="L15">
         <v>0.9741967500424997</v>
       </c>
-      <c r="L15">
-        <v>1.025025072477704</v>
-      </c>
       <c r="M15">
-        <v>0.994371919217742</v>
+        <v>0.9979665529146311</v>
       </c>
       <c r="N15">
         <v>1.071988105605746</v>
@@ -1676,7 +1568,7 @@
         <v>1.001456126598334</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000130852899616</v>
+        <v>1.282328991621962</v>
       </c>
       <c r="D16">
-        <v>1.000218922008702</v>
+        <v>0.8716257015047034</v>
       </c>
       <c r="E16">
-        <v>0.9998086425975362</v>
+        <v>0.8492343935267342</v>
       </c>
       <c r="F16">
-        <v>1.000130852899616</v>
+        <v>1.085134008774567</v>
       </c>
       <c r="G16">
-        <v>1.000027012247979</v>
+        <v>0.6695738557367176</v>
       </c>
       <c r="H16">
-        <v>0.9999148032441809</v>
+        <v>0.6695738557367176</v>
       </c>
       <c r="I16">
-        <v>1.000130852899616</v>
+        <v>0.6695738557367176</v>
       </c>
       <c r="J16">
-        <v>1.000218922008702</v>
+        <v>1.440784297627455</v>
       </c>
       <c r="K16">
-        <v>0.9999406525879403</v>
+        <v>0.9297058925363186</v>
       </c>
       <c r="L16">
-        <v>1.000027429082074</v>
+        <v>1.100713405705855</v>
       </c>
       <c r="M16">
-        <v>1.000106048840825</v>
+        <v>1.440784297627455</v>
       </c>
       <c r="N16">
-        <v>1.000130852899616</v>
+        <v>0.6695738557367176</v>
       </c>
       <c r="O16">
-        <v>0.9998086425975362</v>
+        <v>0.9297058925363186</v>
       </c>
       <c r="P16">
-        <v>1.000013782303119</v>
+        <v>1.185245095081887</v>
       </c>
       <c r="Q16">
-        <v>0.9999178274227576</v>
+        <v>1.007419950655443</v>
       </c>
       <c r="R16">
-        <v>1.000052805835285</v>
+        <v>1.01335468196683</v>
       </c>
       <c r="S16">
-        <v>1.000018192284739</v>
+        <v>1.151874732979447</v>
       </c>
       <c r="T16">
-        <v>1.000052805835285</v>
+        <v>1.01335468196683</v>
       </c>
       <c r="U16">
-        <v>1.000046357438458</v>
+        <v>1.031299513668765</v>
       </c>
       <c r="V16">
-        <v>1.00006325653069</v>
+        <v>0.9589543820823552</v>
       </c>
       <c r="W16">
-        <v>1.000021795438607</v>
+        <v>1.028637568379289</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9987324966821426</v>
+        <v>1.233841752646913</v>
       </c>
       <c r="D17">
-        <v>1.002124601218166</v>
+        <v>0.898422822691708</v>
       </c>
       <c r="E17">
-        <v>0.9995099779186316</v>
+        <v>0.87310270042284</v>
       </c>
       <c r="F17">
-        <v>0.9987324966821426</v>
+        <v>1.070875719739024</v>
       </c>
       <c r="G17">
-        <v>1.000381618960806</v>
+        <v>0.7405592091689739</v>
       </c>
       <c r="H17">
-        <v>0.9992745130362819</v>
+        <v>0.7405592091689739</v>
       </c>
       <c r="I17">
-        <v>0.9987324966821426</v>
+        <v>0.7405592091689739</v>
       </c>
       <c r="J17">
-        <v>1.002124601218166</v>
+        <v>1.3669372820196</v>
       </c>
       <c r="K17">
-        <v>1.000362930851283</v>
+        <v>0.9317396872881</v>
       </c>
       <c r="L17">
-        <v>0.9994753567731793</v>
+        <v>1.078152807016292</v>
       </c>
       <c r="M17">
-        <v>1.001313837807887</v>
+        <v>1.3669372820196</v>
       </c>
       <c r="N17">
-        <v>0.9987324966821426</v>
+        <v>0.7405592091689739</v>
       </c>
       <c r="O17">
-        <v>0.9995099779186316</v>
+        <v>0.9317396872881</v>
       </c>
       <c r="P17">
-        <v>1.000817289568399</v>
+        <v>1.14933848465385</v>
       </c>
       <c r="Q17">
-        <v>0.9999457984397186</v>
+        <v>1.001307703513562</v>
       </c>
       <c r="R17">
-        <v>1.000122358606313</v>
+        <v>1.013078726158891</v>
       </c>
       <c r="S17">
-        <v>1.000672066032534</v>
+        <v>1.123184229682241</v>
       </c>
       <c r="T17">
-        <v>1.000122358606313</v>
+        <v>1.013078726158891</v>
       </c>
       <c r="U17">
-        <v>1.000187173694937</v>
+        <v>1.027527974553925</v>
       </c>
       <c r="V17">
-        <v>0.9998962382923778</v>
+        <v>0.9701342214769344</v>
       </c>
       <c r="W17">
-        <v>1.000146916656047</v>
+        <v>1.024203997624181</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9949135588766075</v>
+        <v>1.136570119578109</v>
       </c>
       <c r="D18">
-        <v>1.007005956673183</v>
+        <v>0.9520460528114685</v>
       </c>
       <c r="E18">
-        <v>0.998741571701184</v>
+        <v>0.9210391240695361</v>
       </c>
       <c r="F18">
-        <v>0.9949135588766075</v>
+        <v>1.042273958968738</v>
       </c>
       <c r="G18">
-        <v>1.001374461787384</v>
+        <v>0.8825261065510284</v>
       </c>
       <c r="H18">
-        <v>0.9975693219458278</v>
+        <v>0.8825261065510284</v>
       </c>
       <c r="I18">
-        <v>0.9949135588766075</v>
+        <v>0.8825261065510284</v>
       </c>
       <c r="J18">
-        <v>1.007005956673183</v>
+        <v>1.218710402627322</v>
       </c>
       <c r="K18">
-        <v>1.001539628050491</v>
+        <v>0.9361117559630708</v>
       </c>
       <c r="L18">
-        <v>0.9980305622708039</v>
+        <v>1.03305867474763</v>
       </c>
       <c r="M18">
-        <v>1.004489066066324</v>
+        <v>1.218710402627322</v>
       </c>
       <c r="N18">
-        <v>0.9949135588766075</v>
+        <v>0.8825261065510284</v>
       </c>
       <c r="O18">
-        <v>0.998741571701184</v>
+        <v>0.9361117559630708</v>
       </c>
       <c r="P18">
-        <v>1.002873764187184</v>
+        <v>1.077411079295197</v>
       </c>
       <c r="Q18">
-        <v>1.000058016744284</v>
+        <v>0.9891928574659046</v>
       </c>
       <c r="R18">
-        <v>1.000220362416992</v>
+        <v>1.012449421713807</v>
       </c>
       <c r="S18">
-        <v>1.002373996720584</v>
+        <v>1.065698705853044</v>
       </c>
       <c r="T18">
-        <v>1.000220362416992</v>
+        <v>1.012449421713807</v>
       </c>
       <c r="U18">
-        <v>1.00050888725959</v>
+        <v>1.01990555602754</v>
       </c>
       <c r="V18">
-        <v>0.9993898215829933</v>
+        <v>0.9924296661322376</v>
       </c>
       <c r="W18">
-        <v>1.000458015921476</v>
+        <v>1.015292024414613</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9874978564264935</v>
+        <v>1.150253587154548</v>
       </c>
       <c r="D19">
+        <v>0.9473952475537336</v>
+      </c>
+      <c r="E19">
+        <v>0.9136702455840551</v>
+      </c>
+      <c r="F19">
+        <v>1.044435162691359</v>
+      </c>
+      <c r="G19">
+        <v>0.877028373875041</v>
+      </c>
+      <c r="H19">
+        <v>0.877028373875041</v>
+      </c>
+      <c r="I19">
+        <v>0.877028373875041</v>
+      </c>
+      <c r="J19">
+        <v>1.245155619163339</v>
+      </c>
+      <c r="K19">
+        <v>0.9282361519592919</v>
+      </c>
+      <c r="L19">
+        <v>1.033667360023834</v>
+      </c>
+      <c r="M19">
+        <v>1.245155619163339</v>
+      </c>
+      <c r="N19">
+        <v>0.877028373875041</v>
+      </c>
+      <c r="O19">
+        <v>0.9282361519592919</v>
+      </c>
+      <c r="P19">
+        <v>1.086695885561315</v>
+      </c>
+      <c r="Q19">
+        <v>0.9863356573253257</v>
+      </c>
+      <c r="R19">
+        <v>1.016806714999224</v>
+      </c>
+      <c r="S19">
+        <v>1.072608977937997</v>
+      </c>
+      <c r="T19">
+        <v>1.016806714999224</v>
+      </c>
+      <c r="U19">
+        <v>1.023713826922258</v>
+      </c>
+      <c r="V19">
+        <v>0.9943767363128144</v>
+      </c>
+      <c r="W19">
+        <v>1.01748021850065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000106048840825</v>
+      </c>
+      <c r="D20">
+        <v>1.000027429082074</v>
+      </c>
+      <c r="E20">
+        <v>0.9999148032441809</v>
+      </c>
+      <c r="F20">
+        <v>1.000027012247979</v>
+      </c>
+      <c r="G20">
+        <v>1.000130852899616</v>
+      </c>
+      <c r="H20">
+        <v>1.000130852899616</v>
+      </c>
+      <c r="I20">
+        <v>1.000130852899616</v>
+      </c>
+      <c r="J20">
+        <v>1.000218922008702</v>
+      </c>
+      <c r="K20">
+        <v>0.9998086425975362</v>
+      </c>
+      <c r="L20">
+        <v>0.9999406525879403</v>
+      </c>
+      <c r="M20">
+        <v>1.000218922008702</v>
+      </c>
+      <c r="N20">
+        <v>1.000130852899616</v>
+      </c>
+      <c r="O20">
+        <v>0.9998086425975362</v>
+      </c>
+      <c r="P20">
+        <v>1.000013782303119</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999178274227576</v>
+      </c>
+      <c r="R20">
+        <v>1.000052805835285</v>
+      </c>
+      <c r="S20">
+        <v>1.000018192284739</v>
+      </c>
+      <c r="T20">
+        <v>1.000052805835285</v>
+      </c>
+      <c r="U20">
+        <v>1.000046357438458</v>
+      </c>
+      <c r="V20">
+        <v>1.00006325653069</v>
+      </c>
+      <c r="W20">
+        <v>1.000021795438607</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.001313837807887</v>
+      </c>
+      <c r="D21">
+        <v>0.9994753567731793</v>
+      </c>
+      <c r="E21">
+        <v>0.9992745130362819</v>
+      </c>
+      <c r="F21">
+        <v>1.000381618960806</v>
+      </c>
+      <c r="G21">
+        <v>0.9987324966821428</v>
+      </c>
+      <c r="H21">
+        <v>0.9987324966821428</v>
+      </c>
+      <c r="I21">
+        <v>0.9987324966821428</v>
+      </c>
+      <c r="J21">
+        <v>1.002124601218166</v>
+      </c>
+      <c r="K21">
+        <v>0.9995099779186314</v>
+      </c>
+      <c r="L21">
+        <v>1.000362930851283</v>
+      </c>
+      <c r="M21">
+        <v>1.002124601218166</v>
+      </c>
+      <c r="N21">
+        <v>0.9987324966821428</v>
+      </c>
+      <c r="O21">
+        <v>0.9995099779186314</v>
+      </c>
+      <c r="P21">
+        <v>1.000817289568399</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999457984397185</v>
+      </c>
+      <c r="R21">
+        <v>1.000122358606313</v>
+      </c>
+      <c r="S21">
+        <v>1.000672066032534</v>
+      </c>
+      <c r="T21">
+        <v>1.000122358606313</v>
+      </c>
+      <c r="U21">
+        <v>1.000187173694937</v>
+      </c>
+      <c r="V21">
+        <v>0.9998962382923778</v>
+      </c>
+      <c r="W21">
+        <v>1.000146916656047</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.004489066066324</v>
+      </c>
+      <c r="D22">
+        <v>0.9980305622708041</v>
+      </c>
+      <c r="E22">
+        <v>0.9975693219458275</v>
+      </c>
+      <c r="F22">
+        <v>1.001374461787384</v>
+      </c>
+      <c r="G22">
+        <v>0.9949135588766073</v>
+      </c>
+      <c r="H22">
+        <v>0.9949135588766073</v>
+      </c>
+      <c r="I22">
+        <v>0.9949135588766073</v>
+      </c>
+      <c r="J22">
+        <v>1.007005956673183</v>
+      </c>
+      <c r="K22">
+        <v>0.9987415717011838</v>
+      </c>
+      <c r="L22">
+        <v>1.001539628050491</v>
+      </c>
+      <c r="M22">
+        <v>1.007005956673183</v>
+      </c>
+      <c r="N22">
+        <v>0.9949135588766073</v>
+      </c>
+      <c r="O22">
+        <v>0.9987415717011838</v>
+      </c>
+      <c r="P22">
+        <v>1.002873764187183</v>
+      </c>
+      <c r="Q22">
+        <v>1.000058016744284</v>
+      </c>
+      <c r="R22">
+        <v>1.000220362416991</v>
+      </c>
+      <c r="S22">
+        <v>1.002373996720584</v>
+      </c>
+      <c r="T22">
+        <v>1.000220362416991</v>
+      </c>
+      <c r="U22">
+        <v>1.00050888725959</v>
+      </c>
+      <c r="V22">
+        <v>0.9993898215829932</v>
+      </c>
+      <c r="W22">
+        <v>1.000458015921476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.010371660372959</v>
+      </c>
+      <c r="D23">
+        <v>0.9951654493430196</v>
+      </c>
+      <c r="E23">
+        <v>0.9945133986228288</v>
+      </c>
+      <c r="F23">
+        <v>1.003119445605511</v>
+      </c>
+      <c r="G23">
+        <v>0.9874978564264933</v>
+      </c>
+      <c r="H23">
+        <v>0.9874978564264933</v>
+      </c>
+      <c r="I23">
+        <v>0.9874978564264933</v>
+      </c>
+      <c r="J23">
         <v>1.01614681236346</v>
       </c>
-      <c r="E19">
+      <c r="K23">
         <v>0.9976714450911831</v>
       </c>
-      <c r="F19">
-        <v>0.9874978564264935</v>
-      </c>
-      <c r="G19">
-        <v>1.003119445605511</v>
-      </c>
-      <c r="H19">
-        <v>0.9945133986228288</v>
-      </c>
-      <c r="I19">
-        <v>0.9874978564264935</v>
-      </c>
-      <c r="J19">
+      <c r="L23">
+        <v>1.003831506676968</v>
+      </c>
+      <c r="M23">
         <v>1.01614681236346</v>
       </c>
-      <c r="K19">
-        <v>1.003831506676968</v>
-      </c>
-      <c r="L19">
-        <v>0.9951654493430196</v>
-      </c>
-      <c r="M19">
-        <v>1.010371660372959</v>
-      </c>
-      <c r="N19">
-        <v>0.9874978564264935</v>
-      </c>
-      <c r="O19">
+      <c r="N23">
+        <v>0.9874978564264933</v>
+      </c>
+      <c r="O23">
         <v>0.9976714450911831</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.006909128727322</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000395445348347</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000438704627046</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.005645901020052</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000438704627046</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.001108889871662</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>0.9983866831826284</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.001039696812803</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/CubeA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW25.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[5, 1, 1]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.014410332856188</v>
+        <v>1.163302788897695</v>
       </c>
       <c r="D3">
-        <v>0.9932970025714924</v>
+        <v>0.941576797233428</v>
       </c>
       <c r="E3">
-        <v>0.9923836166484468</v>
+        <v>0.9061796425720416</v>
       </c>
       <c r="F3">
-        <v>1.004279775623202</v>
+        <v>1.050053208097983</v>
       </c>
       <c r="G3">
-        <v>0.9828372320041585</v>
+        <v>0.8573899252161317</v>
       </c>
       <c r="H3">
-        <v>0.9828372320041585</v>
+        <v>0.8573899252161317</v>
       </c>
       <c r="I3">
-        <v>0.9828372320041585</v>
+        <v>0.8573899252161317</v>
       </c>
       <c r="J3">
-        <v>1.022553430270047</v>
+        <v>1.262006441059077</v>
       </c>
       <c r="K3">
-        <v>0.996699015545607</v>
+        <v>0.9256893765057634</v>
       </c>
       <c r="L3">
-        <v>1.005242464159165</v>
+        <v>1.040219749337176</v>
       </c>
       <c r="M3">
-        <v>1.022553430270047</v>
+        <v>1.262006441059077</v>
       </c>
       <c r="N3">
-        <v>0.9828372320041585</v>
+        <v>0.8573899252161317</v>
       </c>
       <c r="O3">
-        <v>0.996699015545607</v>
+        <v>0.9256893765057634</v>
       </c>
       <c r="P3">
-        <v>1.009626222907827</v>
+        <v>1.09384790878242</v>
       </c>
       <c r="Q3">
-        <v>1.000489395584404</v>
+        <v>0.9878712923018733</v>
       </c>
       <c r="R3">
-        <v>1.000696559273271</v>
+        <v>1.015028580926991</v>
       </c>
       <c r="S3">
-        <v>1.007844073812952</v>
+        <v>1.079249675220941</v>
       </c>
       <c r="T3">
-        <v>1.000696559273271</v>
+        <v>1.015028580926991</v>
       </c>
       <c r="U3">
-        <v>1.001592363360754</v>
+        <v>1.023784737719739</v>
       </c>
       <c r="V3">
-        <v>0.9978413370894345</v>
+        <v>0.9905057752190174</v>
       </c>
       <c r="W3">
-        <v>1.001462858709788</v>
+        <v>1.018302241114912</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.027823820292689</v>
+        <v>1.148368515493854</v>
       </c>
       <c r="D4">
-        <v>0.9871098175241074</v>
+        <v>0.9474260763212837</v>
       </c>
       <c r="E4">
-        <v>0.9852564069214041</v>
+        <v>0.9144805828401033</v>
       </c>
       <c r="F4">
-        <v>1.00832605813222</v>
+        <v>1.045707599314195</v>
       </c>
       <c r="G4">
-        <v>0.9668497578865869</v>
+        <v>0.8714335097428225</v>
       </c>
       <c r="H4">
-        <v>0.9668497578865869</v>
+        <v>0.8714335097428225</v>
       </c>
       <c r="I4">
-        <v>0.9668497578865869</v>
+        <v>0.8714335097428225</v>
       </c>
       <c r="J4">
-        <v>1.043443851196584</v>
+        <v>1.23781868232202</v>
       </c>
       <c r="K4">
-        <v>0.9935509389635608</v>
+        <v>0.9315106948639491</v>
       </c>
       <c r="L4">
-        <v>1.010134756682225</v>
+        <v>1.03621883375326</v>
       </c>
       <c r="M4">
-        <v>1.043443851196584</v>
+        <v>1.23781868232202</v>
       </c>
       <c r="N4">
-        <v>0.9668497578865869</v>
+        <v>0.8714335097428225</v>
       </c>
       <c r="O4">
-        <v>0.9935509389635608</v>
+        <v>0.9315106948639491</v>
       </c>
       <c r="P4">
-        <v>1.018497395080072</v>
+        <v>1.084664688592985</v>
       </c>
       <c r="Q4">
-        <v>1.000938498547891</v>
+        <v>0.9886091470890722</v>
       </c>
       <c r="R4">
-        <v>1.001281516015577</v>
+        <v>1.013587628976264</v>
       </c>
       <c r="S4">
-        <v>1.015106949430788</v>
+        <v>1.071678992166722</v>
       </c>
       <c r="T4">
-        <v>1.001281516015577</v>
+        <v>1.013587628976264</v>
       </c>
       <c r="U4">
-        <v>1.003042651544738</v>
+        <v>1.021617621560747</v>
       </c>
       <c r="V4">
-        <v>0.9958040728131078</v>
+        <v>0.991580799197162</v>
       </c>
       <c r="W4">
-        <v>1.002811925949922</v>
+        <v>1.016620561831436</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.053400932576468</v>
+        <v>1.19190963218329</v>
       </c>
       <c r="D5">
-        <v>0.9753250360296623</v>
+        <v>0.9304594567924542</v>
       </c>
       <c r="E5">
-        <v>0.9717048383352395</v>
+        <v>0.8902446811051219</v>
       </c>
       <c r="F5">
-        <v>1.015876734019241</v>
+        <v>1.058375624959567</v>
       </c>
       <c r="G5">
-        <v>0.9368783744191298</v>
+        <v>0.8307723385444724</v>
       </c>
       <c r="H5">
-        <v>0.9368783744191298</v>
+        <v>0.8307723385444724</v>
       </c>
       <c r="I5">
-        <v>0.9368783744191298</v>
+        <v>0.8307723385444724</v>
       </c>
       <c r="J5">
-        <v>1.083632727988497</v>
+        <v>1.308390716118598</v>
       </c>
       <c r="K5">
-        <v>0.987422927034737</v>
+        <v>0.9143504655795172</v>
       </c>
       <c r="L5">
-        <v>1.019249856209765</v>
+        <v>1.047776843342318</v>
       </c>
       <c r="M5">
-        <v>1.083632727988497</v>
+        <v>1.308390716118598</v>
       </c>
       <c r="N5">
-        <v>0.9368783744191298</v>
+        <v>0.8307723385444724</v>
       </c>
       <c r="O5">
-        <v>0.987422927034737</v>
+        <v>0.9143504655795172</v>
       </c>
       <c r="P5">
-        <v>1.035527827511617</v>
+        <v>1.111370590849057</v>
       </c>
       <c r="Q5">
-        <v>1.001649830526989</v>
+        <v>0.9863630452695422</v>
       </c>
       <c r="R5">
-        <v>1.002644676480788</v>
+        <v>1.017837840080863</v>
       </c>
       <c r="S5">
-        <v>1.028977463014158</v>
+        <v>1.093705602219227</v>
       </c>
       <c r="T5">
-        <v>1.002644676480788</v>
+        <v>1.017837840080863</v>
       </c>
       <c r="U5">
-        <v>1.005952690865401</v>
+        <v>1.027972286300539</v>
       </c>
       <c r="V5">
-        <v>0.992137827576147</v>
+        <v>0.9885322967493254</v>
       </c>
       <c r="W5">
-        <v>1.005436428326592</v>
+        <v>1.021534969828167</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.078365540607051</v>
+        <v>1.218911147897726</v>
       </c>
       <c r="D6">
-        <v>0.9638145407830812</v>
+        <v>0.9200686250000005</v>
       </c>
       <c r="E6">
-        <v>0.9584564577105117</v>
+        <v>0.8751634121022728</v>
       </c>
       <c r="F6">
-        <v>1.023247832937959</v>
+        <v>1.066229060909092</v>
       </c>
       <c r="G6">
-        <v>0.9076719526450064</v>
+        <v>0.8059822579545459</v>
       </c>
       <c r="H6">
-        <v>0.9076719526450064</v>
+        <v>0.8059822579545459</v>
       </c>
       <c r="I6">
-        <v>0.9076719526450064</v>
+        <v>0.8059822579545459</v>
       </c>
       <c r="J6">
-        <v>1.122815999089135</v>
+        <v>1.352233630965909</v>
       </c>
       <c r="K6">
-        <v>0.9814221690043371</v>
+        <v>0.9034260931250003</v>
       </c>
       <c r="L6">
-        <v>1.028171131422603</v>
+        <v>1.05478401909091</v>
       </c>
       <c r="M6">
-        <v>1.122815999089135</v>
+        <v>1.352233630965909</v>
       </c>
       <c r="N6">
-        <v>0.9076719526450064</v>
+        <v>0.8059822579545459</v>
       </c>
       <c r="O6">
-        <v>0.9814221690043371</v>
+        <v>0.9034260931250003</v>
       </c>
       <c r="P6">
-        <v>1.052119084046736</v>
+        <v>1.127829862045455</v>
       </c>
       <c r="Q6">
-        <v>1.002335000971148</v>
+        <v>0.9848275770170463</v>
       </c>
       <c r="R6">
-        <v>1.00397004024616</v>
+        <v>1.020547327348485</v>
       </c>
       <c r="S6">
-        <v>1.042495333677144</v>
+        <v>1.107296261666667</v>
       </c>
       <c r="T6">
-        <v>1.00397004024616</v>
+        <v>1.020547327348485</v>
       </c>
       <c r="U6">
-        <v>1.008789488419109</v>
+        <v>1.031967760738637</v>
       </c>
       <c r="V6">
-        <v>0.9885659812642886</v>
+        <v>0.9867706601818187</v>
       </c>
       <c r="W6">
-        <v>1.00799570302496</v>
+        <v>1.024599780880682</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.001197025269757</v>
+        <v>1.299378107588183</v>
       </c>
       <c r="D7">
-        <v>0.999590847293276</v>
+        <v>0.8533254986133694</v>
       </c>
       <c r="E7">
-        <v>0.999308781882925</v>
+        <v>0.8443816987138525</v>
       </c>
       <c r="F7">
-        <v>1.00035414275744</v>
+        <v>1.090221174268325</v>
       </c>
       <c r="G7">
-        <v>0.9990499284476313</v>
+        <v>0.6159869077856549</v>
       </c>
       <c r="H7">
-        <v>0.9990499284476313</v>
+        <v>0.6159869077856549</v>
       </c>
       <c r="I7">
-        <v>0.9990499284476313</v>
+        <v>0.6159869077856549</v>
       </c>
       <c r="J7">
-        <v>1.001959178117549</v>
+        <v>1.461639550303694</v>
       </c>
       <c r="K7">
-        <v>0.9994078715231899</v>
+        <v>0.9481290527187402</v>
       </c>
       <c r="L7">
-        <v>1.000256127608003</v>
+        <v>1.119410440135923</v>
       </c>
       <c r="M7">
-        <v>1.001959178117549</v>
+        <v>1.461639550303694</v>
       </c>
       <c r="N7">
-        <v>0.9990499284476313</v>
+        <v>0.6159869077856549</v>
       </c>
       <c r="O7">
-        <v>0.9994078715231899</v>
+        <v>0.9481290527187402</v>
       </c>
       <c r="P7">
-        <v>1.00068352482037</v>
+        <v>1.204884301511217</v>
       </c>
       <c r="Q7">
-        <v>0.9998810071403148</v>
+        <v>1.019175113493533</v>
       </c>
       <c r="R7">
-        <v>1.000138992696123</v>
+        <v>1.008585170269363</v>
       </c>
       <c r="S7">
-        <v>1.000573730799393</v>
+        <v>1.166663259096919</v>
       </c>
       <c r="T7">
-        <v>1.000138992696123</v>
+        <v>1.008585170269363</v>
       </c>
       <c r="U7">
-        <v>1.000192780211453</v>
+        <v>1.028994171269103</v>
       </c>
       <c r="V7">
-        <v>0.9999642098586883</v>
+        <v>0.9463927185724137</v>
       </c>
       <c r="W7">
-        <v>1.000140487862471</v>
+        <v>1.029059053765968</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.003270592497451</v>
+        <v>1.303066193037559</v>
       </c>
       <c r="D8">
-        <v>0.9988771455168874</v>
+        <v>0.8523169836467658</v>
       </c>
       <c r="E8">
-        <v>0.998110946104653</v>
+        <v>0.8421598848881794</v>
       </c>
       <c r="F8">
-        <v>1.000973218092549</v>
+        <v>1.091285160017975</v>
       </c>
       <c r="G8">
-        <v>0.9973752762794111</v>
+        <v>0.6139390195868498</v>
       </c>
       <c r="H8">
-        <v>0.9973752762794111</v>
+        <v>0.6139390195868498</v>
       </c>
       <c r="I8">
-        <v>0.9973752762794111</v>
+        <v>0.6139390195868498</v>
       </c>
       <c r="J8">
-        <v>1.005337009194711</v>
+        <v>1.467876293991917</v>
       </c>
       <c r="K8">
-        <v>0.9983946082924163</v>
+        <v>0.9457490601414295</v>
       </c>
       <c r="L8">
-        <v>1.000713004691798</v>
+        <v>1.119862889078076</v>
       </c>
       <c r="M8">
-        <v>1.005337009194711</v>
+        <v>1.467876293991917</v>
       </c>
       <c r="N8">
-        <v>0.9973752762794111</v>
+        <v>0.6139390195868498</v>
       </c>
       <c r="O8">
-        <v>0.9983946082924163</v>
+        <v>0.9457490601414295</v>
       </c>
       <c r="P8">
-        <v>1.001865808743564</v>
+        <v>1.206812677066673</v>
       </c>
       <c r="Q8">
-        <v>0.9996839131924828</v>
+        <v>1.018517110079702</v>
       </c>
       <c r="R8">
-        <v>1.000368964588846</v>
+        <v>1.009188124573399</v>
       </c>
       <c r="S8">
-        <v>1.001568278526559</v>
+        <v>1.168303504717107</v>
       </c>
       <c r="T8">
-        <v>1.000368964588846</v>
+        <v>1.009188124573399</v>
       </c>
       <c r="U8">
-        <v>1.000520027964772</v>
+        <v>1.029712383434543</v>
       </c>
       <c r="V8">
-        <v>0.9998910776276997</v>
+        <v>0.9465577106650043</v>
       </c>
       <c r="W8">
-        <v>1.000381475083735</v>
+        <v>1.029531935548594</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.004739628798453</v>
+        <v>1.305810892998333</v>
       </c>
       <c r="D9">
-        <v>0.9983775259927956</v>
+        <v>0.8515572602803638</v>
       </c>
       <c r="E9">
-        <v>0.9972589088195949</v>
+        <v>0.8405149615594588</v>
       </c>
       <c r="F9">
-        <v>1.001418748110269</v>
+        <v>1.092063313969328</v>
       </c>
       <c r="G9">
-        <v>0.9961855654394141</v>
+        <v>0.612420834063309</v>
       </c>
       <c r="H9">
-        <v>0.9961855654394141</v>
+        <v>0.612420834063309</v>
       </c>
       <c r="I9">
-        <v>0.9961855654394141</v>
+        <v>0.612420834063309</v>
       </c>
       <c r="J9">
-        <v>1.007720051159317</v>
+        <v>1.472543253164316</v>
       </c>
       <c r="K9">
-        <v>0.9976692124769259</v>
+        <v>0.9439914520511553</v>
       </c>
       <c r="L9">
-        <v>1.001037322851409</v>
+        <v>1.120193541257299</v>
       </c>
       <c r="M9">
-        <v>1.007720051159317</v>
+        <v>1.472543253164316</v>
       </c>
       <c r="N9">
-        <v>0.9961855654394141</v>
+        <v>0.612420834063309</v>
       </c>
       <c r="O9">
-        <v>0.9976692124769259</v>
+        <v>0.9439914520511553</v>
       </c>
       <c r="P9">
-        <v>1.002694631818121</v>
+        <v>1.208267352607736</v>
       </c>
       <c r="Q9">
-        <v>0.9995439802935973</v>
+        <v>1.018027383010242</v>
       </c>
       <c r="R9">
-        <v>1.000524943025219</v>
+        <v>1.00965184642626</v>
       </c>
       <c r="S9">
-        <v>1.002269337248837</v>
+        <v>1.1695326730616</v>
       </c>
       <c r="T9">
-        <v>1.000524943025219</v>
+        <v>1.00965184642626</v>
       </c>
       <c r="U9">
-        <v>1.000748394296481</v>
+        <v>1.030254713312027</v>
       </c>
       <c r="V9">
-        <v>0.9998358285250679</v>
+        <v>0.9466879374622836</v>
       </c>
       <c r="W9">
-        <v>1.000550870456022</v>
+        <v>1.029886938667945</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.010055983001227</v>
+        <v>1.31598461357507</v>
       </c>
       <c r="D10">
-        <v>0.9965449673269277</v>
+        <v>0.8487468338647756</v>
       </c>
       <c r="E10">
-        <v>0.9941922757486052</v>
+        <v>0.8344125109045799</v>
       </c>
       <c r="F10">
-        <v>1.003004561330919</v>
+        <v>1.09495605705799</v>
       </c>
       <c r="G10">
-        <v>0.9918778936046198</v>
+        <v>0.6067898132637186</v>
       </c>
       <c r="H10">
-        <v>0.9918778936046198</v>
+        <v>0.6067898132637186</v>
       </c>
       <c r="I10">
-        <v>0.9918778936046198</v>
+        <v>0.6067898132637186</v>
       </c>
       <c r="J10">
-        <v>1.016386297119781</v>
+        <v>1.489826529458515</v>
       </c>
       <c r="K10">
-        <v>0.9950809676763852</v>
+        <v>0.9374682315441364</v>
       </c>
       <c r="L10">
-        <v>1.002208610411132</v>
+        <v>1.12142287743185</v>
       </c>
       <c r="M10">
-        <v>1.016386297119781</v>
+        <v>1.489826529458515</v>
       </c>
       <c r="N10">
-        <v>0.9918778936046198</v>
+        <v>0.6067898132637186</v>
       </c>
       <c r="O10">
-        <v>0.9950809676763852</v>
+        <v>0.9374682315441364</v>
       </c>
       <c r="P10">
-        <v>1.005733632398083</v>
+        <v>1.213647380501326</v>
       </c>
       <c r="Q10">
-        <v>0.9990427645036521</v>
+        <v>1.016212144301063</v>
       </c>
       <c r="R10">
-        <v>1.001115052800262</v>
+        <v>1.011361524755457</v>
       </c>
       <c r="S10">
-        <v>1.004823942042362</v>
+        <v>1.174083606020214</v>
       </c>
       <c r="T10">
-        <v>1.001115052800262</v>
+        <v>1.011361524755457</v>
       </c>
       <c r="U10">
-        <v>1.001587429932926</v>
+        <v>1.03226015783109</v>
       </c>
       <c r="V10">
-        <v>0.9996455226672648</v>
+        <v>0.9471660889176157</v>
       </c>
       <c r="W10">
-        <v>1.00116894452745</v>
+        <v>1.031200933387579</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.01716358619425</v>
+        <v>1.016612965981538</v>
       </c>
       <c r="D11">
-        <v>0.9941266062243364</v>
+        <v>0.9924001902644427</v>
       </c>
       <c r="E11">
-        <v>0.990077584610396</v>
+        <v>0.9911353166106643</v>
       </c>
       <c r="F11">
-        <v>1.005120158065051</v>
+        <v>1.00504188927984</v>
       </c>
       <c r="G11">
-        <v>0.9862435850233006</v>
+        <v>0.980326631339958</v>
       </c>
       <c r="H11">
-        <v>0.9862435850233006</v>
+        <v>0.980326631339958</v>
       </c>
       <c r="I11">
-        <v>0.9862435850233006</v>
+        <v>0.980326631339958</v>
       </c>
       <c r="J11">
-        <v>1.0279947144159</v>
+        <v>1.025838506406392</v>
       </c>
       <c r="K11">
-        <v>0.9915447946271484</v>
+        <v>0.9959769294302715</v>
       </c>
       <c r="L11">
-        <v>1.003732892402196</v>
+        <v>1.006022034252411</v>
       </c>
       <c r="M11">
-        <v>1.0279947144159</v>
+        <v>1.025838506406392</v>
       </c>
       <c r="N11">
-        <v>0.9862435850233006</v>
+        <v>0.980326631339958</v>
       </c>
       <c r="O11">
-        <v>0.9915447946271484</v>
+        <v>0.9959769294302715</v>
       </c>
       <c r="P11">
-        <v>1.009769754521524</v>
+        <v>1.010907717918332</v>
       </c>
       <c r="Q11">
-        <v>0.9983324763460999</v>
+        <v>1.000509409355056</v>
       </c>
       <c r="R11">
-        <v>1.001927698022116</v>
+        <v>1.000714022392207</v>
       </c>
       <c r="S11">
-        <v>1.008219889036033</v>
+        <v>1.008952441705501</v>
       </c>
       <c r="T11">
-        <v>1.001927698022116</v>
+        <v>1.000714022392207</v>
       </c>
       <c r="U11">
-        <v>1.00272581303285</v>
+        <v>1.001795989114115</v>
       </c>
       <c r="V11">
-        <v>0.9994293674309402</v>
+        <v>0.997502117559284</v>
       </c>
       <c r="W11">
-        <v>1.002000490195322</v>
+        <v>1.00166930794569</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8426738606596357</v>
+        <v>1.008748333900051</v>
       </c>
       <c r="D12">
-        <v>1.082862769416514</v>
+        <v>0.9959013614728697</v>
       </c>
       <c r="E12">
-        <v>1.079165807843437</v>
+        <v>0.995385862528689</v>
       </c>
       <c r="F12">
-        <v>0.9528495260875799</v>
+        <v>1.002611787279621</v>
       </c>
       <c r="G12">
-        <v>1.220272599678329</v>
+        <v>0.9894430564329284</v>
       </c>
       <c r="H12">
-        <v>1.220272599678329</v>
+        <v>0.9894430564329284</v>
       </c>
       <c r="I12">
-        <v>1.220272599678329</v>
+        <v>0.9894430564329284</v>
       </c>
       <c r="J12">
-        <v>0.7597461781066923</v>
+        <v>1.013649207116773</v>
       </c>
       <c r="K12">
-        <v>1.014626936988383</v>
+        <v>0.9980694771767294</v>
       </c>
       <c r="L12">
-        <v>0.930732116365203</v>
+        <v>1.003233365974592</v>
       </c>
       <c r="M12">
-        <v>0.7597461781066923</v>
+        <v>1.013649207116773</v>
       </c>
       <c r="N12">
-        <v>1.220272599678329</v>
+        <v>0.9894430564329284</v>
       </c>
       <c r="O12">
-        <v>1.014626936988383</v>
+        <v>0.9980694771767294</v>
       </c>
       <c r="P12">
-        <v>0.8871865575475375</v>
+        <v>1.005859342146751</v>
       </c>
       <c r="Q12">
-        <v>0.9837382315379812</v>
+        <v>1.000340632228175</v>
       </c>
       <c r="R12">
-        <v>0.9982152382578012</v>
+        <v>1.00038724690881</v>
       </c>
       <c r="S12">
-        <v>0.9090742137275516</v>
+        <v>1.004776823857708</v>
       </c>
       <c r="T12">
-        <v>0.9982152382578012</v>
+        <v>1.00038724690881</v>
       </c>
       <c r="U12">
-        <v>0.9868738102152459</v>
+        <v>1.000943382001513</v>
       </c>
       <c r="V12">
-        <v>1.033553568107862</v>
+        <v>0.9986433168877961</v>
       </c>
       <c r="W12">
-        <v>0.9853662243932217</v>
+        <v>1.000880306485282</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9514587731829951</v>
+        <v>1.030632845647074</v>
       </c>
       <c r="D13">
-        <v>1.00641866625033</v>
+        <v>0.9856723241728871</v>
       </c>
       <c r="E13">
-        <v>1.034307751365484</v>
+        <v>0.983836879977824</v>
       </c>
       <c r="F13">
-        <v>0.9778158369090592</v>
+        <v>1.009123926863035</v>
       </c>
       <c r="G13">
-        <v>1.028013016945666</v>
+        <v>0.9631801821364824</v>
       </c>
       <c r="H13">
-        <v>1.028013016945666</v>
+        <v>0.9631801821364824</v>
       </c>
       <c r="I13">
-        <v>1.028013016945666</v>
+        <v>0.9631801821364824</v>
       </c>
       <c r="J13">
-        <v>0.9315213570110723</v>
+        <v>1.047848266041856</v>
       </c>
       <c r="K13">
-        <v>1.04145784451504</v>
+        <v>0.9931720875334311</v>
       </c>
       <c r="L13">
-        <v>0.9923932972234527</v>
+        <v>1.011268719859402</v>
       </c>
       <c r="M13">
-        <v>0.9315213570110723</v>
+        <v>1.047848266041856</v>
       </c>
       <c r="N13">
-        <v>1.028013016945666</v>
+        <v>0.9631801821364824</v>
       </c>
       <c r="O13">
-        <v>1.04145784451504</v>
+        <v>0.9931720875334311</v>
       </c>
       <c r="P13">
-        <v>0.9864896007630564</v>
+        <v>1.020510176787643</v>
       </c>
       <c r="Q13">
-        <v>1.00963684071205</v>
+        <v>1.001148007198233</v>
       </c>
       <c r="R13">
-        <v>1.000330739490593</v>
+        <v>1.00140017857059</v>
       </c>
       <c r="S13">
-        <v>0.9835983461450573</v>
+        <v>1.016714760146107</v>
       </c>
       <c r="T13">
-        <v>1.000330739490593</v>
+        <v>1.00140017857059</v>
       </c>
       <c r="U13">
-        <v>0.9947020138452096</v>
+        <v>1.003331115643701</v>
       </c>
       <c r="V13">
-        <v>1.001364214465301</v>
+        <v>0.9953009289422573</v>
       </c>
       <c r="W13">
-        <v>0.9954233179253875</v>
+        <v>1.003091904028999</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8980927650089238</v>
+        <v>1.040320138118694</v>
       </c>
       <c r="D14">
-        <v>0.9881717888424015</v>
+        <v>0.9813766790296088</v>
       </c>
       <c r="E14">
-        <v>1.080046699087106</v>
+        <v>0.9786255708806665</v>
       </c>
       <c r="F14">
-        <v>0.9642769759617721</v>
+        <v>1.012028296368288</v>
       </c>
       <c r="G14">
-        <v>0.9443252807997767</v>
+        <v>0.952236558860979</v>
       </c>
       <c r="H14">
-        <v>0.9443252807997767</v>
+        <v>0.952236558860979</v>
       </c>
       <c r="I14">
-        <v>0.9443252807997767</v>
+        <v>0.952236558860979</v>
       </c>
       <c r="J14">
-        <v>0.8204048001973049</v>
+        <v>1.063070310612405</v>
       </c>
       <c r="K14">
-        <v>1.149037622560001</v>
+        <v>0.9905171632995849</v>
       </c>
       <c r="L14">
-        <v>1.02705651789595</v>
+        <v>1.014572440405413</v>
       </c>
       <c r="M14">
-        <v>0.8204048001973049</v>
+        <v>1.063070310612405</v>
       </c>
       <c r="N14">
-        <v>0.9443252807997767</v>
+        <v>0.952236558860979</v>
       </c>
       <c r="O14">
-        <v>1.149037622560001</v>
+        <v>0.9905171632995849</v>
       </c>
       <c r="P14">
-        <v>0.9847212113786532</v>
+        <v>1.026793736955995</v>
       </c>
       <c r="Q14">
-        <v>1.056657299260887</v>
+        <v>1.001272729833936</v>
       </c>
       <c r="R14">
-        <v>0.9712559011856944</v>
+        <v>1.001941344257656</v>
       </c>
       <c r="S14">
-        <v>0.9779064662396929</v>
+        <v>1.021871923426759</v>
       </c>
       <c r="T14">
-        <v>0.9712559011856943</v>
+        <v>1.001941344257656</v>
       </c>
       <c r="U14">
-        <v>0.9695111698797138</v>
+        <v>1.004463082285314</v>
       </c>
       <c r="V14">
-        <v>0.9644739920637264</v>
+        <v>0.9940177776004472</v>
       </c>
       <c r="W14">
-        <v>0.9839265562941546</v>
+        <v>1.004093394696955</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.994371919217742</v>
+        <v>1.014410332856188</v>
       </c>
       <c r="D15">
-        <v>1.025025072477704</v>
+        <v>0.9932970025714924</v>
       </c>
       <c r="E15">
-        <v>0.9930521465437686</v>
+        <v>0.9923836166484468</v>
       </c>
       <c r="F15">
-        <v>1.000864111465482</v>
+        <v>1.004279775623202</v>
       </c>
       <c r="G15">
-        <v>1.071988105605746</v>
+        <v>0.9828372320041585</v>
       </c>
       <c r="H15">
-        <v>1.071988105605746</v>
+        <v>0.9828372320041585</v>
       </c>
       <c r="I15">
-        <v>1.071988105605746</v>
+        <v>0.9828372320041585</v>
       </c>
       <c r="J15">
-        <v>0.9979665529146311</v>
+        <v>1.022553430270047</v>
       </c>
       <c r="K15">
-        <v>0.9541843545190981</v>
+        <v>0.996699015545607</v>
       </c>
       <c r="L15">
-        <v>0.9741967500424997</v>
+        <v>1.005242464159165</v>
       </c>
       <c r="M15">
-        <v>0.9979665529146311</v>
+        <v>1.022553430270047</v>
       </c>
       <c r="N15">
-        <v>1.071988105605746</v>
+        <v>0.9828372320041585</v>
       </c>
       <c r="O15">
-        <v>0.9541843545190981</v>
+        <v>0.996699015545607</v>
       </c>
       <c r="P15">
-        <v>0.9760754537168645</v>
+        <v>1.009626222907827</v>
       </c>
       <c r="Q15">
-        <v>0.97752423299229</v>
+        <v>1.000489395584404</v>
       </c>
       <c r="R15">
-        <v>1.008046337679825</v>
+        <v>1.000696559273271</v>
       </c>
       <c r="S15">
-        <v>0.9843383396330703</v>
+        <v>1.007844073812952</v>
       </c>
       <c r="T15">
-        <v>1.008046337679825</v>
+        <v>1.000696559273271</v>
       </c>
       <c r="U15">
-        <v>1.006250781126239</v>
+        <v>1.001592363360754</v>
       </c>
       <c r="V15">
-        <v>1.019398246022141</v>
+        <v>0.9978413370894345</v>
       </c>
       <c r="W15">
-        <v>1.001456126598334</v>
+        <v>1.001462858709788</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.282328991621962</v>
+        <v>1.027823820292689</v>
       </c>
       <c r="D16">
-        <v>0.8716257015047034</v>
+        <v>0.9871098175241074</v>
       </c>
       <c r="E16">
-        <v>0.8492343935267342</v>
+        <v>0.9852564069214041</v>
       </c>
       <c r="F16">
-        <v>1.085134008774567</v>
+        <v>1.00832605813222</v>
       </c>
       <c r="G16">
-        <v>0.6695738557367176</v>
+        <v>0.9668497578865869</v>
       </c>
       <c r="H16">
-        <v>0.6695738557367176</v>
+        <v>0.9668497578865869</v>
       </c>
       <c r="I16">
-        <v>0.6695738557367176</v>
+        <v>0.9668497578865869</v>
       </c>
       <c r="J16">
-        <v>1.440784297627455</v>
+        <v>1.043443851196584</v>
       </c>
       <c r="K16">
-        <v>0.9297058925363186</v>
+        <v>0.9935509389635608</v>
       </c>
       <c r="L16">
-        <v>1.100713405705855</v>
+        <v>1.010134756682225</v>
       </c>
       <c r="M16">
-        <v>1.440784297627455</v>
+        <v>1.043443851196584</v>
       </c>
       <c r="N16">
-        <v>0.6695738557367176</v>
+        <v>0.9668497578865869</v>
       </c>
       <c r="O16">
-        <v>0.9297058925363186</v>
+        <v>0.9935509389635608</v>
       </c>
       <c r="P16">
-        <v>1.185245095081887</v>
+        <v>1.018497395080072</v>
       </c>
       <c r="Q16">
-        <v>1.007419950655443</v>
+        <v>1.000938498547891</v>
       </c>
       <c r="R16">
-        <v>1.01335468196683</v>
+        <v>1.001281516015577</v>
       </c>
       <c r="S16">
-        <v>1.151874732979447</v>
+        <v>1.015106949430788</v>
       </c>
       <c r="T16">
-        <v>1.01335468196683</v>
+        <v>1.001281516015577</v>
       </c>
       <c r="U16">
-        <v>1.031299513668765</v>
+        <v>1.003042651544738</v>
       </c>
       <c r="V16">
-        <v>0.9589543820823552</v>
+        <v>0.9958040728131078</v>
       </c>
       <c r="W16">
-        <v>1.028637568379289</v>
+        <v>1.002811925949922</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.233841752646913</v>
+        <v>1.053400932576468</v>
       </c>
       <c r="D17">
-        <v>0.898422822691708</v>
+        <v>0.9753250360296623</v>
       </c>
       <c r="E17">
-        <v>0.87310270042284</v>
+        <v>0.9717048383352395</v>
       </c>
       <c r="F17">
-        <v>1.070875719739024</v>
+        <v>1.015876734019241</v>
       </c>
       <c r="G17">
-        <v>0.7405592091689739</v>
+        <v>0.9368783744191298</v>
       </c>
       <c r="H17">
-        <v>0.7405592091689739</v>
+        <v>0.9368783744191298</v>
       </c>
       <c r="I17">
-        <v>0.7405592091689739</v>
+        <v>0.9368783744191298</v>
       </c>
       <c r="J17">
-        <v>1.3669372820196</v>
+        <v>1.083632727988497</v>
       </c>
       <c r="K17">
-        <v>0.9317396872881</v>
+        <v>0.987422927034737</v>
       </c>
       <c r="L17">
-        <v>1.078152807016292</v>
+        <v>1.019249856209765</v>
       </c>
       <c r="M17">
-        <v>1.3669372820196</v>
+        <v>1.083632727988497</v>
       </c>
       <c r="N17">
-        <v>0.7405592091689739</v>
+        <v>0.9368783744191298</v>
       </c>
       <c r="O17">
-        <v>0.9317396872881</v>
+        <v>0.987422927034737</v>
       </c>
       <c r="P17">
-        <v>1.14933848465385</v>
+        <v>1.035527827511617</v>
       </c>
       <c r="Q17">
-        <v>1.001307703513562</v>
+        <v>1.001649830526989</v>
       </c>
       <c r="R17">
-        <v>1.013078726158891</v>
+        <v>1.002644676480788</v>
       </c>
       <c r="S17">
-        <v>1.123184229682241</v>
+        <v>1.028977463014158</v>
       </c>
       <c r="T17">
-        <v>1.013078726158891</v>
+        <v>1.002644676480788</v>
       </c>
       <c r="U17">
-        <v>1.027527974553925</v>
+        <v>1.005952690865401</v>
       </c>
       <c r="V17">
-        <v>0.9701342214769344</v>
+        <v>0.992137827576147</v>
       </c>
       <c r="W17">
-        <v>1.024203997624181</v>
+        <v>1.005436428326592</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.136570119578109</v>
+        <v>1.078365540607051</v>
       </c>
       <c r="D18">
-        <v>0.9520460528114685</v>
+        <v>0.9638145407830812</v>
       </c>
       <c r="E18">
-        <v>0.9210391240695361</v>
+        <v>0.9584564577105117</v>
       </c>
       <c r="F18">
-        <v>1.042273958968738</v>
+        <v>1.023247832937959</v>
       </c>
       <c r="G18">
-        <v>0.8825261065510284</v>
+        <v>0.9076719526450064</v>
       </c>
       <c r="H18">
-        <v>0.8825261065510284</v>
+        <v>0.9076719526450064</v>
       </c>
       <c r="I18">
-        <v>0.8825261065510284</v>
+        <v>0.9076719526450064</v>
       </c>
       <c r="J18">
-        <v>1.218710402627322</v>
+        <v>1.122815999089135</v>
       </c>
       <c r="K18">
-        <v>0.9361117559630708</v>
+        <v>0.9814221690043371</v>
       </c>
       <c r="L18">
-        <v>1.03305867474763</v>
+        <v>1.028171131422603</v>
       </c>
       <c r="M18">
-        <v>1.218710402627322</v>
+        <v>1.122815999089135</v>
       </c>
       <c r="N18">
-        <v>0.8825261065510284</v>
+        <v>0.9076719526450064</v>
       </c>
       <c r="O18">
-        <v>0.9361117559630708</v>
+        <v>0.9814221690043371</v>
       </c>
       <c r="P18">
-        <v>1.077411079295197</v>
+        <v>1.052119084046736</v>
       </c>
       <c r="Q18">
-        <v>0.9891928574659046</v>
+        <v>1.002335000971148</v>
       </c>
       <c r="R18">
-        <v>1.012449421713807</v>
+        <v>1.00397004024616</v>
       </c>
       <c r="S18">
-        <v>1.065698705853044</v>
+        <v>1.042495333677144</v>
       </c>
       <c r="T18">
-        <v>1.012449421713807</v>
+        <v>1.00397004024616</v>
       </c>
       <c r="U18">
-        <v>1.01990555602754</v>
+        <v>1.008789488419109</v>
       </c>
       <c r="V18">
-        <v>0.9924296661322376</v>
+        <v>0.9885659812642886</v>
       </c>
       <c r="W18">
-        <v>1.015292024414613</v>
+        <v>1.00799570302496</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.150253587154548</v>
+        <v>1.001197025269757</v>
       </c>
       <c r="D19">
-        <v>0.9473952475537336</v>
+        <v>0.999590847293276</v>
       </c>
       <c r="E19">
-        <v>0.9136702455840551</v>
+        <v>0.999308781882925</v>
       </c>
       <c r="F19">
-        <v>1.044435162691359</v>
+        <v>1.00035414275744</v>
       </c>
       <c r="G19">
-        <v>0.877028373875041</v>
+        <v>0.9990499284476313</v>
       </c>
       <c r="H19">
-        <v>0.877028373875041</v>
+        <v>0.9990499284476313</v>
       </c>
       <c r="I19">
-        <v>0.877028373875041</v>
+        <v>0.9990499284476313</v>
       </c>
       <c r="J19">
-        <v>1.245155619163339</v>
+        <v>1.001959178117549</v>
       </c>
       <c r="K19">
-        <v>0.9282361519592919</v>
+        <v>0.9994078715231899</v>
       </c>
       <c r="L19">
-        <v>1.033667360023834</v>
+        <v>1.000256127608003</v>
       </c>
       <c r="M19">
-        <v>1.245155619163339</v>
+        <v>1.001959178117549</v>
       </c>
       <c r="N19">
-        <v>0.877028373875041</v>
+        <v>0.9990499284476313</v>
       </c>
       <c r="O19">
-        <v>0.9282361519592919</v>
+        <v>0.9994078715231899</v>
       </c>
       <c r="P19">
-        <v>1.086695885561315</v>
+        <v>1.00068352482037</v>
       </c>
       <c r="Q19">
-        <v>0.9863356573253257</v>
+        <v>0.9998810071403148</v>
       </c>
       <c r="R19">
-        <v>1.016806714999224</v>
+        <v>1.000138992696123</v>
       </c>
       <c r="S19">
-        <v>1.072608977937997</v>
+        <v>1.000573730799393</v>
       </c>
       <c r="T19">
-        <v>1.016806714999224</v>
+        <v>1.000138992696123</v>
       </c>
       <c r="U19">
-        <v>1.023713826922258</v>
+        <v>1.000192780211453</v>
       </c>
       <c r="V19">
-        <v>0.9943767363128144</v>
+        <v>0.9999642098586883</v>
       </c>
       <c r="W19">
-        <v>1.01748021850065</v>
+        <v>1.000140487862471</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000106048840825</v>
+        <v>1.003270592497451</v>
       </c>
       <c r="D20">
-        <v>1.000027429082074</v>
+        <v>0.9988771455168874</v>
       </c>
       <c r="E20">
-        <v>0.9999148032441809</v>
+        <v>0.998110946104653</v>
       </c>
       <c r="F20">
-        <v>1.000027012247979</v>
+        <v>1.000973218092549</v>
       </c>
       <c r="G20">
-        <v>1.000130852899616</v>
+        <v>0.9973752762794111</v>
       </c>
       <c r="H20">
-        <v>1.000130852899616</v>
+        <v>0.9973752762794111</v>
       </c>
       <c r="I20">
-        <v>1.000130852899616</v>
+        <v>0.9973752762794111</v>
       </c>
       <c r="J20">
-        <v>1.000218922008702</v>
+        <v>1.005337009194711</v>
       </c>
       <c r="K20">
-        <v>0.9998086425975362</v>
+        <v>0.9983946082924163</v>
       </c>
       <c r="L20">
-        <v>0.9999406525879403</v>
+        <v>1.000713004691798</v>
       </c>
       <c r="M20">
-        <v>1.000218922008702</v>
+        <v>1.005337009194711</v>
       </c>
       <c r="N20">
-        <v>1.000130852899616</v>
+        <v>0.9973752762794111</v>
       </c>
       <c r="O20">
-        <v>0.9998086425975362</v>
+        <v>0.9983946082924163</v>
       </c>
       <c r="P20">
-        <v>1.000013782303119</v>
+        <v>1.001865808743564</v>
       </c>
       <c r="Q20">
-        <v>0.9999178274227576</v>
+        <v>0.9996839131924828</v>
       </c>
       <c r="R20">
-        <v>1.000052805835285</v>
+        <v>1.000368964588846</v>
       </c>
       <c r="S20">
-        <v>1.000018192284739</v>
+        <v>1.001568278526559</v>
       </c>
       <c r="T20">
-        <v>1.000052805835285</v>
+        <v>1.000368964588846</v>
       </c>
       <c r="U20">
-        <v>1.000046357438458</v>
+        <v>1.000520027964772</v>
       </c>
       <c r="V20">
-        <v>1.00006325653069</v>
+        <v>0.9998910776276997</v>
       </c>
       <c r="W20">
-        <v>1.000021795438607</v>
+        <v>1.000381475083735</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.001313837807887</v>
+        <v>1.004739628798453</v>
       </c>
       <c r="D21">
-        <v>0.9994753567731793</v>
+        <v>0.9983775259927956</v>
       </c>
       <c r="E21">
-        <v>0.9992745130362819</v>
+        <v>0.9972589088195949</v>
       </c>
       <c r="F21">
-        <v>1.000381618960806</v>
+        <v>1.001418748110269</v>
       </c>
       <c r="G21">
-        <v>0.9987324966821428</v>
+        <v>0.9961855654394141</v>
       </c>
       <c r="H21">
-        <v>0.9987324966821428</v>
+        <v>0.9961855654394141</v>
       </c>
       <c r="I21">
-        <v>0.9987324966821428</v>
+        <v>0.9961855654394141</v>
       </c>
       <c r="J21">
-        <v>1.002124601218166</v>
+        <v>1.007720051159317</v>
       </c>
       <c r="K21">
-        <v>0.9995099779186314</v>
+        <v>0.9976692124769259</v>
       </c>
       <c r="L21">
-        <v>1.000362930851283</v>
+        <v>1.001037322851409</v>
       </c>
       <c r="M21">
-        <v>1.002124601218166</v>
+        <v>1.007720051159317</v>
       </c>
       <c r="N21">
-        <v>0.9987324966821428</v>
+        <v>0.9961855654394141</v>
       </c>
       <c r="O21">
-        <v>0.9995099779186314</v>
+        <v>0.9976692124769259</v>
       </c>
       <c r="P21">
-        <v>1.000817289568399</v>
+        <v>1.002694631818121</v>
       </c>
       <c r="Q21">
-        <v>0.9999457984397185</v>
+        <v>0.9995439802935973</v>
       </c>
       <c r="R21">
-        <v>1.000122358606313</v>
+        <v>1.000524943025219</v>
       </c>
       <c r="S21">
-        <v>1.000672066032534</v>
+        <v>1.002269337248837</v>
       </c>
       <c r="T21">
-        <v>1.000122358606313</v>
+        <v>1.000524943025219</v>
       </c>
       <c r="U21">
-        <v>1.000187173694937</v>
+        <v>1.000748394296481</v>
       </c>
       <c r="V21">
-        <v>0.9998962382923778</v>
+        <v>0.9998358285250679</v>
       </c>
       <c r="W21">
-        <v>1.000146916656047</v>
+        <v>1.000550870456022</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.004489066066324</v>
+        <v>1.010055983001227</v>
       </c>
       <c r="D22">
-        <v>0.9980305622708041</v>
+        <v>0.9965449673269277</v>
       </c>
       <c r="E22">
-        <v>0.9975693219458275</v>
+        <v>0.9941922757486052</v>
       </c>
       <c r="F22">
-        <v>1.001374461787384</v>
+        <v>1.003004561330919</v>
       </c>
       <c r="G22">
-        <v>0.9949135588766073</v>
+        <v>0.9918778936046198</v>
       </c>
       <c r="H22">
-        <v>0.9949135588766073</v>
+        <v>0.9918778936046198</v>
       </c>
       <c r="I22">
-        <v>0.9949135588766073</v>
+        <v>0.9918778936046198</v>
       </c>
       <c r="J22">
-        <v>1.007005956673183</v>
+        <v>1.016386297119781</v>
       </c>
       <c r="K22">
-        <v>0.9987415717011838</v>
+        <v>0.9950809676763852</v>
       </c>
       <c r="L22">
-        <v>1.001539628050491</v>
+        <v>1.002208610411132</v>
       </c>
       <c r="M22">
-        <v>1.007005956673183</v>
+        <v>1.016386297119781</v>
       </c>
       <c r="N22">
-        <v>0.9949135588766073</v>
+        <v>0.9918778936046198</v>
       </c>
       <c r="O22">
-        <v>0.9987415717011838</v>
+        <v>0.9950809676763852</v>
       </c>
       <c r="P22">
-        <v>1.002873764187183</v>
+        <v>1.005733632398083</v>
       </c>
       <c r="Q22">
-        <v>1.000058016744284</v>
+        <v>0.9990427645036521</v>
       </c>
       <c r="R22">
-        <v>1.000220362416991</v>
+        <v>1.001115052800262</v>
       </c>
       <c r="S22">
-        <v>1.002373996720584</v>
+        <v>1.004823942042362</v>
       </c>
       <c r="T22">
-        <v>1.000220362416991</v>
+        <v>1.001115052800262</v>
       </c>
       <c r="U22">
-        <v>1.00050888725959</v>
+        <v>1.001587429932926</v>
       </c>
       <c r="V22">
-        <v>0.9993898215829932</v>
+        <v>0.9996455226672648</v>
       </c>
       <c r="W22">
-        <v>1.000458015921476</v>
+        <v>1.00116894452745</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.01716358619425</v>
+      </c>
+      <c r="D23">
+        <v>0.9941266062243364</v>
+      </c>
+      <c r="E23">
+        <v>0.990077584610396</v>
+      </c>
+      <c r="F23">
+        <v>1.005120158065051</v>
+      </c>
+      <c r="G23">
+        <v>0.9862435850233006</v>
+      </c>
+      <c r="H23">
+        <v>0.9862435850233006</v>
+      </c>
+      <c r="I23">
+        <v>0.9862435850233006</v>
+      </c>
+      <c r="J23">
+        <v>1.0279947144159</v>
+      </c>
+      <c r="K23">
+        <v>0.9915447946271484</v>
+      </c>
+      <c r="L23">
+        <v>1.003732892402196</v>
+      </c>
+      <c r="M23">
+        <v>1.0279947144159</v>
+      </c>
+      <c r="N23">
+        <v>0.9862435850233006</v>
+      </c>
+      <c r="O23">
+        <v>0.9915447946271484</v>
+      </c>
+      <c r="P23">
+        <v>1.009769754521524</v>
+      </c>
+      <c r="Q23">
+        <v>0.9983324763460999</v>
+      </c>
+      <c r="R23">
+        <v>1.001927698022116</v>
+      </c>
+      <c r="S23">
+        <v>1.008219889036033</v>
+      </c>
+      <c r="T23">
+        <v>1.001927698022116</v>
+      </c>
+      <c r="U23">
+        <v>1.00272581303285</v>
+      </c>
+      <c r="V23">
+        <v>0.9994293674309402</v>
+      </c>
+      <c r="W23">
+        <v>1.002000490195322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.8426738606596357</v>
+      </c>
+      <c r="D24">
+        <v>1.082862769416514</v>
+      </c>
+      <c r="E24">
+        <v>1.079165807843437</v>
+      </c>
+      <c r="F24">
+        <v>0.9528495260875799</v>
+      </c>
+      <c r="G24">
+        <v>1.220272599678329</v>
+      </c>
+      <c r="H24">
+        <v>1.220272599678329</v>
+      </c>
+      <c r="I24">
+        <v>1.220272599678329</v>
+      </c>
+      <c r="J24">
+        <v>0.7597461781066923</v>
+      </c>
+      <c r="K24">
+        <v>1.014626936988383</v>
+      </c>
+      <c r="L24">
+        <v>0.930732116365203</v>
+      </c>
+      <c r="M24">
+        <v>0.7597461781066923</v>
+      </c>
+      <c r="N24">
+        <v>1.220272599678329</v>
+      </c>
+      <c r="O24">
+        <v>1.014626936988383</v>
+      </c>
+      <c r="P24">
+        <v>0.8871865575475375</v>
+      </c>
+      <c r="Q24">
+        <v>0.9837382315379812</v>
+      </c>
+      <c r="R24">
+        <v>0.9982152382578012</v>
+      </c>
+      <c r="S24">
+        <v>0.9090742137275516</v>
+      </c>
+      <c r="T24">
+        <v>0.9982152382578012</v>
+      </c>
+      <c r="U24">
+        <v>0.9868738102152459</v>
+      </c>
+      <c r="V24">
+        <v>1.033553568107862</v>
+      </c>
+      <c r="W24">
+        <v>0.9853662243932217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9514587731829951</v>
+      </c>
+      <c r="D25">
+        <v>1.00641866625033</v>
+      </c>
+      <c r="E25">
+        <v>1.034307751365484</v>
+      </c>
+      <c r="F25">
+        <v>0.9778158369090592</v>
+      </c>
+      <c r="G25">
+        <v>1.028013016945666</v>
+      </c>
+      <c r="H25">
+        <v>1.028013016945666</v>
+      </c>
+      <c r="I25">
+        <v>1.028013016945666</v>
+      </c>
+      <c r="J25">
+        <v>0.9315213570110723</v>
+      </c>
+      <c r="K25">
+        <v>1.04145784451504</v>
+      </c>
+      <c r="L25">
+        <v>0.9923932972234527</v>
+      </c>
+      <c r="M25">
+        <v>0.9315213570110723</v>
+      </c>
+      <c r="N25">
+        <v>1.028013016945666</v>
+      </c>
+      <c r="O25">
+        <v>1.04145784451504</v>
+      </c>
+      <c r="P25">
+        <v>0.9864896007630564</v>
+      </c>
+      <c r="Q25">
+        <v>1.00963684071205</v>
+      </c>
+      <c r="R25">
+        <v>1.000330739490593</v>
+      </c>
+      <c r="S25">
+        <v>0.9835983461450573</v>
+      </c>
+      <c r="T25">
+        <v>1.000330739490593</v>
+      </c>
+      <c r="U25">
+        <v>0.9947020138452096</v>
+      </c>
+      <c r="V25">
+        <v>1.001364214465301</v>
+      </c>
+      <c r="W25">
+        <v>0.9954233179253875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.8980927650089238</v>
+      </c>
+      <c r="D26">
+        <v>0.9881717888424015</v>
+      </c>
+      <c r="E26">
+        <v>1.080046699087106</v>
+      </c>
+      <c r="F26">
+        <v>0.9642769759617721</v>
+      </c>
+      <c r="G26">
+        <v>0.9443252807997767</v>
+      </c>
+      <c r="H26">
+        <v>0.9443252807997767</v>
+      </c>
+      <c r="I26">
+        <v>0.9443252807997767</v>
+      </c>
+      <c r="J26">
+        <v>0.8204048001973049</v>
+      </c>
+      <c r="K26">
+        <v>1.149037622560001</v>
+      </c>
+      <c r="L26">
+        <v>1.02705651789595</v>
+      </c>
+      <c r="M26">
+        <v>0.8204048001973049</v>
+      </c>
+      <c r="N26">
+        <v>0.9443252807997767</v>
+      </c>
+      <c r="O26">
+        <v>1.149037622560001</v>
+      </c>
+      <c r="P26">
+        <v>0.9847212113786532</v>
+      </c>
+      <c r="Q26">
+        <v>1.056657299260887</v>
+      </c>
+      <c r="R26">
+        <v>0.9712559011856944</v>
+      </c>
+      <c r="S26">
+        <v>0.9779064662396929</v>
+      </c>
+      <c r="T26">
+        <v>0.9712559011856943</v>
+      </c>
+      <c r="U26">
+        <v>0.9695111698797138</v>
+      </c>
+      <c r="V26">
+        <v>0.9644739920637264</v>
+      </c>
+      <c r="W26">
+        <v>0.9839265562941546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.994371919217742</v>
+      </c>
+      <c r="D27">
+        <v>1.025025072477704</v>
+      </c>
+      <c r="E27">
+        <v>0.9930521465437686</v>
+      </c>
+      <c r="F27">
+        <v>1.000864111465482</v>
+      </c>
+      <c r="G27">
+        <v>1.071988105605746</v>
+      </c>
+      <c r="H27">
+        <v>1.071988105605746</v>
+      </c>
+      <c r="I27">
+        <v>1.071988105605746</v>
+      </c>
+      <c r="J27">
+        <v>0.9979665529146311</v>
+      </c>
+      <c r="K27">
+        <v>0.9541843545190981</v>
+      </c>
+      <c r="L27">
+        <v>0.9741967500424997</v>
+      </c>
+      <c r="M27">
+        <v>0.9979665529146311</v>
+      </c>
+      <c r="N27">
+        <v>1.071988105605746</v>
+      </c>
+      <c r="O27">
+        <v>0.9541843545190981</v>
+      </c>
+      <c r="P27">
+        <v>0.9760754537168645</v>
+      </c>
+      <c r="Q27">
+        <v>0.97752423299229</v>
+      </c>
+      <c r="R27">
+        <v>1.008046337679825</v>
+      </c>
+      <c r="S27">
+        <v>0.9843383396330703</v>
+      </c>
+      <c r="T27">
+        <v>1.008046337679825</v>
+      </c>
+      <c r="U27">
+        <v>1.006250781126239</v>
+      </c>
+      <c r="V27">
+        <v>1.019398246022141</v>
+      </c>
+      <c r="W27">
+        <v>1.001456126598334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.282328991621962</v>
+      </c>
+      <c r="D28">
+        <v>0.8716257015047034</v>
+      </c>
+      <c r="E28">
+        <v>0.8492343935267342</v>
+      </c>
+      <c r="F28">
+        <v>1.085134008774567</v>
+      </c>
+      <c r="G28">
+        <v>0.6695738557367176</v>
+      </c>
+      <c r="H28">
+        <v>0.6695738557367176</v>
+      </c>
+      <c r="I28">
+        <v>0.6695738557367176</v>
+      </c>
+      <c r="J28">
+        <v>1.440784297627455</v>
+      </c>
+      <c r="K28">
+        <v>0.9297058925363186</v>
+      </c>
+      <c r="L28">
+        <v>1.100713405705855</v>
+      </c>
+      <c r="M28">
+        <v>1.440784297627455</v>
+      </c>
+      <c r="N28">
+        <v>0.6695738557367176</v>
+      </c>
+      <c r="O28">
+        <v>0.9297058925363186</v>
+      </c>
+      <c r="P28">
+        <v>1.185245095081887</v>
+      </c>
+      <c r="Q28">
+        <v>1.007419950655443</v>
+      </c>
+      <c r="R28">
+        <v>1.01335468196683</v>
+      </c>
+      <c r="S28">
+        <v>1.151874732979447</v>
+      </c>
+      <c r="T28">
+        <v>1.01335468196683</v>
+      </c>
+      <c r="U28">
+        <v>1.031299513668765</v>
+      </c>
+      <c r="V28">
+        <v>0.9589543820823552</v>
+      </c>
+      <c r="W28">
+        <v>1.028637568379289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.233841752646913</v>
+      </c>
+      <c r="D29">
+        <v>0.898422822691708</v>
+      </c>
+      <c r="E29">
+        <v>0.87310270042284</v>
+      </c>
+      <c r="F29">
+        <v>1.070875719739024</v>
+      </c>
+      <c r="G29">
+        <v>0.7405592091689739</v>
+      </c>
+      <c r="H29">
+        <v>0.7405592091689739</v>
+      </c>
+      <c r="I29">
+        <v>0.7405592091689739</v>
+      </c>
+      <c r="J29">
+        <v>1.3669372820196</v>
+      </c>
+      <c r="K29">
+        <v>0.9317396872881</v>
+      </c>
+      <c r="L29">
+        <v>1.078152807016292</v>
+      </c>
+      <c r="M29">
+        <v>1.3669372820196</v>
+      </c>
+      <c r="N29">
+        <v>0.7405592091689739</v>
+      </c>
+      <c r="O29">
+        <v>0.9317396872881</v>
+      </c>
+      <c r="P29">
+        <v>1.14933848465385</v>
+      </c>
+      <c r="Q29">
+        <v>1.001307703513562</v>
+      </c>
+      <c r="R29">
+        <v>1.013078726158891</v>
+      </c>
+      <c r="S29">
+        <v>1.123184229682241</v>
+      </c>
+      <c r="T29">
+        <v>1.013078726158891</v>
+      </c>
+      <c r="U29">
+        <v>1.027527974553925</v>
+      </c>
+      <c r="V29">
+        <v>0.9701342214769344</v>
+      </c>
+      <c r="W29">
+        <v>1.024203997624181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.136570119578109</v>
+      </c>
+      <c r="D30">
+        <v>0.9520460528114685</v>
+      </c>
+      <c r="E30">
+        <v>0.9210391240695361</v>
+      </c>
+      <c r="F30">
+        <v>1.042273958968738</v>
+      </c>
+      <c r="G30">
+        <v>0.8825261065510284</v>
+      </c>
+      <c r="H30">
+        <v>0.8825261065510284</v>
+      </c>
+      <c r="I30">
+        <v>0.8825261065510284</v>
+      </c>
+      <c r="J30">
+        <v>1.218710402627322</v>
+      </c>
+      <c r="K30">
+        <v>0.9361117559630708</v>
+      </c>
+      <c r="L30">
+        <v>1.03305867474763</v>
+      </c>
+      <c r="M30">
+        <v>1.218710402627322</v>
+      </c>
+      <c r="N30">
+        <v>0.8825261065510284</v>
+      </c>
+      <c r="O30">
+        <v>0.9361117559630708</v>
+      </c>
+      <c r="P30">
+        <v>1.077411079295197</v>
+      </c>
+      <c r="Q30">
+        <v>0.9891928574659046</v>
+      </c>
+      <c r="R30">
+        <v>1.012449421713807</v>
+      </c>
+      <c r="S30">
+        <v>1.065698705853044</v>
+      </c>
+      <c r="T30">
+        <v>1.012449421713807</v>
+      </c>
+      <c r="U30">
+        <v>1.01990555602754</v>
+      </c>
+      <c r="V30">
+        <v>0.9924296661322376</v>
+      </c>
+      <c r="W30">
+        <v>1.015292024414613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.150253587154548</v>
+      </c>
+      <c r="D31">
+        <v>0.9473952475537336</v>
+      </c>
+      <c r="E31">
+        <v>0.9136702455840551</v>
+      </c>
+      <c r="F31">
+        <v>1.044435162691359</v>
+      </c>
+      <c r="G31">
+        <v>0.877028373875041</v>
+      </c>
+      <c r="H31">
+        <v>0.877028373875041</v>
+      </c>
+      <c r="I31">
+        <v>0.877028373875041</v>
+      </c>
+      <c r="J31">
+        <v>1.245155619163339</v>
+      </c>
+      <c r="K31">
+        <v>0.9282361519592919</v>
+      </c>
+      <c r="L31">
+        <v>1.033667360023834</v>
+      </c>
+      <c r="M31">
+        <v>1.245155619163339</v>
+      </c>
+      <c r="N31">
+        <v>0.877028373875041</v>
+      </c>
+      <c r="O31">
+        <v>0.9282361519592919</v>
+      </c>
+      <c r="P31">
+        <v>1.086695885561315</v>
+      </c>
+      <c r="Q31">
+        <v>0.9863356573253257</v>
+      </c>
+      <c r="R31">
+        <v>1.016806714999224</v>
+      </c>
+      <c r="S31">
+        <v>1.072608977937997</v>
+      </c>
+      <c r="T31">
+        <v>1.016806714999224</v>
+      </c>
+      <c r="U31">
+        <v>1.023713826922258</v>
+      </c>
+      <c r="V31">
+        <v>0.9943767363128144</v>
+      </c>
+      <c r="W31">
+        <v>1.01748021850065</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.339994901095891</v>
+      </c>
+      <c r="D32">
+        <v>0.842288654657534</v>
+      </c>
+      <c r="E32">
+        <v>0.8198476771232877</v>
+      </c>
+      <c r="F32">
+        <v>1.102042944657534</v>
+      </c>
+      <c r="G32">
+        <v>0.59338887890411</v>
+      </c>
+      <c r="H32">
+        <v>0.59338887890411</v>
+      </c>
+      <c r="I32">
+        <v>0.59338887890411</v>
+      </c>
+      <c r="J32">
+        <v>1.530130229863014</v>
+      </c>
+      <c r="K32">
+        <v>0.9218146823287668</v>
+      </c>
+      <c r="L32">
+        <v>1.12443942739726</v>
+      </c>
+      <c r="M32">
+        <v>1.530130229863014</v>
+      </c>
+      <c r="N32">
+        <v>0.59338887890411</v>
+      </c>
+      <c r="O32">
+        <v>0.9218146823287668</v>
+      </c>
+      <c r="P32">
+        <v>1.22597245609589</v>
+      </c>
+      <c r="Q32">
+        <v>1.011928813493151</v>
+      </c>
+      <c r="R32">
+        <v>1.01511126369863</v>
+      </c>
+      <c r="S32">
+        <v>1.184662618949772</v>
+      </c>
+      <c r="T32">
+        <v>1.01511126369863</v>
+      </c>
+      <c r="U32">
+        <v>1.036844183938356</v>
+      </c>
+      <c r="V32">
+        <v>0.9481531229315067</v>
+      </c>
+      <c r="W32">
+        <v>1.034243424503424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.364387356315789</v>
+      </c>
+      <c r="D33">
+        <v>0.8356221752631577</v>
+      </c>
+      <c r="E33">
+        <v>0.8051494831578948</v>
+      </c>
+      <c r="F33">
+        <v>1.10908548631579</v>
+      </c>
+      <c r="G33">
+        <v>0.5798420884210527</v>
+      </c>
+      <c r="H33">
+        <v>0.5798420884210527</v>
+      </c>
+      <c r="I33">
+        <v>0.5798420884210527</v>
+      </c>
+      <c r="J33">
+        <v>1.571368872105263</v>
+      </c>
+      <c r="K33">
+        <v>0.9060682936842106</v>
+      </c>
+      <c r="L33">
+        <v>1.127434294736842</v>
+      </c>
+      <c r="M33">
+        <v>1.571368872105263</v>
+      </c>
+      <c r="N33">
+        <v>0.5798420884210527</v>
+      </c>
+      <c r="O33">
+        <v>0.9060682936842106</v>
+      </c>
+      <c r="P33">
+        <v>1.238718582894736</v>
+      </c>
+      <c r="Q33">
+        <v>1.00757689</v>
+      </c>
+      <c r="R33">
+        <v>1.019093084736842</v>
+      </c>
+      <c r="S33">
+        <v>1.195507550701754</v>
+      </c>
+      <c r="T33">
+        <v>1.019093084736842</v>
+      </c>
+      <c r="U33">
+        <v>1.041591185131579</v>
+      </c>
+      <c r="V33">
+        <v>0.9492413657894737</v>
+      </c>
+      <c r="W33">
+        <v>1.03736975625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.364387356315789</v>
+      </c>
+      <c r="D34">
+        <v>0.8356221752631577</v>
+      </c>
+      <c r="E34">
+        <v>0.8051494831578948</v>
+      </c>
+      <c r="F34">
+        <v>1.10908548631579</v>
+      </c>
+      <c r="G34">
+        <v>0.5798420884210527</v>
+      </c>
+      <c r="H34">
+        <v>0.5798420884210527</v>
+      </c>
+      <c r="I34">
+        <v>0.5798420884210527</v>
+      </c>
+      <c r="J34">
+        <v>1.571368872105263</v>
+      </c>
+      <c r="K34">
+        <v>0.9060682936842106</v>
+      </c>
+      <c r="L34">
+        <v>1.127434294736842</v>
+      </c>
+      <c r="M34">
+        <v>1.571368872105263</v>
+      </c>
+      <c r="N34">
+        <v>0.5798420884210527</v>
+      </c>
+      <c r="O34">
+        <v>0.9060682936842106</v>
+      </c>
+      <c r="P34">
+        <v>1.238718582894736</v>
+      </c>
+      <c r="Q34">
+        <v>1.00757689</v>
+      </c>
+      <c r="R34">
+        <v>1.019093084736842</v>
+      </c>
+      <c r="S34">
+        <v>1.195507550701754</v>
+      </c>
+      <c r="T34">
+        <v>1.019093084736842</v>
+      </c>
+      <c r="U34">
+        <v>1.041591185131579</v>
+      </c>
+      <c r="V34">
+        <v>0.9492413657894737</v>
+      </c>
+      <c r="W34">
+        <v>1.03736975625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.545474280479386</v>
+      </c>
+      <c r="D35">
+        <v>0.8134382854831982</v>
+      </c>
+      <c r="E35">
+        <v>0.685248771506021</v>
+      </c>
+      <c r="F35">
+        <v>1.160846110479258</v>
+      </c>
+      <c r="G35">
+        <v>0.5680901614425351</v>
+      </c>
+      <c r="H35">
+        <v>0.5680901614425351</v>
+      </c>
+      <c r="I35">
+        <v>0.5680901614425351</v>
+      </c>
+      <c r="J35">
+        <v>1.893903716944038</v>
+      </c>
+      <c r="K35">
+        <v>0.7301677084802538</v>
+      </c>
+      <c r="L35">
+        <v>1.116187905220402</v>
+      </c>
+      <c r="M35">
+        <v>1.893903716944038</v>
+      </c>
+      <c r="N35">
+        <v>0.5680901614425351</v>
+      </c>
+      <c r="O35">
+        <v>0.7301677084802538</v>
+      </c>
+      <c r="P35">
+        <v>1.312035712712146</v>
+      </c>
+      <c r="Q35">
+        <v>0.945506909479756</v>
+      </c>
+      <c r="R35">
+        <v>1.064053862288942</v>
+      </c>
+      <c r="S35">
+        <v>1.261639178634517</v>
+      </c>
+      <c r="T35">
+        <v>1.064053862288942</v>
+      </c>
+      <c r="U35">
+        <v>1.088251924336521</v>
+      </c>
+      <c r="V35">
+        <v>0.984219571757724</v>
+      </c>
+      <c r="W35">
+        <v>1.064169617504386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000106048840825</v>
+      </c>
+      <c r="D36">
+        <v>1.000027429082074</v>
+      </c>
+      <c r="E36">
+        <v>0.9999148032441809</v>
+      </c>
+      <c r="F36">
+        <v>1.000027012247979</v>
+      </c>
+      <c r="G36">
+        <v>1.000130852899616</v>
+      </c>
+      <c r="H36">
+        <v>1.000130852899616</v>
+      </c>
+      <c r="I36">
+        <v>1.000130852899616</v>
+      </c>
+      <c r="J36">
+        <v>1.000218922008702</v>
+      </c>
+      <c r="K36">
+        <v>0.9998086425975362</v>
+      </c>
+      <c r="L36">
+        <v>0.9999406525879403</v>
+      </c>
+      <c r="M36">
+        <v>1.000218922008702</v>
+      </c>
+      <c r="N36">
+        <v>1.000130852899616</v>
+      </c>
+      <c r="O36">
+        <v>0.9998086425975362</v>
+      </c>
+      <c r="P36">
+        <v>1.000013782303119</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999178274227576</v>
+      </c>
+      <c r="R36">
+        <v>1.000052805835285</v>
+      </c>
+      <c r="S36">
+        <v>1.000018192284739</v>
+      </c>
+      <c r="T36">
+        <v>1.000052805835285</v>
+      </c>
+      <c r="U36">
+        <v>1.000046357438458</v>
+      </c>
+      <c r="V36">
+        <v>1.00006325653069</v>
+      </c>
+      <c r="W36">
+        <v>1.000021795438607</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.001313837807887</v>
+      </c>
+      <c r="D37">
+        <v>0.9994753567731793</v>
+      </c>
+      <c r="E37">
+        <v>0.9992745130362819</v>
+      </c>
+      <c r="F37">
+        <v>1.000381618960806</v>
+      </c>
+      <c r="G37">
+        <v>0.9987324966821428</v>
+      </c>
+      <c r="H37">
+        <v>0.9987324966821428</v>
+      </c>
+      <c r="I37">
+        <v>0.9987324966821428</v>
+      </c>
+      <c r="J37">
+        <v>1.002124601218166</v>
+      </c>
+      <c r="K37">
+        <v>0.9995099779186314</v>
+      </c>
+      <c r="L37">
+        <v>1.000362930851283</v>
+      </c>
+      <c r="M37">
+        <v>1.002124601218166</v>
+      </c>
+      <c r="N37">
+        <v>0.9987324966821428</v>
+      </c>
+      <c r="O37">
+        <v>0.9995099779186314</v>
+      </c>
+      <c r="P37">
+        <v>1.000817289568399</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999457984397185</v>
+      </c>
+      <c r="R37">
+        <v>1.000122358606313</v>
+      </c>
+      <c r="S37">
+        <v>1.000672066032534</v>
+      </c>
+      <c r="T37">
+        <v>1.000122358606313</v>
+      </c>
+      <c r="U37">
+        <v>1.000187173694937</v>
+      </c>
+      <c r="V37">
+        <v>0.9998962382923778</v>
+      </c>
+      <c r="W37">
+        <v>1.000146916656047</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.004489066066324</v>
+      </c>
+      <c r="D38">
+        <v>0.9980305622708041</v>
+      </c>
+      <c r="E38">
+        <v>0.9975693219458275</v>
+      </c>
+      <c r="F38">
+        <v>1.001374461787384</v>
+      </c>
+      <c r="G38">
+        <v>0.9949135588766073</v>
+      </c>
+      <c r="H38">
+        <v>0.9949135588766073</v>
+      </c>
+      <c r="I38">
+        <v>0.9949135588766073</v>
+      </c>
+      <c r="J38">
+        <v>1.007005956673183</v>
+      </c>
+      <c r="K38">
+        <v>0.9987415717011838</v>
+      </c>
+      <c r="L38">
+        <v>1.001539628050491</v>
+      </c>
+      <c r="M38">
+        <v>1.007005956673183</v>
+      </c>
+      <c r="N38">
+        <v>0.9949135588766073</v>
+      </c>
+      <c r="O38">
+        <v>0.9987415717011838</v>
+      </c>
+      <c r="P38">
+        <v>1.002873764187183</v>
+      </c>
+      <c r="Q38">
+        <v>1.000058016744284</v>
+      </c>
+      <c r="R38">
+        <v>1.000220362416991</v>
+      </c>
+      <c r="S38">
+        <v>1.002373996720584</v>
+      </c>
+      <c r="T38">
+        <v>1.000220362416991</v>
+      </c>
+      <c r="U38">
+        <v>1.00050888725959</v>
+      </c>
+      <c r="V38">
+        <v>0.9993898215829932</v>
+      </c>
+      <c r="W38">
+        <v>1.000458015921476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.010371660372959</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9951654493430196</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9945133986228288</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.003119445605511</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9874978564264933</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9874978564264933</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9874978564264933</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.01614681236346</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9976714450911831</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.003831506676968</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.01614681236346</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9874978564264933</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9976714450911831</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.006909128727322</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000395445348347</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000438704627046</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.005645901020052</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000438704627046</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.001108889871662</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.9983866831826284</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.001039696812803</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.133549538872232</v>
+      </c>
+      <c r="D40">
+        <v>0.9521980169826575</v>
+      </c>
+      <c r="E40">
+        <v>0.9230691365207675</v>
+      </c>
+      <c r="F40">
+        <v>1.041581167346037</v>
+      </c>
+      <c r="G40">
+        <v>0.8815731010579003</v>
+      </c>
+      <c r="H40">
+        <v>0.8815731010579003</v>
+      </c>
+      <c r="I40">
+        <v>0.8815731010579003</v>
+      </c>
+      <c r="J40">
+        <v>1.212831551686064</v>
+      </c>
+      <c r="K40">
+        <v>0.9395970143057099</v>
+      </c>
+      <c r="L40">
+        <v>1.033719907168308</v>
+      </c>
+      <c r="M40">
+        <v>1.212831551686064</v>
+      </c>
+      <c r="N40">
+        <v>0.8815731010579003</v>
+      </c>
+      <c r="O40">
+        <v>0.9395970143057099</v>
+      </c>
+      <c r="P40">
+        <v>1.076214282995887</v>
+      </c>
+      <c r="Q40">
+        <v>0.9905890908258734</v>
+      </c>
+      <c r="R40">
+        <v>1.011333889016558</v>
+      </c>
+      <c r="S40">
+        <v>1.064669911112604</v>
+      </c>
+      <c r="T40">
+        <v>1.011333889016558</v>
+      </c>
+      <c r="U40">
+        <v>1.018895708598928</v>
+      </c>
+      <c r="V40">
+        <v>0.9914311870907223</v>
+      </c>
+      <c r="W40">
+        <v>1.014764929242459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9379034769091092</v>
+      </c>
+      <c r="D41">
+        <v>1.02898862142402</v>
+      </c>
+      <c r="E41">
+        <v>1.033354443933358</v>
+      </c>
+      <c r="F41">
+        <v>0.9793111141059592</v>
+      </c>
+      <c r="G41">
+        <v>1.080797468358728</v>
+      </c>
+      <c r="H41">
+        <v>1.080797468358728</v>
+      </c>
+      <c r="I41">
+        <v>1.080797468358728</v>
+      </c>
+      <c r="J41">
+        <v>0.9075697106761405</v>
+      </c>
+      <c r="K41">
+        <v>1.012641101488058</v>
+      </c>
+      <c r="L41">
+        <v>0.9745998417816328</v>
+      </c>
+      <c r="M41">
+        <v>0.9075697106761405</v>
+      </c>
+      <c r="N41">
+        <v>1.080797468358728</v>
+      </c>
+      <c r="O41">
+        <v>1.012641101488058</v>
+      </c>
+      <c r="P41">
+        <v>0.9601054060820993</v>
+      </c>
+      <c r="Q41">
+        <v>0.9959761077970086</v>
+      </c>
+      <c r="R41">
+        <v>1.000336093507642</v>
+      </c>
+      <c r="S41">
+        <v>0.9665073087567192</v>
+      </c>
+      <c r="T41">
+        <v>1.000336093507642</v>
+      </c>
+      <c r="U41">
+        <v>0.9950798486572214</v>
+      </c>
+      <c r="V41">
+        <v>1.012223372597523</v>
+      </c>
+      <c r="W41">
+        <v>0.9943957223346256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.192947579268529</v>
+      </c>
+      <c r="D42">
+        <v>0.9218940576702735</v>
+      </c>
+      <c r="E42">
+        <v>0.892127291916136</v>
+      </c>
+      <c r="F42">
+        <v>1.06177344897227</v>
+      </c>
+      <c r="G42">
+        <v>0.7947723699415077</v>
+      </c>
+      <c r="H42">
+        <v>0.7947723699415077</v>
+      </c>
+      <c r="I42">
+        <v>0.7947723699415077</v>
+      </c>
+      <c r="J42">
+        <v>1.299016719905509</v>
+      </c>
+      <c r="K42">
+        <v>0.9333394869673146</v>
+      </c>
+      <c r="L42">
+        <v>1.061574896372992</v>
+      </c>
+      <c r="M42">
+        <v>1.299016719905509</v>
+      </c>
+      <c r="N42">
+        <v>0.7947723699415077</v>
+      </c>
+      <c r="O42">
+        <v>0.9333394869673146</v>
+      </c>
+      <c r="P42">
+        <v>1.116178103436412</v>
+      </c>
+      <c r="Q42">
+        <v>0.9975564679697925</v>
+      </c>
+      <c r="R42">
+        <v>1.00904285893811</v>
+      </c>
+      <c r="S42">
+        <v>1.098043218615031</v>
+      </c>
+      <c r="T42">
+        <v>1.00904285893811</v>
+      </c>
+      <c r="U42">
+        <v>1.02222550644665</v>
+      </c>
+      <c r="V42">
+        <v>0.9767348791456218</v>
+      </c>
+      <c r="W42">
+        <v>1.019680731376817</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CubeA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW25.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
+    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9828372320041585</v>
+        <v>1.003270592497451</v>
       </c>
       <c r="D3">
-        <v>1.022553430270047</v>
+        <v>0.9988771455168874</v>
       </c>
       <c r="E3">
-        <v>0.996699015545607</v>
+        <v>0.998110946104653</v>
       </c>
       <c r="F3">
-        <v>0.9828372320041585</v>
+        <v>1.000973218092549</v>
       </c>
       <c r="G3">
-        <v>1.004279775623202</v>
+        <v>0.9973752762794111</v>
       </c>
       <c r="H3">
-        <v>0.9923836166484468</v>
+        <v>0.9973752762794111</v>
       </c>
       <c r="I3">
-        <v>0.9828372320041585</v>
+        <v>0.9973752762794111</v>
       </c>
       <c r="J3">
-        <v>1.022553430270047</v>
+        <v>1.005337009194711</v>
       </c>
       <c r="K3">
-        <v>1.005242464159165</v>
+        <v>0.9983946082924163</v>
       </c>
       <c r="L3">
-        <v>0.9932970025714924</v>
+        <v>1.000713004691798</v>
       </c>
       <c r="M3">
-        <v>1.014410332856188</v>
+        <v>1.005337009194711</v>
       </c>
       <c r="N3">
-        <v>0.9828372320041585</v>
+        <v>0.9973752762794111</v>
       </c>
       <c r="O3">
-        <v>0.996699015545607</v>
+        <v>0.9983946082924163</v>
       </c>
       <c r="P3">
-        <v>1.009626222907827</v>
+        <v>1.001865808743564</v>
       </c>
       <c r="Q3">
-        <v>1.000489395584404</v>
+        <v>0.9996839131924828</v>
       </c>
       <c r="R3">
-        <v>1.000696559273271</v>
+        <v>1.000368964588846</v>
       </c>
       <c r="S3">
-        <v>1.007844073812952</v>
+        <v>1.001568278526559</v>
       </c>
       <c r="T3">
-        <v>1.000696559273271</v>
+        <v>1.000368964588846</v>
       </c>
       <c r="U3">
-        <v>1.001592363360754</v>
+        <v>1.000520027964772</v>
       </c>
       <c r="V3">
-        <v>0.9978413370894345</v>
+        <v>0.9998910776276997</v>
       </c>
       <c r="W3">
-        <v>1.001462858709788</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
+        <v>1.000381475083735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9668497578865869</v>
+        <v>1.133549538872232</v>
       </c>
       <c r="D4">
-        <v>1.043443851196584</v>
+        <v>0.9521980169826575</v>
       </c>
       <c r="E4">
-        <v>0.9935509389635608</v>
+        <v>0.9230691365207675</v>
       </c>
       <c r="F4">
-        <v>0.9668497578865869</v>
+        <v>1.041581167346037</v>
       </c>
       <c r="G4">
-        <v>1.00832605813222</v>
+        <v>0.8815731010579003</v>
       </c>
       <c r="H4">
-        <v>0.9852564069214041</v>
+        <v>0.8815731010579003</v>
       </c>
       <c r="I4">
-        <v>0.9668497578865869</v>
+        <v>0.8815731010579003</v>
       </c>
       <c r="J4">
-        <v>1.043443851196584</v>
+        <v>1.212831551686064</v>
       </c>
       <c r="K4">
-        <v>1.010134756682225</v>
+        <v>0.9395970143057099</v>
       </c>
       <c r="L4">
-        <v>0.9871098175241076</v>
+        <v>1.033719907168308</v>
       </c>
       <c r="M4">
-        <v>1.027823820292689</v>
+        <v>1.212831551686064</v>
       </c>
       <c r="N4">
-        <v>0.9668497578865869</v>
+        <v>0.8815731010579003</v>
       </c>
       <c r="O4">
-        <v>0.9935509389635608</v>
+        <v>0.9395970143057099</v>
       </c>
       <c r="P4">
-        <v>1.018497395080072</v>
+        <v>1.076214282995887</v>
       </c>
       <c r="Q4">
-        <v>1.000938498547891</v>
+        <v>0.9905890908258734</v>
       </c>
       <c r="R4">
-        <v>1.001281516015577</v>
+        <v>1.011333889016558</v>
       </c>
       <c r="S4">
-        <v>1.015106949430788</v>
+        <v>1.064669911112604</v>
       </c>
       <c r="T4">
-        <v>1.001281516015577</v>
+        <v>1.011333889016558</v>
       </c>
       <c r="U4">
-        <v>1.003042651544738</v>
+        <v>1.018895708598928</v>
       </c>
       <c r="V4">
-        <v>0.9958040728131078</v>
+        <v>0.9914311870907223</v>
       </c>
       <c r="W4">
-        <v>1.002811925949922</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43">
+        <v>1.014764929242459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9368783744191298</v>
+        <v>1.163302788897695</v>
       </c>
       <c r="D5">
-        <v>1.083632727988497</v>
+        <v>0.941576797233428</v>
       </c>
       <c r="E5">
-        <v>0.987422927034737</v>
+        <v>0.9061796425720416</v>
       </c>
       <c r="F5">
-        <v>0.9368783744191298</v>
+        <v>1.050053208097983</v>
       </c>
       <c r="G5">
-        <v>1.015876734019241</v>
+        <v>0.8573899252161317</v>
       </c>
       <c r="H5">
-        <v>0.9717048383352395</v>
+        <v>0.8573899252161317</v>
       </c>
       <c r="I5">
-        <v>0.9368783744191298</v>
+        <v>0.8573899252161317</v>
       </c>
       <c r="J5">
-        <v>1.083632727988497</v>
+        <v>1.262006441059077</v>
       </c>
       <c r="K5">
-        <v>1.019249856209765</v>
+        <v>0.9256893765057634</v>
       </c>
       <c r="L5">
-        <v>0.9753250360296623</v>
+        <v>1.040219749337176</v>
       </c>
       <c r="M5">
-        <v>1.053400932576468</v>
+        <v>1.262006441059077</v>
       </c>
       <c r="N5">
-        <v>0.9368783744191298</v>
+        <v>0.8573899252161317</v>
       </c>
       <c r="O5">
-        <v>0.987422927034737</v>
+        <v>0.9256893765057634</v>
       </c>
       <c r="P5">
-        <v>1.035527827511617</v>
+        <v>1.09384790878242</v>
       </c>
       <c r="Q5">
-        <v>1.001649830526989</v>
+        <v>0.9878712923018733</v>
       </c>
       <c r="R5">
-        <v>1.002644676480788</v>
+        <v>1.015028580926991</v>
       </c>
       <c r="S5">
-        <v>1.028977463014158</v>
+        <v>1.079249675220941</v>
       </c>
       <c r="T5">
-        <v>1.002644676480788</v>
+        <v>1.015028580926991</v>
       </c>
       <c r="U5">
-        <v>1.005952690865401</v>
+        <v>1.023784737719739</v>
       </c>
       <c r="V5">
-        <v>0.992137827576147</v>
+        <v>0.9905057752190174</v>
       </c>
       <c r="W5">
-        <v>1.005436428326592</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+        <v>1.018302241114912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9076719526450064</v>
+        <v>1.545474280479386</v>
       </c>
       <c r="D6">
-        <v>1.122815999089135</v>
+        <v>0.8134382854831982</v>
       </c>
       <c r="E6">
-        <v>0.9814221690043371</v>
+        <v>0.685248771506021</v>
       </c>
       <c r="F6">
-        <v>0.9076719526450064</v>
+        <v>1.160846110479258</v>
       </c>
       <c r="G6">
-        <v>1.023247832937959</v>
+        <v>0.5680901614425351</v>
       </c>
       <c r="H6">
-        <v>0.9584564577105118</v>
+        <v>0.5680901614425351</v>
       </c>
       <c r="I6">
-        <v>0.9076719526450064</v>
+        <v>0.5680901614425351</v>
       </c>
       <c r="J6">
-        <v>1.122815999089135</v>
+        <v>1.893903716944038</v>
       </c>
       <c r="K6">
-        <v>1.028171131422603</v>
+        <v>0.7301677084802538</v>
       </c>
       <c r="L6">
-        <v>0.9638145407830812</v>
+        <v>1.116187905220402</v>
       </c>
       <c r="M6">
-        <v>1.078365540607051</v>
+        <v>1.893903716944038</v>
       </c>
       <c r="N6">
-        <v>0.9076719526450064</v>
+        <v>0.5680901614425351</v>
       </c>
       <c r="O6">
-        <v>0.9814221690043371</v>
+        <v>0.7301677084802538</v>
       </c>
       <c r="P6">
-        <v>1.052119084046736</v>
+        <v>1.312035712712146</v>
       </c>
       <c r="Q6">
-        <v>1.002335000971148</v>
+        <v>0.945506909479756</v>
       </c>
       <c r="R6">
-        <v>1.00397004024616</v>
+        <v>1.064053862288942</v>
       </c>
       <c r="S6">
-        <v>1.042495333677144</v>
+        <v>1.261639178634517</v>
       </c>
       <c r="T6">
-        <v>1.00397004024616</v>
+        <v>1.064053862288942</v>
       </c>
       <c r="U6">
-        <v>1.008789488419109</v>
+        <v>1.088251924336521</v>
       </c>
       <c r="V6">
-        <v>0.9885659812642886</v>
+        <v>0.984219571757724</v>
       </c>
       <c r="W6">
-        <v>1.00799570302496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
+        <v>1.064169617504386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9990499284476313</v>
+        <v>1.016612965981538</v>
       </c>
       <c r="D7">
-        <v>1.001959178117549</v>
+        <v>0.9924001902644427</v>
       </c>
       <c r="E7">
-        <v>0.99940787152319</v>
+        <v>0.9911353166106643</v>
       </c>
       <c r="F7">
-        <v>0.9990499284476313</v>
+        <v>1.00504188927984</v>
       </c>
       <c r="G7">
-        <v>1.00035414275744</v>
+        <v>0.980326631339958</v>
       </c>
       <c r="H7">
-        <v>0.999308781882925</v>
+        <v>0.980326631339958</v>
       </c>
       <c r="I7">
-        <v>0.9990499284476313</v>
+        <v>0.980326631339958</v>
       </c>
       <c r="J7">
-        <v>1.001959178117549</v>
+        <v>1.025838506406392</v>
       </c>
       <c r="K7">
-        <v>1.000256127608003</v>
+        <v>0.9959769294302715</v>
       </c>
       <c r="L7">
-        <v>0.999590847293276</v>
+        <v>1.006022034252411</v>
       </c>
       <c r="M7">
-        <v>1.001197025269757</v>
+        <v>1.025838506406392</v>
       </c>
       <c r="N7">
-        <v>0.9990499284476313</v>
+        <v>0.980326631339958</v>
       </c>
       <c r="O7">
-        <v>0.99940787152319</v>
+        <v>0.9959769294302715</v>
       </c>
       <c r="P7">
-        <v>1.00068352482037</v>
+        <v>1.010907717918332</v>
       </c>
       <c r="Q7">
-        <v>0.9998810071403149</v>
+        <v>1.000509409355056</v>
       </c>
       <c r="R7">
-        <v>1.000138992696123</v>
+        <v>1.000714022392207</v>
       </c>
       <c r="S7">
-        <v>1.000573730799393</v>
+        <v>1.008952441705501</v>
       </c>
       <c r="T7">
-        <v>1.000138992696123</v>
+        <v>1.000714022392207</v>
       </c>
       <c r="U7">
-        <v>1.000192780211453</v>
+        <v>1.001795989114115</v>
       </c>
       <c r="V7">
-        <v>0.9999642098586883</v>
+        <v>0.997502117559284</v>
       </c>
       <c r="W7">
-        <v>1.000140487862471</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>1.00166930794569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9973752762794109</v>
+        <v>1.001313837807887</v>
       </c>
       <c r="D8">
-        <v>1.00533700919471</v>
+        <v>0.9994753567731793</v>
       </c>
       <c r="E8">
-        <v>0.9983946082924166</v>
+        <v>0.9992745130362819</v>
       </c>
       <c r="F8">
-        <v>0.9973752762794109</v>
+        <v>1.000381618960806</v>
       </c>
       <c r="G8">
-        <v>1.000973218092549</v>
+        <v>0.9987324966821428</v>
       </c>
       <c r="H8">
-        <v>0.998110946104653</v>
+        <v>0.9987324966821428</v>
       </c>
       <c r="I8">
-        <v>0.9973752762794109</v>
+        <v>0.9987324966821428</v>
       </c>
       <c r="J8">
-        <v>1.00533700919471</v>
+        <v>1.002124601218166</v>
       </c>
       <c r="K8">
-        <v>1.000713004691798</v>
+        <v>0.9995099779186314</v>
       </c>
       <c r="L8">
-        <v>0.9988771455168876</v>
+        <v>1.000362930851283</v>
       </c>
       <c r="M8">
-        <v>1.003270592497451</v>
+        <v>1.002124601218166</v>
       </c>
       <c r="N8">
-        <v>0.9973752762794109</v>
+        <v>0.9987324966821428</v>
       </c>
       <c r="O8">
-        <v>0.9983946082924166</v>
+        <v>0.9995099779186314</v>
       </c>
       <c r="P8">
-        <v>1.001865808743563</v>
+        <v>1.000817289568399</v>
       </c>
       <c r="Q8">
-        <v>0.9996839131924831</v>
+        <v>0.9999457984397185</v>
       </c>
       <c r="R8">
-        <v>1.000368964588846</v>
+        <v>1.000122358606313</v>
       </c>
       <c r="S8">
-        <v>1.001568278526559</v>
+        <v>1.000672066032534</v>
       </c>
       <c r="T8">
-        <v>1.000368964588846</v>
+        <v>1.000122358606313</v>
       </c>
       <c r="U8">
-        <v>1.000520027964772</v>
+        <v>1.000187173694937</v>
       </c>
       <c r="V8">
-        <v>0.9998910776276997</v>
+        <v>0.9998962382923778</v>
       </c>
       <c r="W8">
-        <v>1.000381475083735</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+        <v>1.000146916656047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9961855654394141</v>
+        <v>1.027823820292689</v>
       </c>
       <c r="D9">
-        <v>1.007720051159317</v>
+        <v>0.9871098175241074</v>
       </c>
       <c r="E9">
-        <v>0.9976692124769259</v>
+        <v>0.9852564069214041</v>
       </c>
       <c r="F9">
-        <v>0.9961855654394141</v>
+        <v>1.00832605813222</v>
       </c>
       <c r="G9">
-        <v>1.001418748110269</v>
+        <v>0.9668497578865869</v>
       </c>
       <c r="H9">
-        <v>0.9972589088195949</v>
+        <v>0.9668497578865869</v>
       </c>
       <c r="I9">
-        <v>0.9961855654394141</v>
+        <v>0.9668497578865869</v>
       </c>
       <c r="J9">
-        <v>1.007720051159317</v>
+        <v>1.043443851196584</v>
       </c>
       <c r="K9">
-        <v>1.001037322851409</v>
+        <v>0.9935509389635608</v>
       </c>
       <c r="L9">
-        <v>0.9983775259927956</v>
+        <v>1.010134756682225</v>
       </c>
       <c r="M9">
-        <v>1.004739628798453</v>
+        <v>1.043443851196584</v>
       </c>
       <c r="N9">
-        <v>0.9961855654394141</v>
+        <v>0.9668497578865869</v>
       </c>
       <c r="O9">
-        <v>0.9976692124769259</v>
+        <v>0.9935509389635608</v>
       </c>
       <c r="P9">
-        <v>1.002694631818121</v>
+        <v>1.018497395080072</v>
       </c>
       <c r="Q9">
-        <v>0.9995439802935973</v>
+        <v>1.000938498547891</v>
       </c>
       <c r="R9">
-        <v>1.000524943025219</v>
+        <v>1.001281516015577</v>
       </c>
       <c r="S9">
-        <v>1.002269337248837</v>
+        <v>1.015106949430788</v>
       </c>
       <c r="T9">
-        <v>1.000524943025219</v>
+        <v>1.001281516015577</v>
       </c>
       <c r="U9">
-        <v>1.000748394296481</v>
+        <v>1.003042651544738</v>
       </c>
       <c r="V9">
-        <v>0.9998358285250679</v>
+        <v>0.9958040728131078</v>
       </c>
       <c r="W9">
-        <v>1.000550870456022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
+        <v>1.002811925949922</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9918778936046198</v>
+        <v>1.553934920049971</v>
       </c>
       <c r="D10">
-        <v>1.016386297119781</v>
+        <v>0.8104577123595014</v>
       </c>
       <c r="E10">
-        <v>0.9950809676763852</v>
+        <v>0.680670984025936</v>
       </c>
       <c r="F10">
-        <v>0.9918778936046198</v>
+        <v>1.162409342809606</v>
       </c>
       <c r="G10">
-        <v>1.003004561330919</v>
+        <v>0.5637147935143358</v>
       </c>
       <c r="H10">
-        <v>0.9941922757486051</v>
+        <v>0.5637147935143358</v>
       </c>
       <c r="I10">
-        <v>0.9918778936046198</v>
+        <v>0.5637147935143358</v>
       </c>
       <c r="J10">
-        <v>1.016386297119781</v>
+        <v>1.909713870126953</v>
       </c>
       <c r="K10">
-        <v>1.002208610411132</v>
+        <v>0.7256527701207064</v>
       </c>
       <c r="L10">
-        <v>0.9965449673269277</v>
+        <v>1.116964579741248</v>
       </c>
       <c r="M10">
-        <v>1.010055983001227</v>
+        <v>1.909713870126953</v>
       </c>
       <c r="N10">
-        <v>0.9918778936046198</v>
+        <v>0.5637147935143358</v>
       </c>
       <c r="O10">
-        <v>0.9950809676763852</v>
+        <v>0.7256527701207064</v>
       </c>
       <c r="P10">
-        <v>1.005733632398083</v>
+        <v>1.31768332012383</v>
       </c>
       <c r="Q10">
-        <v>0.9990427645036521</v>
+        <v>0.9440310564651562</v>
       </c>
       <c r="R10">
-        <v>1.001115052800262</v>
+        <v>1.066360477920665</v>
       </c>
       <c r="S10">
-        <v>1.004823942042362</v>
+        <v>1.265925327685755</v>
       </c>
       <c r="T10">
-        <v>1.001115052800262</v>
+        <v>1.066360477920665</v>
       </c>
       <c r="U10">
-        <v>1.001587429932926</v>
+        <v>1.0903726941429</v>
       </c>
       <c r="V10">
-        <v>0.9996455226672648</v>
+        <v>0.9850411140171875</v>
       </c>
       <c r="W10">
-        <v>1.00116894452745</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43">
+        <v>1.065439871593532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9862435850233006</v>
+        <v>1.086443748630005</v>
       </c>
       <c r="D11">
-        <v>1.0279947144159</v>
+        <v>0.976639300290766</v>
       </c>
       <c r="E11">
-        <v>0.9915447946271484</v>
+        <v>0.9472680922133543</v>
       </c>
       <c r="F11">
-        <v>0.9862435850233006</v>
+        <v>1.026253035689522</v>
       </c>
       <c r="G11">
-        <v>1.005120158065051</v>
+        <v>0.9497336044227108</v>
       </c>
       <c r="H11">
-        <v>0.990077584610396</v>
+        <v>0.9497336044227108</v>
       </c>
       <c r="I11">
-        <v>0.9862435850233006</v>
+        <v>0.9497336044227108</v>
       </c>
       <c r="J11">
-        <v>1.0279947144159</v>
+        <v>1.143276989970984</v>
       </c>
       <c r="K11">
-        <v>1.003732892402196</v>
+        <v>0.9440952850912661</v>
       </c>
       <c r="L11">
-        <v>0.9941266062243364</v>
+        <v>1.011956901820697</v>
       </c>
       <c r="M11">
-        <v>1.01716358619425</v>
+        <v>1.143276989970984</v>
       </c>
       <c r="N11">
-        <v>0.9862435850233006</v>
+        <v>0.9497336044227108</v>
       </c>
       <c r="O11">
-        <v>0.9915447946271484</v>
+        <v>0.9440952850912661</v>
       </c>
       <c r="P11">
-        <v>1.009769754521524</v>
+        <v>1.043686137531125</v>
       </c>
       <c r="Q11">
-        <v>0.9983324763460999</v>
+        <v>0.9851741603903938</v>
       </c>
       <c r="R11">
-        <v>1.001927698022116</v>
+        <v>1.012368626494987</v>
       </c>
       <c r="S11">
-        <v>1.008219889036033</v>
+        <v>1.037875103583924</v>
       </c>
       <c r="T11">
-        <v>1.001927698022116</v>
+        <v>1.012368626494987</v>
       </c>
       <c r="U11">
-        <v>1.00272581303285</v>
+        <v>1.015839728793621</v>
       </c>
       <c r="V11">
-        <v>0.9994293674309402</v>
+        <v>1.002618503919439</v>
       </c>
       <c r="W11">
-        <v>1.002000490195322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43">
+        <v>1.010708369766163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.220272599678329</v>
+        <v>1.167194106978946</v>
       </c>
       <c r="D12">
-        <v>0.7597461781066924</v>
+        <v>0.9423194778315789</v>
       </c>
       <c r="E12">
-        <v>1.014626936988383</v>
+        <v>0.9037048607263135</v>
       </c>
       <c r="F12">
-        <v>1.220272599678329</v>
+        <v>1.049079999263159</v>
       </c>
       <c r="G12">
-        <v>0.9528495260875799</v>
+        <v>0.8669040319684184</v>
       </c>
       <c r="H12">
-        <v>1.079165807843437</v>
+        <v>0.8669040319684184</v>
       </c>
       <c r="I12">
-        <v>1.220272599678329</v>
+        <v>0.8669040319684184</v>
       </c>
       <c r="J12">
-        <v>0.7597461781066924</v>
+        <v>1.274062557189474</v>
       </c>
       <c r="K12">
-        <v>0.930732116365203</v>
+        <v>0.9181113702421081</v>
       </c>
       <c r="L12">
-        <v>1.082862769416514</v>
+        <v>1.035989054042106</v>
       </c>
       <c r="M12">
-        <v>0.8426738606596358</v>
+        <v>1.274062557189474</v>
       </c>
       <c r="N12">
-        <v>1.220272599678329</v>
+        <v>0.8669040319684184</v>
       </c>
       <c r="O12">
-        <v>1.014626936988383</v>
+        <v>0.9181113702421081</v>
       </c>
       <c r="P12">
-        <v>0.8871865575475375</v>
+        <v>1.096086963715791</v>
       </c>
       <c r="Q12">
-        <v>0.9837382315379812</v>
+        <v>0.9835956847526333</v>
       </c>
       <c r="R12">
-        <v>0.9982152382578011</v>
+        <v>1.019692653133333</v>
       </c>
       <c r="S12">
-        <v>0.9090742137275516</v>
+        <v>1.080417975564914</v>
       </c>
       <c r="T12">
-        <v>0.9982152382578012</v>
+        <v>1.019692653133333</v>
       </c>
       <c r="U12">
-        <v>0.9868738102152459</v>
+        <v>1.02703948966579</v>
       </c>
       <c r="V12">
-        <v>1.033553568107862</v>
+        <v>0.9950123981263154</v>
       </c>
       <c r="W12">
-        <v>0.9853662243932216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
+        <v>1.019670682280263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.028013016945666</v>
+        <v>0.894702629890289</v>
       </c>
       <c r="D13">
-        <v>0.9315213570110724</v>
+        <v>1.037697206745102</v>
       </c>
       <c r="E13">
-        <v>1.04145784451504</v>
+        <v>1.061848840986821</v>
       </c>
       <c r="F13">
-        <v>1.028013016945666</v>
+        <v>0.9630961841580196</v>
       </c>
       <c r="G13">
-        <v>0.9778158369090592</v>
+        <v>1.104888318853779</v>
       </c>
       <c r="H13">
-        <v>1.034307751365484</v>
+        <v>1.104888318853779</v>
       </c>
       <c r="I13">
-        <v>1.028013016945666</v>
+        <v>1.104888318853779</v>
       </c>
       <c r="J13">
-        <v>0.9315213570110724</v>
+        <v>0.8410188973164402</v>
       </c>
       <c r="K13">
-        <v>0.9923932972234528</v>
+        <v>1.045331566649022</v>
       </c>
       <c r="L13">
-        <v>1.00641866625033</v>
+        <v>0.9684055394055161</v>
       </c>
       <c r="M13">
-        <v>0.9514587731829953</v>
+        <v>0.8410188973164402</v>
       </c>
       <c r="N13">
-        <v>1.028013016945666</v>
+        <v>1.104888318853779</v>
       </c>
       <c r="O13">
-        <v>1.04145784451504</v>
+        <v>1.045331566649022</v>
       </c>
       <c r="P13">
-        <v>0.9864896007630564</v>
+        <v>0.9431752319827309</v>
       </c>
       <c r="Q13">
-        <v>1.00963684071205</v>
+        <v>1.004213875403521</v>
       </c>
       <c r="R13">
-        <v>1.000330739490593</v>
+        <v>0.9970795942730802</v>
       </c>
       <c r="S13">
-        <v>0.9835983461450573</v>
+        <v>0.9498155493744939</v>
       </c>
       <c r="T13">
-        <v>1.000330739490593</v>
+        <v>0.9970795942730802</v>
       </c>
       <c r="U13">
-        <v>0.9947020138452096</v>
+        <v>0.9885837417443151</v>
       </c>
       <c r="V13">
-        <v>1.001364214465301</v>
+        <v>1.011844657166208</v>
       </c>
       <c r="W13">
-        <v>0.9954233179253875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
+        <v>0.9896236480006235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9443252807997771</v>
+        <v>1.957937099999999</v>
       </c>
       <c r="D14">
-        <v>0.820404800197305</v>
+        <v>0.6734045099999993</v>
       </c>
       <c r="E14">
-        <v>1.149037622560001</v>
+        <v>0.4474934300000007</v>
       </c>
       <c r="F14">
-        <v>0.9443252807997771</v>
+        <v>1.280454000000002</v>
       </c>
       <c r="G14">
-        <v>0.9642769759617721</v>
+        <v>0.2502035199999997</v>
       </c>
       <c r="H14">
-        <v>1.080046699087106</v>
+        <v>0.2502035199999997</v>
       </c>
       <c r="I14">
-        <v>0.9443252807997771</v>
+        <v>0.2502035199999997</v>
       </c>
       <c r="J14">
-        <v>0.820404800197305</v>
+        <v>2.574842499999997</v>
       </c>
       <c r="K14">
-        <v>1.02705651789595</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="L14">
-        <v>0.9881717888424015</v>
+        <v>1.2003094</v>
       </c>
       <c r="M14">
-        <v>0.8980927650089238</v>
+        <v>2.574842499999997</v>
       </c>
       <c r="N14">
-        <v>0.9443252807997771</v>
+        <v>0.2502035199999997</v>
       </c>
       <c r="O14">
-        <v>1.149037622560001</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="P14">
-        <v>0.9847212113786532</v>
+        <v>1.548874334999998</v>
       </c>
       <c r="Q14">
-        <v>1.056657299260887</v>
+        <v>0.9016800850000004</v>
       </c>
       <c r="R14">
-        <v>0.9712559011856946</v>
+        <v>1.115984063333332</v>
       </c>
       <c r="S14">
-        <v>0.9779064662396929</v>
+        <v>1.45940089</v>
       </c>
       <c r="T14">
-        <v>0.9712559011856946</v>
+        <v>1.115984063333332</v>
       </c>
       <c r="U14">
-        <v>0.969511169879714</v>
+        <v>1.157101547499999</v>
       </c>
       <c r="V14">
-        <v>0.9644739920637265</v>
+        <v>0.9757219419999995</v>
       </c>
       <c r="W14">
-        <v>0.9839265562941546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
+        <v>1.113443828749999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.071988105605746</v>
+        <v>1.9579371</v>
       </c>
       <c r="D15">
-        <v>0.9979665529146311</v>
+        <v>0.67340451</v>
       </c>
       <c r="E15">
-        <v>0.9541843545190981</v>
+        <v>0.44749343</v>
       </c>
       <c r="F15">
-        <v>1.071988105605746</v>
+        <v>1.280454</v>
       </c>
       <c r="G15">
-        <v>1.000864111465482</v>
+        <v>0.25020352</v>
       </c>
       <c r="H15">
-        <v>0.9930521465437686</v>
+        <v>0.25020352</v>
       </c>
       <c r="I15">
-        <v>1.071988105605746</v>
+        <v>0.25020352</v>
       </c>
       <c r="J15">
-        <v>0.9979665529146311</v>
+        <v>2.5748425</v>
       </c>
       <c r="K15">
-        <v>0.9741967500424997</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="L15">
-        <v>1.025025072477704</v>
+        <v>1.2003094</v>
       </c>
       <c r="M15">
-        <v>0.994371919217742</v>
+        <v>2.5748425</v>
       </c>
       <c r="N15">
-        <v>1.071988105605746</v>
+        <v>0.25020352</v>
       </c>
       <c r="O15">
-        <v>0.9541843545190981</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="P15">
-        <v>0.9760754537168645</v>
+        <v>1.548874335</v>
       </c>
       <c r="Q15">
-        <v>0.97752423299229</v>
+        <v>0.901680085</v>
       </c>
       <c r="R15">
-        <v>1.008046337679825</v>
+        <v>1.115984063333333</v>
       </c>
       <c r="S15">
-        <v>0.9843383396330703</v>
+        <v>1.45940089</v>
       </c>
       <c r="T15">
-        <v>1.008046337679825</v>
+        <v>1.115984063333333</v>
       </c>
       <c r="U15">
-        <v>1.006250781126239</v>
+        <v>1.1571015475</v>
       </c>
       <c r="V15">
-        <v>1.019398246022141</v>
+        <v>0.9757219420000001</v>
       </c>
       <c r="W15">
-        <v>1.001456126598334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43">
+        <v>1.11344382875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000130852899616</v>
+        <v>1.9579371</v>
       </c>
       <c r="D16">
-        <v>1.000218922008702</v>
+        <v>0.67340451</v>
       </c>
       <c r="E16">
-        <v>0.9998086425975362</v>
+        <v>0.44749343</v>
       </c>
       <c r="F16">
-        <v>1.000130852899616</v>
+        <v>1.280454</v>
       </c>
       <c r="G16">
-        <v>1.000027012247979</v>
+        <v>0.25020352</v>
       </c>
       <c r="H16">
-        <v>0.9999148032441809</v>
+        <v>0.25020352</v>
       </c>
       <c r="I16">
-        <v>1.000130852899616</v>
+        <v>0.25020352</v>
       </c>
       <c r="J16">
-        <v>1.000218922008702</v>
+        <v>2.5748425</v>
       </c>
       <c r="K16">
-        <v>0.9999406525879403</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="L16">
-        <v>1.000027429082074</v>
+        <v>1.2003094</v>
       </c>
       <c r="M16">
-        <v>1.000106048840825</v>
+        <v>2.5748425</v>
       </c>
       <c r="N16">
-        <v>1.000130852899616</v>
+        <v>0.25020352</v>
       </c>
       <c r="O16">
-        <v>0.9998086425975362</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="P16">
-        <v>1.000013782303119</v>
+        <v>1.548874335</v>
       </c>
       <c r="Q16">
-        <v>0.9999178274227576</v>
+        <v>0.901680085</v>
       </c>
       <c r="R16">
-        <v>1.000052805835285</v>
+        <v>1.115984063333333</v>
       </c>
       <c r="S16">
-        <v>1.000018192284739</v>
+        <v>1.45940089</v>
       </c>
       <c r="T16">
-        <v>1.000052805835285</v>
+        <v>1.115984063333333</v>
       </c>
       <c r="U16">
-        <v>1.000046357438458</v>
+        <v>1.1571015475</v>
       </c>
       <c r="V16">
-        <v>1.00006325653069</v>
+        <v>0.9757219420000001</v>
       </c>
       <c r="W16">
-        <v>1.000021795438607</v>
+        <v>1.11344382875</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9987324966821426</v>
+        <v>1.01815</v>
       </c>
       <c r="D17">
-        <v>1.002124601218166</v>
+        <v>0.93024915</v>
       </c>
       <c r="E17">
-        <v>0.9995099779186316</v>
+        <v>1.0137822</v>
       </c>
       <c r="F17">
-        <v>0.9987324966821426</v>
+        <v>1.0091205</v>
       </c>
       <c r="G17">
-        <v>1.000381618960806</v>
+        <v>0.77213125</v>
       </c>
       <c r="H17">
-        <v>0.9992745130362819</v>
+        <v>0.77213125</v>
       </c>
       <c r="I17">
-        <v>0.9987324966821426</v>
+        <v>0.77213125</v>
       </c>
       <c r="J17">
-        <v>1.002124601218166</v>
+        <v>0.98600923</v>
       </c>
       <c r="K17">
-        <v>1.000362930851283</v>
+        <v>1.1295795</v>
       </c>
       <c r="L17">
-        <v>0.9994753567731793</v>
+        <v>1.0849238</v>
       </c>
       <c r="M17">
-        <v>1.001313837807887</v>
+        <v>0.98600923</v>
       </c>
       <c r="N17">
-        <v>0.9987324966821426</v>
+        <v>0.77213125</v>
       </c>
       <c r="O17">
-        <v>0.9995099779186316</v>
+        <v>1.1295795</v>
       </c>
       <c r="P17">
-        <v>1.000817289568399</v>
+        <v>1.057794365</v>
       </c>
       <c r="Q17">
-        <v>0.9999457984397186</v>
+        <v>1.06935</v>
       </c>
       <c r="R17">
-        <v>1.000122358606313</v>
+        <v>0.9625733266666666</v>
       </c>
       <c r="S17">
-        <v>1.000672066032534</v>
+        <v>1.041569743333333</v>
       </c>
       <c r="T17">
-        <v>1.000122358606313</v>
+        <v>0.9625733266666666</v>
       </c>
       <c r="U17">
-        <v>1.000187173694937</v>
+        <v>0.97421012</v>
       </c>
       <c r="V17">
-        <v>0.9998962382923778</v>
+        <v>0.933794346</v>
       </c>
       <c r="W17">
-        <v>1.000146916656047</v>
+        <v>0.99299320375</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9949135588766075</v>
+        <v>1.339994901095891</v>
       </c>
       <c r="D18">
-        <v>1.007005956673183</v>
+        <v>0.842288654657534</v>
       </c>
       <c r="E18">
-        <v>0.998741571701184</v>
+        <v>0.8198476771232877</v>
       </c>
       <c r="F18">
-        <v>0.9949135588766075</v>
+        <v>1.102042944657534</v>
       </c>
       <c r="G18">
-        <v>1.001374461787384</v>
+        <v>0.59338887890411</v>
       </c>
       <c r="H18">
-        <v>0.9975693219458278</v>
+        <v>0.59338887890411</v>
       </c>
       <c r="I18">
-        <v>0.9949135588766075</v>
+        <v>0.59338887890411</v>
       </c>
       <c r="J18">
-        <v>1.007005956673183</v>
+        <v>1.530130229863014</v>
       </c>
       <c r="K18">
-        <v>1.001539628050491</v>
+        <v>0.9218146823287668</v>
       </c>
       <c r="L18">
-        <v>0.9980305622708039</v>
+        <v>1.12443942739726</v>
       </c>
       <c r="M18">
-        <v>1.004489066066324</v>
+        <v>1.530130229863014</v>
       </c>
       <c r="N18">
-        <v>0.9949135588766075</v>
+        <v>0.59338887890411</v>
       </c>
       <c r="O18">
-        <v>0.998741571701184</v>
+        <v>0.9218146823287668</v>
       </c>
       <c r="P18">
-        <v>1.002873764187184</v>
+        <v>1.22597245609589</v>
       </c>
       <c r="Q18">
-        <v>1.000058016744284</v>
+        <v>1.011928813493151</v>
       </c>
       <c r="R18">
-        <v>1.000220362416992</v>
+        <v>1.01511126369863</v>
       </c>
       <c r="S18">
-        <v>1.002373996720584</v>
+        <v>1.184662618949772</v>
       </c>
       <c r="T18">
-        <v>1.000220362416992</v>
+        <v>1.01511126369863</v>
       </c>
       <c r="U18">
-        <v>1.00050888725959</v>
+        <v>1.036844183938356</v>
       </c>
       <c r="V18">
-        <v>0.9993898215829933</v>
+        <v>0.9481531229315067</v>
       </c>
       <c r="W18">
-        <v>1.000458015921476</v>
+        <v>1.034243424503424</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9874978564264935</v>
+        <v>1.364387356315789</v>
       </c>
       <c r="D19">
-        <v>1.01614681236346</v>
+        <v>0.8356221752631577</v>
       </c>
       <c r="E19">
-        <v>0.9976714450911831</v>
+        <v>0.8051494831578948</v>
       </c>
       <c r="F19">
-        <v>0.9874978564264935</v>
+        <v>1.10908548631579</v>
       </c>
       <c r="G19">
-        <v>1.003119445605511</v>
+        <v>0.5798420884210527</v>
       </c>
       <c r="H19">
-        <v>0.9945133986228288</v>
+        <v>0.5798420884210527</v>
       </c>
       <c r="I19">
-        <v>0.9874978564264935</v>
+        <v>0.5798420884210527</v>
       </c>
       <c r="J19">
-        <v>1.01614681236346</v>
+        <v>1.571368872105263</v>
       </c>
       <c r="K19">
-        <v>1.003831506676968</v>
+        <v>0.9060682936842106</v>
       </c>
       <c r="L19">
-        <v>0.9951654493430196</v>
+        <v>1.127434294736842</v>
       </c>
       <c r="M19">
-        <v>1.010371660372959</v>
+        <v>1.571368872105263</v>
       </c>
       <c r="N19">
-        <v>0.9874978564264935</v>
+        <v>0.5798420884210527</v>
       </c>
       <c r="O19">
-        <v>0.9976714450911831</v>
+        <v>0.9060682936842106</v>
       </c>
       <c r="P19">
-        <v>1.006909128727322</v>
+        <v>1.238718582894736</v>
       </c>
       <c r="Q19">
-        <v>1.000395445348347</v>
+        <v>1.00757689</v>
       </c>
       <c r="R19">
-        <v>1.000438704627046</v>
+        <v>1.019093084736842</v>
       </c>
       <c r="S19">
-        <v>1.005645901020052</v>
+        <v>1.195507550701754</v>
       </c>
       <c r="T19">
-        <v>1.000438704627046</v>
+        <v>1.019093084736842</v>
       </c>
       <c r="U19">
-        <v>1.001108889871662</v>
+        <v>1.041591185131579</v>
       </c>
       <c r="V19">
-        <v>0.9983866831826284</v>
+        <v>0.9492413657894737</v>
       </c>
       <c r="W19">
-        <v>1.001039696812803</v>
+        <v>1.03736975625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.364387356315789</v>
+      </c>
+      <c r="D20">
+        <v>0.8356221752631577</v>
+      </c>
+      <c r="E20">
+        <v>0.8051494831578948</v>
+      </c>
+      <c r="F20">
+        <v>1.10908548631579</v>
+      </c>
+      <c r="G20">
+        <v>0.5798420884210527</v>
+      </c>
+      <c r="H20">
+        <v>0.5798420884210527</v>
+      </c>
+      <c r="I20">
+        <v>0.5798420884210527</v>
+      </c>
+      <c r="J20">
+        <v>1.571368872105263</v>
+      </c>
+      <c r="K20">
+        <v>0.9060682936842106</v>
+      </c>
+      <c r="L20">
+        <v>1.127434294736842</v>
+      </c>
+      <c r="M20">
+        <v>1.571368872105263</v>
+      </c>
+      <c r="N20">
+        <v>0.5798420884210527</v>
+      </c>
+      <c r="O20">
+        <v>0.9060682936842106</v>
+      </c>
+      <c r="P20">
+        <v>1.238718582894736</v>
+      </c>
+      <c r="Q20">
+        <v>1.00757689</v>
+      </c>
+      <c r="R20">
+        <v>1.019093084736842</v>
+      </c>
+      <c r="S20">
+        <v>1.195507550701754</v>
+      </c>
+      <c r="T20">
+        <v>1.019093084736842</v>
+      </c>
+      <c r="U20">
+        <v>1.041591185131579</v>
+      </c>
+      <c r="V20">
+        <v>0.9492413657894737</v>
+      </c>
+      <c r="W20">
+        <v>1.03736975625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.8980927650089238</v>
+      </c>
+      <c r="D21">
+        <v>0.9881717888424015</v>
+      </c>
+      <c r="E21">
+        <v>1.080046699087106</v>
+      </c>
+      <c r="F21">
+        <v>0.9642769759617721</v>
+      </c>
+      <c r="G21">
+        <v>0.9443252807997767</v>
+      </c>
+      <c r="H21">
+        <v>0.9443252807997767</v>
+      </c>
+      <c r="I21">
+        <v>0.9443252807997767</v>
+      </c>
+      <c r="J21">
+        <v>0.8204048001973049</v>
+      </c>
+      <c r="K21">
+        <v>1.149037622560001</v>
+      </c>
+      <c r="L21">
+        <v>1.02705651789595</v>
+      </c>
+      <c r="M21">
+        <v>0.8204048001973049</v>
+      </c>
+      <c r="N21">
+        <v>0.9443252807997767</v>
+      </c>
+      <c r="O21">
+        <v>1.149037622560001</v>
+      </c>
+      <c r="P21">
+        <v>0.9847212113786532</v>
+      </c>
+      <c r="Q21">
+        <v>1.056657299260887</v>
+      </c>
+      <c r="R21">
+        <v>0.9712559011856944</v>
+      </c>
+      <c r="S21">
+        <v>0.9779064662396929</v>
+      </c>
+      <c r="T21">
+        <v>0.9712559011856943</v>
+      </c>
+      <c r="U21">
+        <v>0.9695111698797138</v>
+      </c>
+      <c r="V21">
+        <v>0.9644739920637264</v>
+      </c>
+      <c r="W21">
+        <v>0.9839265562941546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.994371919217742</v>
+      </c>
+      <c r="D22">
+        <v>1.025025072477704</v>
+      </c>
+      <c r="E22">
+        <v>0.9930521465437686</v>
+      </c>
+      <c r="F22">
+        <v>1.000864111465482</v>
+      </c>
+      <c r="G22">
+        <v>1.071988105605746</v>
+      </c>
+      <c r="H22">
+        <v>1.071988105605746</v>
+      </c>
+      <c r="I22">
+        <v>1.071988105605746</v>
+      </c>
+      <c r="J22">
+        <v>0.9979665529146311</v>
+      </c>
+      <c r="K22">
+        <v>0.9541843545190981</v>
+      </c>
+      <c r="L22">
+        <v>0.9741967500424997</v>
+      </c>
+      <c r="M22">
+        <v>0.9979665529146311</v>
+      </c>
+      <c r="N22">
+        <v>1.071988105605746</v>
+      </c>
+      <c r="O22">
+        <v>0.9541843545190981</v>
+      </c>
+      <c r="P22">
+        <v>0.9760754537168645</v>
+      </c>
+      <c r="Q22">
+        <v>0.97752423299229</v>
+      </c>
+      <c r="R22">
+        <v>1.008046337679825</v>
+      </c>
+      <c r="S22">
+        <v>0.9843383396330703</v>
+      </c>
+      <c r="T22">
+        <v>1.008046337679825</v>
+      </c>
+      <c r="U22">
+        <v>1.006250781126239</v>
+      </c>
+      <c r="V22">
+        <v>1.019398246022141</v>
+      </c>
+      <c r="W22">
+        <v>1.001456126598334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.8426738606596357</v>
+      </c>
+      <c r="D23">
+        <v>1.082862769416514</v>
+      </c>
+      <c r="E23">
+        <v>1.079165807843437</v>
+      </c>
+      <c r="F23">
+        <v>0.9528495260875799</v>
+      </c>
+      <c r="G23">
+        <v>1.220272599678329</v>
+      </c>
+      <c r="H23">
+        <v>1.220272599678329</v>
+      </c>
+      <c r="I23">
+        <v>1.220272599678329</v>
+      </c>
+      <c r="J23">
+        <v>0.7597461781066923</v>
+      </c>
+      <c r="K23">
+        <v>1.014626936988383</v>
+      </c>
+      <c r="L23">
+        <v>0.930732116365203</v>
+      </c>
+      <c r="M23">
+        <v>0.7597461781066923</v>
+      </c>
+      <c r="N23">
+        <v>1.220272599678329</v>
+      </c>
+      <c r="O23">
+        <v>1.014626936988383</v>
+      </c>
+      <c r="P23">
+        <v>0.8871865575475375</v>
+      </c>
+      <c r="Q23">
+        <v>0.9837382315379812</v>
+      </c>
+      <c r="R23">
+        <v>0.9982152382578012</v>
+      </c>
+      <c r="S23">
+        <v>0.9090742137275516</v>
+      </c>
+      <c r="T23">
+        <v>0.9982152382578012</v>
+      </c>
+      <c r="U23">
+        <v>0.9868738102152459</v>
+      </c>
+      <c r="V23">
+        <v>1.033553568107862</v>
+      </c>
+      <c r="W23">
+        <v>0.9853662243932217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9514587731829951</v>
+      </c>
+      <c r="D24">
+        <v>1.00641866625033</v>
+      </c>
+      <c r="E24">
+        <v>1.034307751365484</v>
+      </c>
+      <c r="F24">
+        <v>0.9778158369090592</v>
+      </c>
+      <c r="G24">
+        <v>1.028013016945666</v>
+      </c>
+      <c r="H24">
+        <v>1.028013016945666</v>
+      </c>
+      <c r="I24">
+        <v>1.028013016945666</v>
+      </c>
+      <c r="J24">
+        <v>0.9315213570110723</v>
+      </c>
+      <c r="K24">
+        <v>1.04145784451504</v>
+      </c>
+      <c r="L24">
+        <v>0.9923932972234527</v>
+      </c>
+      <c r="M24">
+        <v>0.9315213570110723</v>
+      </c>
+      <c r="N24">
+        <v>1.028013016945666</v>
+      </c>
+      <c r="O24">
+        <v>1.04145784451504</v>
+      </c>
+      <c r="P24">
+        <v>0.9864896007630564</v>
+      </c>
+      <c r="Q24">
+        <v>1.00963684071205</v>
+      </c>
+      <c r="R24">
+        <v>1.000330739490593</v>
+      </c>
+      <c r="S24">
+        <v>0.9835983461450573</v>
+      </c>
+      <c r="T24">
+        <v>1.000330739490593</v>
+      </c>
+      <c r="U24">
+        <v>0.9947020138452096</v>
+      </c>
+      <c r="V24">
+        <v>1.001364214465301</v>
+      </c>
+      <c r="W24">
+        <v>0.9954233179253875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.8980927650089238</v>
+      </c>
+      <c r="D25">
+        <v>0.9881717888424015</v>
+      </c>
+      <c r="E25">
+        <v>1.080046699087106</v>
+      </c>
+      <c r="F25">
+        <v>0.9642769759617721</v>
+      </c>
+      <c r="G25">
+        <v>0.9443252807997768</v>
+      </c>
+      <c r="H25">
+        <v>0.9443252807997768</v>
+      </c>
+      <c r="I25">
+        <v>0.9443252807997768</v>
+      </c>
+      <c r="J25">
+        <v>0.8204048001973049</v>
+      </c>
+      <c r="K25">
+        <v>1.149037622560001</v>
+      </c>
+      <c r="L25">
+        <v>1.02705651789595</v>
+      </c>
+      <c r="M25">
+        <v>0.8204048001973049</v>
+      </c>
+      <c r="N25">
+        <v>0.9443252807997768</v>
+      </c>
+      <c r="O25">
+        <v>1.149037622560001</v>
+      </c>
+      <c r="P25">
+        <v>0.9847212113786532</v>
+      </c>
+      <c r="Q25">
+        <v>1.056657299260887</v>
+      </c>
+      <c r="R25">
+        <v>0.9712559011856944</v>
+      </c>
+      <c r="S25">
+        <v>0.9779064662396929</v>
+      </c>
+      <c r="T25">
+        <v>0.9712559011856943</v>
+      </c>
+      <c r="U25">
+        <v>0.9695111698797138</v>
+      </c>
+      <c r="V25">
+        <v>0.9644739920637264</v>
+      </c>
+      <c r="W25">
+        <v>0.9839265562941546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.994371919217742</v>
+      </c>
+      <c r="D26">
+        <v>1.025025072477704</v>
+      </c>
+      <c r="E26">
+        <v>0.9930521465437686</v>
+      </c>
+      <c r="F26">
+        <v>1.000864111465482</v>
+      </c>
+      <c r="G26">
+        <v>1.071988105605746</v>
+      </c>
+      <c r="H26">
+        <v>1.071988105605746</v>
+      </c>
+      <c r="I26">
+        <v>1.071988105605746</v>
+      </c>
+      <c r="J26">
+        <v>0.9979665529146313</v>
+      </c>
+      <c r="K26">
+        <v>0.954184354519098</v>
+      </c>
+      <c r="L26">
+        <v>0.9741967500424997</v>
+      </c>
+      <c r="M26">
+        <v>0.9979665529146313</v>
+      </c>
+      <c r="N26">
+        <v>1.071988105605746</v>
+      </c>
+      <c r="O26">
+        <v>0.954184354519098</v>
+      </c>
+      <c r="P26">
+        <v>0.9760754537168647</v>
+      </c>
+      <c r="Q26">
+        <v>0.97752423299229</v>
+      </c>
+      <c r="R26">
+        <v>1.008046337679825</v>
+      </c>
+      <c r="S26">
+        <v>0.9843383396330704</v>
+      </c>
+      <c r="T26">
+        <v>1.008046337679825</v>
+      </c>
+      <c r="U26">
+        <v>1.006250781126239</v>
+      </c>
+      <c r="V26">
+        <v>1.019398246022141</v>
+      </c>
+      <c r="W26">
+        <v>1.001456126598334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.053814209266398</v>
+      </c>
+      <c r="D27">
+        <v>0.9795047541632881</v>
+      </c>
+      <c r="E27">
+        <v>0.9683250564812307</v>
+      </c>
+      <c r="F27">
+        <v>1.020319090645593</v>
+      </c>
+      <c r="G27">
+        <v>0.9388171093576456</v>
+      </c>
+      <c r="H27">
+        <v>0.9388171093576456</v>
+      </c>
+      <c r="I27">
+        <v>0.9388171093576456</v>
+      </c>
+      <c r="J27">
+        <v>1.077237485059289</v>
+      </c>
+      <c r="K27">
+        <v>0.9800743610234084</v>
+      </c>
+      <c r="L27">
+        <v>1.019470845506103</v>
+      </c>
+      <c r="M27">
+        <v>1.077237485059289</v>
+      </c>
+      <c r="N27">
+        <v>0.9388171093576456</v>
+      </c>
+      <c r="O27">
+        <v>0.9800743610234084</v>
+      </c>
+      <c r="P27">
+        <v>1.028655923041349</v>
+      </c>
+      <c r="Q27">
+        <v>1.000196725834501</v>
+      </c>
+      <c r="R27">
+        <v>0.9987096518134478</v>
+      </c>
+      <c r="S27">
+        <v>1.02587697890943</v>
+      </c>
+      <c r="T27">
+        <v>0.9987096518134478</v>
+      </c>
+      <c r="U27">
+        <v>1.004112011521484</v>
+      </c>
+      <c r="V27">
+        <v>0.9910530310887167</v>
+      </c>
+      <c r="W27">
+        <v>1.00469536393787</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.016497443153688</v>
+      </c>
+      <c r="D28">
+        <v>0.9765744177295308</v>
+      </c>
+      <c r="E28">
+        <v>0.997672102883351</v>
+      </c>
+      <c r="F28">
+        <v>1.004487779519597</v>
+      </c>
+      <c r="G28">
+        <v>0.9312191363926513</v>
+      </c>
+      <c r="H28">
+        <v>0.9312191363926513</v>
+      </c>
+      <c r="I28">
+        <v>0.9312191363926513</v>
+      </c>
+      <c r="J28">
+        <v>1.017843970465306</v>
+      </c>
+      <c r="K28">
+        <v>1.029805996700427</v>
+      </c>
+      <c r="L28">
+        <v>1.024468225012078</v>
+      </c>
+      <c r="M28">
+        <v>1.017843970465306</v>
+      </c>
+      <c r="N28">
+        <v>0.9312191363926513</v>
+      </c>
+      <c r="O28">
+        <v>1.029805996700427</v>
+      </c>
+      <c r="P28">
+        <v>1.023824983582867</v>
+      </c>
+      <c r="Q28">
+        <v>1.017146888110012</v>
+      </c>
+      <c r="R28">
+        <v>0.9929563678527948</v>
+      </c>
+      <c r="S28">
+        <v>1.01737924889511</v>
+      </c>
+      <c r="T28">
+        <v>0.9929563678527948</v>
+      </c>
+      <c r="U28">
+        <v>0.9958392207694955</v>
+      </c>
+      <c r="V28">
+        <v>0.9829152038941267</v>
+      </c>
+      <c r="W28">
+        <v>0.9998211339820787</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.8441366193415202</v>
+      </c>
+      <c r="D29">
+        <v>1.036414881636813</v>
+      </c>
+      <c r="E29">
+        <v>1.098127959753241</v>
+      </c>
+      <c r="F29">
+        <v>0.9496848272711571</v>
+      </c>
+      <c r="G29">
+        <v>1.081006331745693</v>
+      </c>
+      <c r="H29">
+        <v>1.081006331745693</v>
+      </c>
+      <c r="I29">
+        <v>1.081006331745693</v>
+      </c>
+      <c r="J29">
+        <v>0.7447040679375132</v>
+      </c>
+      <c r="K29">
+        <v>1.111266002581416</v>
+      </c>
+      <c r="L29">
+        <v>0.9817444157251599</v>
+      </c>
+      <c r="M29">
+        <v>0.7447040679375132</v>
+      </c>
+      <c r="N29">
+        <v>1.081006331745693</v>
+      </c>
+      <c r="O29">
+        <v>1.111266002581416</v>
+      </c>
+      <c r="P29">
+        <v>0.9279850352594646</v>
+      </c>
+      <c r="Q29">
+        <v>1.030475414926287</v>
+      </c>
+      <c r="R29">
+        <v>0.9789921340882076</v>
+      </c>
+      <c r="S29">
+        <v>0.9352182992633621</v>
+      </c>
+      <c r="T29">
+        <v>0.9789921340882076</v>
+      </c>
+      <c r="U29">
+        <v>0.971665307383945</v>
+      </c>
+      <c r="V29">
+        <v>0.9935335122562947</v>
+      </c>
+      <c r="W29">
+        <v>0.9808856382490643</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CubeA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.133549538872232</v>
+        <v>1.132255175101699</v>
       </c>
       <c r="D4">
-        <v>0.9521980169826575</v>
+        <v>0.953527778241232</v>
       </c>
       <c r="E4">
-        <v>0.9230691365207675</v>
+        <v>0.9235374354316438</v>
       </c>
       <c r="F4">
-        <v>1.041581167346037</v>
+        <v>1.040972862200088</v>
       </c>
       <c r="G4">
-        <v>0.8815731010579003</v>
+        <v>0.8860339012559212</v>
       </c>
       <c r="H4">
-        <v>0.8815731010579003</v>
+        <v>0.8860339012559212</v>
       </c>
       <c r="I4">
-        <v>0.8815731010579003</v>
+        <v>0.8860339012559212</v>
       </c>
       <c r="J4">
-        <v>1.212831551686064</v>
+        <v>1.211707852076548</v>
       </c>
       <c r="K4">
-        <v>0.9395970143057099</v>
+        <v>0.9382214904797996</v>
       </c>
       <c r="L4">
-        <v>1.033719907168308</v>
+        <v>1.032096159763384</v>
       </c>
       <c r="M4">
-        <v>1.212831551686064</v>
+        <v>1.211707852076548</v>
       </c>
       <c r="N4">
-        <v>0.8815731010579003</v>
+        <v>0.8860339012559212</v>
       </c>
       <c r="O4">
-        <v>0.9395970143057099</v>
+        <v>0.9382214904797996</v>
       </c>
       <c r="P4">
-        <v>1.076214282995887</v>
+        <v>1.074964671278174</v>
       </c>
       <c r="Q4">
-        <v>0.9905890908258734</v>
+        <v>0.9895971763399439</v>
       </c>
       <c r="R4">
-        <v>1.011333889016558</v>
+        <v>1.011987747937423</v>
       </c>
       <c r="S4">
-        <v>1.064669911112604</v>
+        <v>1.063634068252145</v>
       </c>
       <c r="T4">
-        <v>1.011333889016558</v>
+        <v>1.011987747937423</v>
       </c>
       <c r="U4">
-        <v>1.018895708598928</v>
+        <v>1.019234026503089</v>
       </c>
       <c r="V4">
-        <v>0.9914311870907223</v>
+        <v>0.9925940014536556</v>
       </c>
       <c r="W4">
-        <v>1.014764929242459</v>
+        <v>1.01479408181879</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.163302788897695</v>
+        <v>1.303066193037559</v>
       </c>
       <c r="D5">
-        <v>0.941576797233428</v>
+        <v>0.8523169836467658</v>
       </c>
       <c r="E5">
-        <v>0.9061796425720416</v>
+        <v>0.8421598848881794</v>
       </c>
       <c r="F5">
-        <v>1.050053208097983</v>
+        <v>1.091285160017975</v>
       </c>
       <c r="G5">
-        <v>0.8573899252161317</v>
+        <v>0.6139390195868498</v>
       </c>
       <c r="H5">
-        <v>0.8573899252161317</v>
+        <v>0.6139390195868498</v>
       </c>
       <c r="I5">
-        <v>0.8573899252161317</v>
+        <v>0.6139390195868498</v>
       </c>
       <c r="J5">
-        <v>1.262006441059077</v>
+        <v>1.467876293991917</v>
       </c>
       <c r="K5">
-        <v>0.9256893765057634</v>
+        <v>0.9457490601414295</v>
       </c>
       <c r="L5">
-        <v>1.040219749337176</v>
+        <v>1.119862889078076</v>
       </c>
       <c r="M5">
-        <v>1.262006441059077</v>
+        <v>1.467876293991917</v>
       </c>
       <c r="N5">
-        <v>0.8573899252161317</v>
+        <v>0.6139390195868498</v>
       </c>
       <c r="O5">
-        <v>0.9256893765057634</v>
+        <v>0.9457490601414295</v>
       </c>
       <c r="P5">
-        <v>1.09384790878242</v>
+        <v>1.206812677066673</v>
       </c>
       <c r="Q5">
-        <v>0.9878712923018733</v>
+        <v>1.018517110079702</v>
       </c>
       <c r="R5">
-        <v>1.015028580926991</v>
+        <v>1.009188124573399</v>
       </c>
       <c r="S5">
-        <v>1.079249675220941</v>
+        <v>1.168303504717107</v>
       </c>
       <c r="T5">
-        <v>1.015028580926991</v>
+        <v>1.009188124573399</v>
       </c>
       <c r="U5">
-        <v>1.023784737719739</v>
+        <v>1.029712383434543</v>
       </c>
       <c r="V5">
-        <v>0.9905057752190174</v>
+        <v>0.9465577106650043</v>
       </c>
       <c r="W5">
-        <v>1.018302241114912</v>
+        <v>1.029531935548594</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.545474280479386</v>
+        <v>1.133549538872232</v>
       </c>
       <c r="D6">
-        <v>0.8134382854831982</v>
+        <v>0.9521980169826575</v>
       </c>
       <c r="E6">
-        <v>0.685248771506021</v>
+        <v>0.9230691365207675</v>
       </c>
       <c r="F6">
-        <v>1.160846110479258</v>
+        <v>1.041581167346037</v>
       </c>
       <c r="G6">
-        <v>0.5680901614425351</v>
+        <v>0.8815731010579003</v>
       </c>
       <c r="H6">
-        <v>0.5680901614425351</v>
+        <v>0.8815731010579003</v>
       </c>
       <c r="I6">
-        <v>0.5680901614425351</v>
+        <v>0.8815731010579003</v>
       </c>
       <c r="J6">
-        <v>1.893903716944038</v>
+        <v>1.212831551686064</v>
       </c>
       <c r="K6">
-        <v>0.7301677084802538</v>
+        <v>0.9395970143057099</v>
       </c>
       <c r="L6">
-        <v>1.116187905220402</v>
+        <v>1.033719907168308</v>
       </c>
       <c r="M6">
-        <v>1.893903716944038</v>
+        <v>1.212831551686064</v>
       </c>
       <c r="N6">
-        <v>0.5680901614425351</v>
+        <v>0.8815731010579003</v>
       </c>
       <c r="O6">
-        <v>0.7301677084802538</v>
+        <v>0.9395970143057099</v>
       </c>
       <c r="P6">
-        <v>1.312035712712146</v>
+        <v>1.076214282995887</v>
       </c>
       <c r="Q6">
-        <v>0.945506909479756</v>
+        <v>0.9905890908258734</v>
       </c>
       <c r="R6">
-        <v>1.064053862288942</v>
+        <v>1.011333889016558</v>
       </c>
       <c r="S6">
-        <v>1.261639178634517</v>
+        <v>1.064669911112604</v>
       </c>
       <c r="T6">
-        <v>1.064053862288942</v>
+        <v>1.011333889016558</v>
       </c>
       <c r="U6">
-        <v>1.088251924336521</v>
+        <v>1.018895708598928</v>
       </c>
       <c r="V6">
-        <v>0.984219571757724</v>
+        <v>0.9914311870907223</v>
       </c>
       <c r="W6">
-        <v>1.064169617504386</v>
+        <v>1.014764929242459</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.016612965981538</v>
+        <v>1.163302788897695</v>
       </c>
       <c r="D7">
-        <v>0.9924001902644427</v>
+        <v>0.941576797233428</v>
       </c>
       <c r="E7">
-        <v>0.9911353166106643</v>
+        <v>0.9061796425720416</v>
       </c>
       <c r="F7">
-        <v>1.00504188927984</v>
+        <v>1.050053208097983</v>
       </c>
       <c r="G7">
-        <v>0.980326631339958</v>
+        <v>0.8573899252161317</v>
       </c>
       <c r="H7">
-        <v>0.980326631339958</v>
+        <v>0.8573899252161317</v>
       </c>
       <c r="I7">
-        <v>0.980326631339958</v>
+        <v>0.8573899252161317</v>
       </c>
       <c r="J7">
-        <v>1.025838506406392</v>
+        <v>1.262006441059077</v>
       </c>
       <c r="K7">
-        <v>0.9959769294302715</v>
+        <v>0.9256893765057634</v>
       </c>
       <c r="L7">
-        <v>1.006022034252411</v>
+        <v>1.040219749337176</v>
       </c>
       <c r="M7">
-        <v>1.025838506406392</v>
+        <v>1.262006441059077</v>
       </c>
       <c r="N7">
-        <v>0.980326631339958</v>
+        <v>0.8573899252161317</v>
       </c>
       <c r="O7">
-        <v>0.9959769294302715</v>
+        <v>0.9256893765057634</v>
       </c>
       <c r="P7">
-        <v>1.010907717918332</v>
+        <v>1.09384790878242</v>
       </c>
       <c r="Q7">
-        <v>1.000509409355056</v>
+        <v>0.9878712923018733</v>
       </c>
       <c r="R7">
-        <v>1.000714022392207</v>
+        <v>1.015028580926991</v>
       </c>
       <c r="S7">
-        <v>1.008952441705501</v>
+        <v>1.079249675220941</v>
       </c>
       <c r="T7">
-        <v>1.000714022392207</v>
+        <v>1.015028580926991</v>
       </c>
       <c r="U7">
-        <v>1.001795989114115</v>
+        <v>1.023784737719739</v>
       </c>
       <c r="V7">
-        <v>0.997502117559284</v>
+        <v>0.9905057752190174</v>
       </c>
       <c r="W7">
-        <v>1.00166930794569</v>
+        <v>1.018302241114912</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001313837807887</v>
+        <v>1.545474280479386</v>
       </c>
       <c r="D8">
-        <v>0.9994753567731793</v>
+        <v>0.8134382854831982</v>
       </c>
       <c r="E8">
-        <v>0.9992745130362819</v>
+        <v>0.685248771506021</v>
       </c>
       <c r="F8">
-        <v>1.000381618960806</v>
+        <v>1.160846110479258</v>
       </c>
       <c r="G8">
-        <v>0.9987324966821428</v>
+        <v>0.5680901614425351</v>
       </c>
       <c r="H8">
-        <v>0.9987324966821428</v>
+        <v>0.5680901614425351</v>
       </c>
       <c r="I8">
-        <v>0.9987324966821428</v>
+        <v>0.5680901614425351</v>
       </c>
       <c r="J8">
-        <v>1.002124601218166</v>
+        <v>1.893903716944038</v>
       </c>
       <c r="K8">
-        <v>0.9995099779186314</v>
+        <v>0.7301677084802538</v>
       </c>
       <c r="L8">
-        <v>1.000362930851283</v>
+        <v>1.116187905220402</v>
       </c>
       <c r="M8">
-        <v>1.002124601218166</v>
+        <v>1.893903716944038</v>
       </c>
       <c r="N8">
-        <v>0.9987324966821428</v>
+        <v>0.5680901614425351</v>
       </c>
       <c r="O8">
-        <v>0.9995099779186314</v>
+        <v>0.7301677084802538</v>
       </c>
       <c r="P8">
-        <v>1.000817289568399</v>
+        <v>1.312035712712146</v>
       </c>
       <c r="Q8">
-        <v>0.9999457984397185</v>
+        <v>0.945506909479756</v>
       </c>
       <c r="R8">
-        <v>1.000122358606313</v>
+        <v>1.064053862288942</v>
       </c>
       <c r="S8">
-        <v>1.000672066032534</v>
+        <v>1.261639178634517</v>
       </c>
       <c r="T8">
-        <v>1.000122358606313</v>
+        <v>1.064053862288942</v>
       </c>
       <c r="U8">
-        <v>1.000187173694937</v>
+        <v>1.088251924336521</v>
       </c>
       <c r="V8">
-        <v>0.9998962382923778</v>
+        <v>0.984219571757724</v>
       </c>
       <c r="W8">
-        <v>1.000146916656047</v>
+        <v>1.064169617504386</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.027823820292689</v>
+        <v>1.016612965981538</v>
       </c>
       <c r="D9">
-        <v>0.9871098175241074</v>
+        <v>0.9924001902644427</v>
       </c>
       <c r="E9">
-        <v>0.9852564069214041</v>
+        <v>0.9911353166106643</v>
       </c>
       <c r="F9">
-        <v>1.00832605813222</v>
+        <v>1.00504188927984</v>
       </c>
       <c r="G9">
-        <v>0.9668497578865869</v>
+        <v>0.980326631339958</v>
       </c>
       <c r="H9">
-        <v>0.9668497578865869</v>
+        <v>0.980326631339958</v>
       </c>
       <c r="I9">
-        <v>0.9668497578865869</v>
+        <v>0.980326631339958</v>
       </c>
       <c r="J9">
-        <v>1.043443851196584</v>
+        <v>1.025838506406392</v>
       </c>
       <c r="K9">
-        <v>0.9935509389635608</v>
+        <v>0.9959769294302715</v>
       </c>
       <c r="L9">
-        <v>1.010134756682225</v>
+        <v>1.006022034252411</v>
       </c>
       <c r="M9">
-        <v>1.043443851196584</v>
+        <v>1.025838506406392</v>
       </c>
       <c r="N9">
-        <v>0.9668497578865869</v>
+        <v>0.980326631339958</v>
       </c>
       <c r="O9">
-        <v>0.9935509389635608</v>
+        <v>0.9959769294302715</v>
       </c>
       <c r="P9">
-        <v>1.018497395080072</v>
+        <v>1.010907717918332</v>
       </c>
       <c r="Q9">
-        <v>1.000938498547891</v>
+        <v>1.000509409355056</v>
       </c>
       <c r="R9">
-        <v>1.001281516015577</v>
+        <v>1.000714022392207</v>
       </c>
       <c r="S9">
-        <v>1.015106949430788</v>
+        <v>1.008952441705501</v>
       </c>
       <c r="T9">
-        <v>1.001281516015577</v>
+        <v>1.000714022392207</v>
       </c>
       <c r="U9">
-        <v>1.003042651544738</v>
+        <v>1.001795989114115</v>
       </c>
       <c r="V9">
-        <v>0.9958040728131078</v>
+        <v>0.997502117559284</v>
       </c>
       <c r="W9">
-        <v>1.002811925949922</v>
+        <v>1.00166930794569</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.553934920049971</v>
+        <v>1.001313837807887</v>
       </c>
       <c r="D10">
-        <v>0.8104577123595014</v>
+        <v>0.9994753567731793</v>
       </c>
       <c r="E10">
-        <v>0.680670984025936</v>
+        <v>0.9992745130362819</v>
       </c>
       <c r="F10">
-        <v>1.162409342809606</v>
+        <v>1.000381618960806</v>
       </c>
       <c r="G10">
-        <v>0.5637147935143358</v>
+        <v>0.9987324966821428</v>
       </c>
       <c r="H10">
-        <v>0.5637147935143358</v>
+        <v>0.9987324966821428</v>
       </c>
       <c r="I10">
-        <v>0.5637147935143358</v>
+        <v>0.9987324966821428</v>
       </c>
       <c r="J10">
-        <v>1.909713870126953</v>
+        <v>1.002124601218166</v>
       </c>
       <c r="K10">
-        <v>0.7256527701207064</v>
+        <v>0.9995099779186314</v>
       </c>
       <c r="L10">
-        <v>1.116964579741248</v>
+        <v>1.000362930851283</v>
       </c>
       <c r="M10">
-        <v>1.909713870126953</v>
+        <v>1.002124601218166</v>
       </c>
       <c r="N10">
-        <v>0.5637147935143358</v>
+        <v>0.9987324966821428</v>
       </c>
       <c r="O10">
-        <v>0.7256527701207064</v>
+        <v>0.9995099779186314</v>
       </c>
       <c r="P10">
-        <v>1.31768332012383</v>
+        <v>1.000817289568399</v>
       </c>
       <c r="Q10">
-        <v>0.9440310564651562</v>
+        <v>0.9999457984397185</v>
       </c>
       <c r="R10">
-        <v>1.066360477920665</v>
+        <v>1.000122358606313</v>
       </c>
       <c r="S10">
-        <v>1.265925327685755</v>
+        <v>1.000672066032534</v>
       </c>
       <c r="T10">
-        <v>1.066360477920665</v>
+        <v>1.000122358606313</v>
       </c>
       <c r="U10">
-        <v>1.0903726941429</v>
+        <v>1.000187173694937</v>
       </c>
       <c r="V10">
-        <v>0.9850411140171875</v>
+        <v>0.9998962382923778</v>
       </c>
       <c r="W10">
-        <v>1.065439871593532</v>
+        <v>1.000146916656047</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.086443748630005</v>
+        <v>1.027823820292689</v>
       </c>
       <c r="D11">
-        <v>0.976639300290766</v>
+        <v>0.9871098175241074</v>
       </c>
       <c r="E11">
-        <v>0.9472680922133543</v>
+        <v>0.9852564069214041</v>
       </c>
       <c r="F11">
-        <v>1.026253035689522</v>
+        <v>1.00832605813222</v>
       </c>
       <c r="G11">
-        <v>0.9497336044227108</v>
+        <v>0.9668497578865869</v>
       </c>
       <c r="H11">
-        <v>0.9497336044227108</v>
+        <v>0.9668497578865869</v>
       </c>
       <c r="I11">
-        <v>0.9497336044227108</v>
+        <v>0.9668497578865869</v>
       </c>
       <c r="J11">
-        <v>1.143276989970984</v>
+        <v>1.043443851196584</v>
       </c>
       <c r="K11">
-        <v>0.9440952850912661</v>
+        <v>0.9935509389635608</v>
       </c>
       <c r="L11">
-        <v>1.011956901820697</v>
+        <v>1.010134756682225</v>
       </c>
       <c r="M11">
-        <v>1.143276989970984</v>
+        <v>1.043443851196584</v>
       </c>
       <c r="N11">
-        <v>0.9497336044227108</v>
+        <v>0.9668497578865869</v>
       </c>
       <c r="O11">
-        <v>0.9440952850912661</v>
+        <v>0.9935509389635608</v>
       </c>
       <c r="P11">
-        <v>1.043686137531125</v>
+        <v>1.018497395080072</v>
       </c>
       <c r="Q11">
-        <v>0.9851741603903938</v>
+        <v>1.000938498547891</v>
       </c>
       <c r="R11">
-        <v>1.012368626494987</v>
+        <v>1.001281516015577</v>
       </c>
       <c r="S11">
-        <v>1.037875103583924</v>
+        <v>1.015106949430788</v>
       </c>
       <c r="T11">
-        <v>1.012368626494987</v>
+        <v>1.001281516015577</v>
       </c>
       <c r="U11">
-        <v>1.015839728793621</v>
+        <v>1.003042651544738</v>
       </c>
       <c r="V11">
-        <v>1.002618503919439</v>
+        <v>0.9958040728131078</v>
       </c>
       <c r="W11">
-        <v>1.010708369766163</v>
+        <v>1.002811925949922</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.167194106978946</v>
+        <v>1.553934920049971</v>
       </c>
       <c r="D12">
-        <v>0.9423194778315789</v>
+        <v>0.8104577123595014</v>
       </c>
       <c r="E12">
-        <v>0.9037048607263135</v>
+        <v>0.680670984025936</v>
       </c>
       <c r="F12">
-        <v>1.049079999263159</v>
+        <v>1.162409342809606</v>
       </c>
       <c r="G12">
-        <v>0.8669040319684184</v>
+        <v>0.5637147935143358</v>
       </c>
       <c r="H12">
-        <v>0.8669040319684184</v>
+        <v>0.5637147935143358</v>
       </c>
       <c r="I12">
-        <v>0.8669040319684184</v>
+        <v>0.5637147935143358</v>
       </c>
       <c r="J12">
-        <v>1.274062557189474</v>
+        <v>1.909713870126953</v>
       </c>
       <c r="K12">
-        <v>0.9181113702421081</v>
+        <v>0.7256527701207064</v>
       </c>
       <c r="L12">
-        <v>1.035989054042106</v>
+        <v>1.116964579741248</v>
       </c>
       <c r="M12">
-        <v>1.274062557189474</v>
+        <v>1.909713870126953</v>
       </c>
       <c r="N12">
-        <v>0.8669040319684184</v>
+        <v>0.5637147935143358</v>
       </c>
       <c r="O12">
-        <v>0.9181113702421081</v>
+        <v>0.7256527701207064</v>
       </c>
       <c r="P12">
-        <v>1.096086963715791</v>
+        <v>1.31768332012383</v>
       </c>
       <c r="Q12">
-        <v>0.9835956847526333</v>
+        <v>0.9440310564651562</v>
       </c>
       <c r="R12">
-        <v>1.019692653133333</v>
+        <v>1.066360477920665</v>
       </c>
       <c r="S12">
-        <v>1.080417975564914</v>
+        <v>1.265925327685755</v>
       </c>
       <c r="T12">
-        <v>1.019692653133333</v>
+        <v>1.066360477920665</v>
       </c>
       <c r="U12">
-        <v>1.02703948966579</v>
+        <v>1.0903726941429</v>
       </c>
       <c r="V12">
-        <v>0.9950123981263154</v>
+        <v>0.9850411140171875</v>
       </c>
       <c r="W12">
-        <v>1.019670682280263</v>
+        <v>1.065439871593532</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.894702629890289</v>
+        <v>1.086443748630005</v>
       </c>
       <c r="D13">
-        <v>1.037697206745102</v>
+        <v>0.976639300290766</v>
       </c>
       <c r="E13">
-        <v>1.061848840986821</v>
+        <v>0.9472680922133543</v>
       </c>
       <c r="F13">
-        <v>0.9630961841580196</v>
+        <v>1.026253035689522</v>
       </c>
       <c r="G13">
-        <v>1.104888318853779</v>
+        <v>0.9497336044227108</v>
       </c>
       <c r="H13">
-        <v>1.104888318853779</v>
+        <v>0.9497336044227108</v>
       </c>
       <c r="I13">
-        <v>1.104888318853779</v>
+        <v>0.9497336044227108</v>
       </c>
       <c r="J13">
-        <v>0.8410188973164402</v>
+        <v>1.143276989970984</v>
       </c>
       <c r="K13">
-        <v>1.045331566649022</v>
+        <v>0.9440952850912661</v>
       </c>
       <c r="L13">
-        <v>0.9684055394055161</v>
+        <v>1.011956901820697</v>
       </c>
       <c r="M13">
-        <v>0.8410188973164402</v>
+        <v>1.143276989970984</v>
       </c>
       <c r="N13">
-        <v>1.104888318853779</v>
+        <v>0.9497336044227108</v>
       </c>
       <c r="O13">
-        <v>1.045331566649022</v>
+        <v>0.9440952850912661</v>
       </c>
       <c r="P13">
-        <v>0.9431752319827309</v>
+        <v>1.043686137531125</v>
       </c>
       <c r="Q13">
-        <v>1.004213875403521</v>
+        <v>0.9851741603903938</v>
       </c>
       <c r="R13">
-        <v>0.9970795942730802</v>
+        <v>1.012368626494987</v>
       </c>
       <c r="S13">
-        <v>0.9498155493744939</v>
+        <v>1.037875103583924</v>
       </c>
       <c r="T13">
-        <v>0.9970795942730802</v>
+        <v>1.012368626494987</v>
       </c>
       <c r="U13">
-        <v>0.9885837417443151</v>
+        <v>1.015839728793621</v>
       </c>
       <c r="V13">
-        <v>1.011844657166208</v>
+        <v>1.002618503919439</v>
       </c>
       <c r="W13">
-        <v>0.9896236480006235</v>
+        <v>1.010708369766163</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.957937099999999</v>
+        <v>1.167194106978946</v>
       </c>
       <c r="D14">
-        <v>0.6734045099999993</v>
+        <v>0.9423194778315789</v>
       </c>
       <c r="E14">
-        <v>0.4474934300000007</v>
+        <v>0.9037048607263135</v>
       </c>
       <c r="F14">
-        <v>1.280454000000002</v>
+        <v>1.049079999263159</v>
       </c>
       <c r="G14">
-        <v>0.2502035199999997</v>
+        <v>0.8669040319684184</v>
       </c>
       <c r="H14">
-        <v>0.2502035199999997</v>
+        <v>0.8669040319684184</v>
       </c>
       <c r="I14">
-        <v>0.2502035199999997</v>
+        <v>0.8669040319684184</v>
       </c>
       <c r="J14">
-        <v>2.574842499999997</v>
+        <v>1.274062557189474</v>
       </c>
       <c r="K14">
-        <v>0.5229061699999994</v>
+        <v>0.9181113702421081</v>
       </c>
       <c r="L14">
-        <v>1.2003094</v>
+        <v>1.035989054042106</v>
       </c>
       <c r="M14">
-        <v>2.574842499999997</v>
+        <v>1.274062557189474</v>
       </c>
       <c r="N14">
-        <v>0.2502035199999997</v>
+        <v>0.8669040319684184</v>
       </c>
       <c r="O14">
-        <v>0.5229061699999994</v>
+        <v>0.9181113702421081</v>
       </c>
       <c r="P14">
-        <v>1.548874334999998</v>
+        <v>1.096086963715791</v>
       </c>
       <c r="Q14">
-        <v>0.9016800850000004</v>
+        <v>0.9835956847526333</v>
       </c>
       <c r="R14">
-        <v>1.115984063333332</v>
+        <v>1.019692653133333</v>
       </c>
       <c r="S14">
-        <v>1.45940089</v>
+        <v>1.080417975564914</v>
       </c>
       <c r="T14">
-        <v>1.115984063333332</v>
+        <v>1.019692653133333</v>
       </c>
       <c r="U14">
-        <v>1.157101547499999</v>
+        <v>1.02703948966579</v>
       </c>
       <c r="V14">
-        <v>0.9757219419999995</v>
+        <v>0.9950123981263154</v>
       </c>
       <c r="W14">
-        <v>1.113443828749999</v>
+        <v>1.019670682280263</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.9579371</v>
+        <v>0.894702629890289</v>
       </c>
       <c r="D15">
-        <v>0.67340451</v>
+        <v>1.037697206745102</v>
       </c>
       <c r="E15">
-        <v>0.44749343</v>
+        <v>1.061848840986821</v>
       </c>
       <c r="F15">
-        <v>1.280454</v>
+        <v>0.9630961841580196</v>
       </c>
       <c r="G15">
-        <v>0.25020352</v>
+        <v>1.104888318853779</v>
       </c>
       <c r="H15">
-        <v>0.25020352</v>
+        <v>1.104888318853779</v>
       </c>
       <c r="I15">
-        <v>0.25020352</v>
+        <v>1.104888318853779</v>
       </c>
       <c r="J15">
-        <v>2.5748425</v>
+        <v>0.8410188973164402</v>
       </c>
       <c r="K15">
-        <v>0.5229061699999999</v>
+        <v>1.045331566649022</v>
       </c>
       <c r="L15">
-        <v>1.2003094</v>
+        <v>0.9684055394055161</v>
       </c>
       <c r="M15">
-        <v>2.5748425</v>
+        <v>0.8410188973164402</v>
       </c>
       <c r="N15">
-        <v>0.25020352</v>
+        <v>1.104888318853779</v>
       </c>
       <c r="O15">
-        <v>0.5229061699999999</v>
+        <v>1.045331566649022</v>
       </c>
       <c r="P15">
-        <v>1.548874335</v>
+        <v>0.9431752319827309</v>
       </c>
       <c r="Q15">
-        <v>0.901680085</v>
+        <v>1.004213875403521</v>
       </c>
       <c r="R15">
-        <v>1.115984063333333</v>
+        <v>0.9970795942730802</v>
       </c>
       <c r="S15">
-        <v>1.45940089</v>
+        <v>0.9498155493744939</v>
       </c>
       <c r="T15">
-        <v>1.115984063333333</v>
+        <v>0.9970795942730802</v>
       </c>
       <c r="U15">
-        <v>1.1571015475</v>
+        <v>0.9885837417443151</v>
       </c>
       <c r="V15">
-        <v>0.9757219420000001</v>
+        <v>1.011844657166208</v>
       </c>
       <c r="W15">
-        <v>1.11344382875</v>
+        <v>0.9896236480006235</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.9579371</v>
+        <v>1.957937099999999</v>
       </c>
       <c r="D16">
-        <v>0.67340451</v>
+        <v>0.6734045099999993</v>
       </c>
       <c r="E16">
-        <v>0.44749343</v>
+        <v>0.4474934300000007</v>
       </c>
       <c r="F16">
-        <v>1.280454</v>
+        <v>1.280454000000002</v>
       </c>
       <c r="G16">
-        <v>0.25020352</v>
+        <v>0.2502035199999997</v>
       </c>
       <c r="H16">
-        <v>0.25020352</v>
+        <v>0.2502035199999997</v>
       </c>
       <c r="I16">
-        <v>0.25020352</v>
+        <v>0.2502035199999997</v>
       </c>
       <c r="J16">
-        <v>2.5748425</v>
+        <v>2.574842499999997</v>
       </c>
       <c r="K16">
-        <v>0.5229061699999999</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="L16">
         <v>1.2003094</v>
       </c>
       <c r="M16">
-        <v>2.5748425</v>
+        <v>2.574842499999997</v>
       </c>
       <c r="N16">
-        <v>0.25020352</v>
+        <v>0.2502035199999997</v>
       </c>
       <c r="O16">
-        <v>0.5229061699999999</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="P16">
-        <v>1.548874335</v>
+        <v>1.548874334999998</v>
       </c>
       <c r="Q16">
-        <v>0.901680085</v>
+        <v>0.9016800850000004</v>
       </c>
       <c r="R16">
-        <v>1.115984063333333</v>
+        <v>1.115984063333332</v>
       </c>
       <c r="S16">
         <v>1.45940089</v>
       </c>
       <c r="T16">
-        <v>1.115984063333333</v>
+        <v>1.115984063333332</v>
       </c>
       <c r="U16">
-        <v>1.1571015475</v>
+        <v>1.157101547499999</v>
       </c>
       <c r="V16">
-        <v>0.9757219420000001</v>
+        <v>0.9757219419999995</v>
       </c>
       <c r="W16">
-        <v>1.11344382875</v>
+        <v>1.113443828749999</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.01815</v>
+        <v>1.9579371</v>
       </c>
       <c r="D17">
-        <v>0.93024915</v>
+        <v>0.67340451</v>
       </c>
       <c r="E17">
-        <v>1.0137822</v>
+        <v>0.44749343</v>
       </c>
       <c r="F17">
-        <v>1.0091205</v>
+        <v>1.280454</v>
       </c>
       <c r="G17">
-        <v>0.77213125</v>
+        <v>0.25020352</v>
       </c>
       <c r="H17">
-        <v>0.77213125</v>
+        <v>0.25020352</v>
       </c>
       <c r="I17">
-        <v>0.77213125</v>
+        <v>0.25020352</v>
       </c>
       <c r="J17">
-        <v>0.98600923</v>
+        <v>2.5748425</v>
       </c>
       <c r="K17">
-        <v>1.1295795</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="L17">
-        <v>1.0849238</v>
+        <v>1.2003094</v>
       </c>
       <c r="M17">
-        <v>0.98600923</v>
+        <v>2.5748425</v>
       </c>
       <c r="N17">
-        <v>0.77213125</v>
+        <v>0.25020352</v>
       </c>
       <c r="O17">
-        <v>1.1295795</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="P17">
-        <v>1.057794365</v>
+        <v>1.548874335</v>
       </c>
       <c r="Q17">
-        <v>1.06935</v>
+        <v>0.901680085</v>
       </c>
       <c r="R17">
-        <v>0.9625733266666666</v>
+        <v>1.115984063333333</v>
       </c>
       <c r="S17">
-        <v>1.041569743333333</v>
+        <v>1.45940089</v>
       </c>
       <c r="T17">
-        <v>0.9625733266666666</v>
+        <v>1.115984063333333</v>
       </c>
       <c r="U17">
-        <v>0.97421012</v>
+        <v>1.1571015475</v>
       </c>
       <c r="V17">
-        <v>0.933794346</v>
+        <v>0.9757219420000001</v>
       </c>
       <c r="W17">
-        <v>0.99299320375</v>
+        <v>1.11344382875</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.339994901095891</v>
+        <v>1.9579371</v>
       </c>
       <c r="D18">
-        <v>0.842288654657534</v>
+        <v>0.67340451</v>
       </c>
       <c r="E18">
-        <v>0.8198476771232877</v>
+        <v>0.44749343</v>
       </c>
       <c r="F18">
-        <v>1.102042944657534</v>
+        <v>1.280454</v>
       </c>
       <c r="G18">
-        <v>0.59338887890411</v>
+        <v>0.25020352</v>
       </c>
       <c r="H18">
-        <v>0.59338887890411</v>
+        <v>0.25020352</v>
       </c>
       <c r="I18">
-        <v>0.59338887890411</v>
+        <v>0.25020352</v>
       </c>
       <c r="J18">
-        <v>1.530130229863014</v>
+        <v>2.5748425</v>
       </c>
       <c r="K18">
-        <v>0.9218146823287668</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="L18">
-        <v>1.12443942739726</v>
+        <v>1.2003094</v>
       </c>
       <c r="M18">
-        <v>1.530130229863014</v>
+        <v>2.5748425</v>
       </c>
       <c r="N18">
-        <v>0.59338887890411</v>
+        <v>0.25020352</v>
       </c>
       <c r="O18">
-        <v>0.9218146823287668</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="P18">
-        <v>1.22597245609589</v>
+        <v>1.548874335</v>
       </c>
       <c r="Q18">
-        <v>1.011928813493151</v>
+        <v>0.901680085</v>
       </c>
       <c r="R18">
-        <v>1.01511126369863</v>
+        <v>1.115984063333333</v>
       </c>
       <c r="S18">
-        <v>1.184662618949772</v>
+        <v>1.45940089</v>
       </c>
       <c r="T18">
-        <v>1.01511126369863</v>
+        <v>1.115984063333333</v>
       </c>
       <c r="U18">
-        <v>1.036844183938356</v>
+        <v>1.1571015475</v>
       </c>
       <c r="V18">
-        <v>0.9481531229315067</v>
+        <v>0.9757219420000001</v>
       </c>
       <c r="W18">
-        <v>1.034243424503424</v>
+        <v>1.11344382875</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.364387356315789</v>
+        <v>1.01815</v>
       </c>
       <c r="D19">
-        <v>0.8356221752631577</v>
+        <v>0.93024915</v>
       </c>
       <c r="E19">
-        <v>0.8051494831578948</v>
+        <v>1.0137822</v>
       </c>
       <c r="F19">
-        <v>1.10908548631579</v>
+        <v>1.0091205</v>
       </c>
       <c r="G19">
-        <v>0.5798420884210527</v>
+        <v>0.77213125</v>
       </c>
       <c r="H19">
-        <v>0.5798420884210527</v>
+        <v>0.77213125</v>
       </c>
       <c r="I19">
-        <v>0.5798420884210527</v>
+        <v>0.77213125</v>
       </c>
       <c r="J19">
-        <v>1.571368872105263</v>
+        <v>0.98600923</v>
       </c>
       <c r="K19">
-        <v>0.9060682936842106</v>
+        <v>1.1295795</v>
       </c>
       <c r="L19">
-        <v>1.127434294736842</v>
+        <v>1.0849238</v>
       </c>
       <c r="M19">
-        <v>1.571368872105263</v>
+        <v>0.98600923</v>
       </c>
       <c r="N19">
-        <v>0.5798420884210527</v>
+        <v>0.77213125</v>
       </c>
       <c r="O19">
-        <v>0.9060682936842106</v>
+        <v>1.1295795</v>
       </c>
       <c r="P19">
-        <v>1.238718582894736</v>
+        <v>1.057794365</v>
       </c>
       <c r="Q19">
-        <v>1.00757689</v>
+        <v>1.06935</v>
       </c>
       <c r="R19">
-        <v>1.019093084736842</v>
+        <v>0.9625733266666666</v>
       </c>
       <c r="S19">
-        <v>1.195507550701754</v>
+        <v>1.041569743333333</v>
       </c>
       <c r="T19">
-        <v>1.019093084736842</v>
+        <v>0.9625733266666666</v>
       </c>
       <c r="U19">
-        <v>1.041591185131579</v>
+        <v>0.97421012</v>
       </c>
       <c r="V19">
-        <v>0.9492413657894737</v>
+        <v>0.933794346</v>
       </c>
       <c r="W19">
-        <v>1.03736975625</v>
+        <v>0.99299320375</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.364387356315789</v>
+        <v>1.339994901095891</v>
       </c>
       <c r="D20">
-        <v>0.8356221752631577</v>
+        <v>0.842288654657534</v>
       </c>
       <c r="E20">
-        <v>0.8051494831578948</v>
+        <v>0.8198476771232877</v>
       </c>
       <c r="F20">
-        <v>1.10908548631579</v>
+        <v>1.102042944657534</v>
       </c>
       <c r="G20">
-        <v>0.5798420884210527</v>
+        <v>0.59338887890411</v>
       </c>
       <c r="H20">
-        <v>0.5798420884210527</v>
+        <v>0.59338887890411</v>
       </c>
       <c r="I20">
-        <v>0.5798420884210527</v>
+        <v>0.59338887890411</v>
       </c>
       <c r="J20">
-        <v>1.571368872105263</v>
+        <v>1.530130229863014</v>
       </c>
       <c r="K20">
-        <v>0.9060682936842106</v>
+        <v>0.9218146823287668</v>
       </c>
       <c r="L20">
-        <v>1.127434294736842</v>
+        <v>1.12443942739726</v>
       </c>
       <c r="M20">
-        <v>1.571368872105263</v>
+        <v>1.530130229863014</v>
       </c>
       <c r="N20">
-        <v>0.5798420884210527</v>
+        <v>0.59338887890411</v>
       </c>
       <c r="O20">
-        <v>0.9060682936842106</v>
+        <v>0.9218146823287668</v>
       </c>
       <c r="P20">
-        <v>1.238718582894736</v>
+        <v>1.22597245609589</v>
       </c>
       <c r="Q20">
-        <v>1.00757689</v>
+        <v>1.011928813493151</v>
       </c>
       <c r="R20">
-        <v>1.019093084736842</v>
+        <v>1.01511126369863</v>
       </c>
       <c r="S20">
-        <v>1.195507550701754</v>
+        <v>1.184662618949772</v>
       </c>
       <c r="T20">
-        <v>1.019093084736842</v>
+        <v>1.01511126369863</v>
       </c>
       <c r="U20">
-        <v>1.041591185131579</v>
+        <v>1.036844183938356</v>
       </c>
       <c r="V20">
-        <v>0.9492413657894737</v>
+        <v>0.9481531229315067</v>
       </c>
       <c r="W20">
-        <v>1.03736975625</v>
+        <v>1.034243424503424</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8980927650089238</v>
+        <v>1.364387356315789</v>
       </c>
       <c r="D21">
-        <v>0.9881717888424015</v>
+        <v>0.8356221752631577</v>
       </c>
       <c r="E21">
-        <v>1.080046699087106</v>
+        <v>0.8051494831578948</v>
       </c>
       <c r="F21">
-        <v>0.9642769759617721</v>
+        <v>1.10908548631579</v>
       </c>
       <c r="G21">
-        <v>0.9443252807997767</v>
+        <v>0.5798420884210527</v>
       </c>
       <c r="H21">
-        <v>0.9443252807997767</v>
+        <v>0.5798420884210527</v>
       </c>
       <c r="I21">
-        <v>0.9443252807997767</v>
+        <v>0.5798420884210527</v>
       </c>
       <c r="J21">
-        <v>0.8204048001973049</v>
+        <v>1.571368872105263</v>
       </c>
       <c r="K21">
-        <v>1.149037622560001</v>
+        <v>0.9060682936842106</v>
       </c>
       <c r="L21">
-        <v>1.02705651789595</v>
+        <v>1.127434294736842</v>
       </c>
       <c r="M21">
-        <v>0.8204048001973049</v>
+        <v>1.571368872105263</v>
       </c>
       <c r="N21">
-        <v>0.9443252807997767</v>
+        <v>0.5798420884210527</v>
       </c>
       <c r="O21">
-        <v>1.149037622560001</v>
+        <v>0.9060682936842106</v>
       </c>
       <c r="P21">
-        <v>0.9847212113786532</v>
+        <v>1.238718582894736</v>
       </c>
       <c r="Q21">
-        <v>1.056657299260887</v>
+        <v>1.00757689</v>
       </c>
       <c r="R21">
-        <v>0.9712559011856944</v>
+        <v>1.019093084736842</v>
       </c>
       <c r="S21">
-        <v>0.9779064662396929</v>
+        <v>1.195507550701754</v>
       </c>
       <c r="T21">
-        <v>0.9712559011856943</v>
+        <v>1.019093084736842</v>
       </c>
       <c r="U21">
-        <v>0.9695111698797138</v>
+        <v>1.041591185131579</v>
       </c>
       <c r="V21">
-        <v>0.9644739920637264</v>
+        <v>0.9492413657894737</v>
       </c>
       <c r="W21">
-        <v>0.9839265562941546</v>
+        <v>1.03736975625</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.994371919217742</v>
+        <v>1.364387356315789</v>
       </c>
       <c r="D22">
-        <v>1.025025072477704</v>
+        <v>0.8356221752631577</v>
       </c>
       <c r="E22">
-        <v>0.9930521465437686</v>
+        <v>0.8051494831578948</v>
       </c>
       <c r="F22">
-        <v>1.000864111465482</v>
+        <v>1.10908548631579</v>
       </c>
       <c r="G22">
-        <v>1.071988105605746</v>
+        <v>0.5798420884210527</v>
       </c>
       <c r="H22">
-        <v>1.071988105605746</v>
+        <v>0.5798420884210527</v>
       </c>
       <c r="I22">
-        <v>1.071988105605746</v>
+        <v>0.5798420884210527</v>
       </c>
       <c r="J22">
-        <v>0.9979665529146311</v>
+        <v>1.571368872105263</v>
       </c>
       <c r="K22">
-        <v>0.9541843545190981</v>
+        <v>0.9060682936842106</v>
       </c>
       <c r="L22">
-        <v>0.9741967500424997</v>
+        <v>1.127434294736842</v>
       </c>
       <c r="M22">
-        <v>0.9979665529146311</v>
+        <v>1.571368872105263</v>
       </c>
       <c r="N22">
-        <v>1.071988105605746</v>
+        <v>0.5798420884210527</v>
       </c>
       <c r="O22">
-        <v>0.9541843545190981</v>
+        <v>0.9060682936842106</v>
       </c>
       <c r="P22">
-        <v>0.9760754537168645</v>
+        <v>1.238718582894736</v>
       </c>
       <c r="Q22">
-        <v>0.97752423299229</v>
+        <v>1.00757689</v>
       </c>
       <c r="R22">
-        <v>1.008046337679825</v>
+        <v>1.019093084736842</v>
       </c>
       <c r="S22">
-        <v>0.9843383396330703</v>
+        <v>1.195507550701754</v>
       </c>
       <c r="T22">
-        <v>1.008046337679825</v>
+        <v>1.019093084736842</v>
       </c>
       <c r="U22">
-        <v>1.006250781126239</v>
+        <v>1.041591185131579</v>
       </c>
       <c r="V22">
-        <v>1.019398246022141</v>
+        <v>0.9492413657894737</v>
       </c>
       <c r="W22">
-        <v>1.001456126598334</v>
+        <v>1.03736975625</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.8426738606596357</v>
+        <v>0.8980927650089238</v>
       </c>
       <c r="D23">
-        <v>1.082862769416514</v>
+        <v>0.9881717888424015</v>
       </c>
       <c r="E23">
-        <v>1.079165807843437</v>
+        <v>1.080046699087106</v>
       </c>
       <c r="F23">
-        <v>0.9528495260875799</v>
+        <v>0.9642769759617721</v>
       </c>
       <c r="G23">
-        <v>1.220272599678329</v>
+        <v>0.9443252807997767</v>
       </c>
       <c r="H23">
-        <v>1.220272599678329</v>
+        <v>0.9443252807997767</v>
       </c>
       <c r="I23">
-        <v>1.220272599678329</v>
+        <v>0.9443252807997767</v>
       </c>
       <c r="J23">
-        <v>0.7597461781066923</v>
+        <v>0.8204048001973049</v>
       </c>
       <c r="K23">
-        <v>1.014626936988383</v>
+        <v>1.149037622560001</v>
       </c>
       <c r="L23">
-        <v>0.930732116365203</v>
+        <v>1.02705651789595</v>
       </c>
       <c r="M23">
-        <v>0.7597461781066923</v>
+        <v>0.8204048001973049</v>
       </c>
       <c r="N23">
-        <v>1.220272599678329</v>
+        <v>0.9443252807997767</v>
       </c>
       <c r="O23">
-        <v>1.014626936988383</v>
+        <v>1.149037622560001</v>
       </c>
       <c r="P23">
-        <v>0.8871865575475375</v>
+        <v>0.9847212113786532</v>
       </c>
       <c r="Q23">
-        <v>0.9837382315379812</v>
+        <v>1.056657299260887</v>
       </c>
       <c r="R23">
-        <v>0.9982152382578012</v>
+        <v>0.9712559011856944</v>
       </c>
       <c r="S23">
-        <v>0.9090742137275516</v>
+        <v>0.9779064662396929</v>
       </c>
       <c r="T23">
-        <v>0.9982152382578012</v>
+        <v>0.9712559011856943</v>
       </c>
       <c r="U23">
-        <v>0.9868738102152459</v>
+        <v>0.9695111698797138</v>
       </c>
       <c r="V23">
-        <v>1.033553568107862</v>
+        <v>0.9644739920637264</v>
       </c>
       <c r="W23">
-        <v>0.9853662243932217</v>
+        <v>0.9839265562941546</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9514587731829951</v>
+        <v>0.994371919217742</v>
       </c>
       <c r="D24">
-        <v>1.00641866625033</v>
+        <v>1.025025072477704</v>
       </c>
       <c r="E24">
-        <v>1.034307751365484</v>
+        <v>0.9930521465437686</v>
       </c>
       <c r="F24">
-        <v>0.9778158369090592</v>
+        <v>1.000864111465482</v>
       </c>
       <c r="G24">
-        <v>1.028013016945666</v>
+        <v>1.071988105605746</v>
       </c>
       <c r="H24">
-        <v>1.028013016945666</v>
+        <v>1.071988105605746</v>
       </c>
       <c r="I24">
-        <v>1.028013016945666</v>
+        <v>1.071988105605746</v>
       </c>
       <c r="J24">
-        <v>0.9315213570110723</v>
+        <v>0.9979665529146311</v>
       </c>
       <c r="K24">
-        <v>1.04145784451504</v>
+        <v>0.9541843545190981</v>
       </c>
       <c r="L24">
-        <v>0.9923932972234527</v>
+        <v>0.9741967500424997</v>
       </c>
       <c r="M24">
-        <v>0.9315213570110723</v>
+        <v>0.9979665529146311</v>
       </c>
       <c r="N24">
-        <v>1.028013016945666</v>
+        <v>1.071988105605746</v>
       </c>
       <c r="O24">
-        <v>1.04145784451504</v>
+        <v>0.9541843545190981</v>
       </c>
       <c r="P24">
-        <v>0.9864896007630564</v>
+        <v>0.9760754537168645</v>
       </c>
       <c r="Q24">
-        <v>1.00963684071205</v>
+        <v>0.97752423299229</v>
       </c>
       <c r="R24">
-        <v>1.000330739490593</v>
+        <v>1.008046337679825</v>
       </c>
       <c r="S24">
-        <v>0.9835983461450573</v>
+        <v>0.9843383396330703</v>
       </c>
       <c r="T24">
-        <v>1.000330739490593</v>
+        <v>1.008046337679825</v>
       </c>
       <c r="U24">
-        <v>0.9947020138452096</v>
+        <v>1.006250781126239</v>
       </c>
       <c r="V24">
-        <v>1.001364214465301</v>
+        <v>1.019398246022141</v>
       </c>
       <c r="W24">
-        <v>0.9954233179253875</v>
+        <v>1.001456126598334</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8980927650089238</v>
+        <v>0.8426738606596357</v>
       </c>
       <c r="D25">
-        <v>0.9881717888424015</v>
+        <v>1.082862769416514</v>
       </c>
       <c r="E25">
-        <v>1.080046699087106</v>
+        <v>1.079165807843437</v>
       </c>
       <c r="F25">
-        <v>0.9642769759617721</v>
+        <v>0.9528495260875799</v>
       </c>
       <c r="G25">
-        <v>0.9443252807997768</v>
+        <v>1.220272599678329</v>
       </c>
       <c r="H25">
-        <v>0.9443252807997768</v>
+        <v>1.220272599678329</v>
       </c>
       <c r="I25">
-        <v>0.9443252807997768</v>
+        <v>1.220272599678329</v>
       </c>
       <c r="J25">
-        <v>0.8204048001973049</v>
+        <v>0.7597461781066923</v>
       </c>
       <c r="K25">
-        <v>1.149037622560001</v>
+        <v>1.014626936988383</v>
       </c>
       <c r="L25">
-        <v>1.02705651789595</v>
+        <v>0.930732116365203</v>
       </c>
       <c r="M25">
-        <v>0.8204048001973049</v>
+        <v>0.7597461781066923</v>
       </c>
       <c r="N25">
-        <v>0.9443252807997768</v>
+        <v>1.220272599678329</v>
       </c>
       <c r="O25">
-        <v>1.149037622560001</v>
+        <v>1.014626936988383</v>
       </c>
       <c r="P25">
-        <v>0.9847212113786532</v>
+        <v>0.8871865575475375</v>
       </c>
       <c r="Q25">
-        <v>1.056657299260887</v>
+        <v>0.9837382315379812</v>
       </c>
       <c r="R25">
-        <v>0.9712559011856944</v>
+        <v>0.9982152382578012</v>
       </c>
       <c r="S25">
-        <v>0.9779064662396929</v>
+        <v>0.9090742137275516</v>
       </c>
       <c r="T25">
-        <v>0.9712559011856943</v>
+        <v>0.9982152382578012</v>
       </c>
       <c r="U25">
-        <v>0.9695111698797138</v>
+        <v>0.9868738102152459</v>
       </c>
       <c r="V25">
-        <v>0.9644739920637264</v>
+        <v>1.033553568107862</v>
       </c>
       <c r="W25">
-        <v>0.9839265562941546</v>
+        <v>0.9853662243932217</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.994371919217742</v>
+        <v>0.9514587731829951</v>
       </c>
       <c r="D26">
-        <v>1.025025072477704</v>
+        <v>1.00641866625033</v>
       </c>
       <c r="E26">
-        <v>0.9930521465437686</v>
+        <v>1.034307751365484</v>
       </c>
       <c r="F26">
-        <v>1.000864111465482</v>
+        <v>0.9778158369090592</v>
       </c>
       <c r="G26">
-        <v>1.071988105605746</v>
+        <v>1.028013016945666</v>
       </c>
       <c r="H26">
-        <v>1.071988105605746</v>
+        <v>1.028013016945666</v>
       </c>
       <c r="I26">
-        <v>1.071988105605746</v>
+        <v>1.028013016945666</v>
       </c>
       <c r="J26">
-        <v>0.9979665529146313</v>
+        <v>0.9315213570110723</v>
       </c>
       <c r="K26">
-        <v>0.954184354519098</v>
+        <v>1.04145784451504</v>
       </c>
       <c r="L26">
-        <v>0.9741967500424997</v>
+        <v>0.9923932972234527</v>
       </c>
       <c r="M26">
-        <v>0.9979665529146313</v>
+        <v>0.9315213570110723</v>
       </c>
       <c r="N26">
-        <v>1.071988105605746</v>
+        <v>1.028013016945666</v>
       </c>
       <c r="O26">
-        <v>0.954184354519098</v>
+        <v>1.04145784451504</v>
       </c>
       <c r="P26">
-        <v>0.9760754537168647</v>
+        <v>0.9864896007630564</v>
       </c>
       <c r="Q26">
-        <v>0.97752423299229</v>
+        <v>1.00963684071205</v>
       </c>
       <c r="R26">
-        <v>1.008046337679825</v>
+        <v>1.000330739490593</v>
       </c>
       <c r="S26">
-        <v>0.9843383396330704</v>
+        <v>0.9835983461450573</v>
       </c>
       <c r="T26">
-        <v>1.008046337679825</v>
+        <v>1.000330739490593</v>
       </c>
       <c r="U26">
-        <v>1.006250781126239</v>
+        <v>0.9947020138452096</v>
       </c>
       <c r="V26">
-        <v>1.019398246022141</v>
+        <v>1.001364214465301</v>
       </c>
       <c r="W26">
-        <v>1.001456126598334</v>
+        <v>0.9954233179253875</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.053814209266398</v>
+        <v>0.8980927650089238</v>
       </c>
       <c r="D27">
-        <v>0.9795047541632881</v>
+        <v>0.9881717888424015</v>
       </c>
       <c r="E27">
-        <v>0.9683250564812307</v>
+        <v>1.080046699087106</v>
       </c>
       <c r="F27">
-        <v>1.020319090645593</v>
+        <v>0.9642769759617721</v>
       </c>
       <c r="G27">
-        <v>0.9388171093576456</v>
+        <v>0.9443252807997768</v>
       </c>
       <c r="H27">
-        <v>0.9388171093576456</v>
+        <v>0.9443252807997768</v>
       </c>
       <c r="I27">
-        <v>0.9388171093576456</v>
+        <v>0.9443252807997768</v>
       </c>
       <c r="J27">
-        <v>1.077237485059289</v>
+        <v>0.8204048001973049</v>
       </c>
       <c r="K27">
-        <v>0.9800743610234084</v>
+        <v>1.149037622560001</v>
       </c>
       <c r="L27">
-        <v>1.019470845506103</v>
+        <v>1.02705651789595</v>
       </c>
       <c r="M27">
-        <v>1.077237485059289</v>
+        <v>0.8204048001973049</v>
       </c>
       <c r="N27">
-        <v>0.9388171093576456</v>
+        <v>0.9443252807997768</v>
       </c>
       <c r="O27">
-        <v>0.9800743610234084</v>
+        <v>1.149037622560001</v>
       </c>
       <c r="P27">
-        <v>1.028655923041349</v>
+        <v>0.9847212113786532</v>
       </c>
       <c r="Q27">
-        <v>1.000196725834501</v>
+        <v>1.056657299260887</v>
       </c>
       <c r="R27">
-        <v>0.9987096518134478</v>
+        <v>0.9712559011856944</v>
       </c>
       <c r="S27">
-        <v>1.02587697890943</v>
+        <v>0.9779064662396929</v>
       </c>
       <c r="T27">
-        <v>0.9987096518134478</v>
+        <v>0.9712559011856943</v>
       </c>
       <c r="U27">
-        <v>1.004112011521484</v>
+        <v>0.9695111698797138</v>
       </c>
       <c r="V27">
-        <v>0.9910530310887167</v>
+        <v>0.9644739920637264</v>
       </c>
       <c r="W27">
-        <v>1.00469536393787</v>
+        <v>0.9839265562941546</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.016497443153688</v>
+        <v>0.994371919217742</v>
       </c>
       <c r="D28">
-        <v>0.9765744177295308</v>
+        <v>1.025025072477704</v>
       </c>
       <c r="E28">
-        <v>0.997672102883351</v>
+        <v>0.9930521465437686</v>
       </c>
       <c r="F28">
-        <v>1.004487779519597</v>
+        <v>1.000864111465482</v>
       </c>
       <c r="G28">
-        <v>0.9312191363926513</v>
+        <v>1.071988105605746</v>
       </c>
       <c r="H28">
-        <v>0.9312191363926513</v>
+        <v>1.071988105605746</v>
       </c>
       <c r="I28">
-        <v>0.9312191363926513</v>
+        <v>1.071988105605746</v>
       </c>
       <c r="J28">
-        <v>1.017843970465306</v>
+        <v>0.9979665529146313</v>
       </c>
       <c r="K28">
-        <v>1.029805996700427</v>
+        <v>0.954184354519098</v>
       </c>
       <c r="L28">
-        <v>1.024468225012078</v>
+        <v>0.9741967500424997</v>
       </c>
       <c r="M28">
-        <v>1.017843970465306</v>
+        <v>0.9979665529146313</v>
       </c>
       <c r="N28">
-        <v>0.9312191363926513</v>
+        <v>1.071988105605746</v>
       </c>
       <c r="O28">
-        <v>1.029805996700427</v>
+        <v>0.954184354519098</v>
       </c>
       <c r="P28">
-        <v>1.023824983582867</v>
+        <v>0.9760754537168647</v>
       </c>
       <c r="Q28">
-        <v>1.017146888110012</v>
+        <v>0.97752423299229</v>
       </c>
       <c r="R28">
-        <v>0.9929563678527948</v>
+        <v>1.008046337679825</v>
       </c>
       <c r="S28">
-        <v>1.01737924889511</v>
+        <v>0.9843383396330704</v>
       </c>
       <c r="T28">
-        <v>0.9929563678527948</v>
+        <v>1.008046337679825</v>
       </c>
       <c r="U28">
-        <v>0.9958392207694955</v>
+        <v>1.006250781126239</v>
       </c>
       <c r="V28">
-        <v>0.9829152038941267</v>
+        <v>1.019398246022141</v>
       </c>
       <c r="W28">
-        <v>0.9998211339820787</v>
+        <v>1.001456126598334</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.053814209266398</v>
+      </c>
+      <c r="D29">
+        <v>0.9795047541632881</v>
+      </c>
+      <c r="E29">
+        <v>0.9683250564812307</v>
+      </c>
+      <c r="F29">
+        <v>1.020319090645593</v>
+      </c>
+      <c r="G29">
+        <v>0.9388171093576456</v>
+      </c>
+      <c r="H29">
+        <v>0.9388171093576456</v>
+      </c>
+      <c r="I29">
+        <v>0.9388171093576456</v>
+      </c>
+      <c r="J29">
+        <v>1.077237485059289</v>
+      </c>
+      <c r="K29">
+        <v>0.9800743610234084</v>
+      </c>
+      <c r="L29">
+        <v>1.019470845506103</v>
+      </c>
+      <c r="M29">
+        <v>1.077237485059289</v>
+      </c>
+      <c r="N29">
+        <v>0.9388171093576456</v>
+      </c>
+      <c r="O29">
+        <v>0.9800743610234084</v>
+      </c>
+      <c r="P29">
+        <v>1.028655923041349</v>
+      </c>
+      <c r="Q29">
+        <v>1.000196725834501</v>
+      </c>
+      <c r="R29">
+        <v>0.9987096518134478</v>
+      </c>
+      <c r="S29">
+        <v>1.02587697890943</v>
+      </c>
+      <c r="T29">
+        <v>0.9987096518134478</v>
+      </c>
+      <c r="U29">
+        <v>1.004112011521484</v>
+      </c>
+      <c r="V29">
+        <v>0.9910530310887167</v>
+      </c>
+      <c r="W29">
+        <v>1.00469536393787</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.016497443153688</v>
+      </c>
+      <c r="D30">
+        <v>0.9765744177295308</v>
+      </c>
+      <c r="E30">
+        <v>0.997672102883351</v>
+      </c>
+      <c r="F30">
+        <v>1.004487779519597</v>
+      </c>
+      <c r="G30">
+        <v>0.9312191363926513</v>
+      </c>
+      <c r="H30">
+        <v>0.9312191363926513</v>
+      </c>
+      <c r="I30">
+        <v>0.9312191363926513</v>
+      </c>
+      <c r="J30">
+        <v>1.017843970465306</v>
+      </c>
+      <c r="K30">
+        <v>1.029805996700427</v>
+      </c>
+      <c r="L30">
+        <v>1.024468225012078</v>
+      </c>
+      <c r="M30">
+        <v>1.017843970465306</v>
+      </c>
+      <c r="N30">
+        <v>0.9312191363926513</v>
+      </c>
+      <c r="O30">
+        <v>1.029805996700427</v>
+      </c>
+      <c r="P30">
+        <v>1.023824983582867</v>
+      </c>
+      <c r="Q30">
+        <v>1.017146888110012</v>
+      </c>
+      <c r="R30">
+        <v>0.9929563678527948</v>
+      </c>
+      <c r="S30">
+        <v>1.01737924889511</v>
+      </c>
+      <c r="T30">
+        <v>0.9929563678527948</v>
+      </c>
+      <c r="U30">
+        <v>0.9958392207694955</v>
+      </c>
+      <c r="V30">
+        <v>0.9829152038941267</v>
+      </c>
+      <c r="W30">
+        <v>0.9998211339820787</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.8441366193415202</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.036414881636813</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.098127959753241</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9496848272711571</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.081006331745693</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.081006331745693</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.081006331745693</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.7447040679375132</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.111266002581416</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9817444157251599</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.7447040679375132</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.081006331745693</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.111266002581416</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9279850352594646</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.030475414926287</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9789921340882076</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9352182992633621</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9789921340882076</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.971665307383945</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9935335122562947</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>0.9808856382490643</v>
       </c>
     </row>
